--- a/data/bdi_df.xlsx
+++ b/data/bdi_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X73"/>
+  <dimension ref="A1:W73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,110 +446,105 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>BDI_sum_post</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>BDI_diff</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>AGE_AT_OP</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>UPDRS3_ratio</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>theta_L</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>theta_R</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>alpha_L</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>alpha_R</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>low-beta_L</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>low-beta_R</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>high-beta_L</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>high-beta_R</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>MAD_L</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>MAD_R</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>LEDD_ratio</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>X_L</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Y_L</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Z_L</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>X_R</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Y_R</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Z_R</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Pat_ID</t>
         </is>
@@ -563,69 +558,66 @@
         <v>-1.044625864142478</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6919524555523756</v>
+        <v>-2</v>
       </c>
       <c r="D2" t="n">
-        <v>-2</v>
+        <v>-1.626742808547639</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.626742808547639</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2285714285714286</v>
+        <v>1.079075810623373</v>
       </c>
       <c r="G2" t="n">
-        <v>1.079075810623373</v>
+        <v>2.185121720442071</v>
       </c>
       <c r="H2" t="n">
-        <v>2.185121720442071</v>
+        <v>-0.6634953473547206</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6634953473547206</v>
+        <v>-0.8461932470823021</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.8461932470823021</v>
+        <v>0.4812474201096446</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4812474201096446</v>
+        <v>1.21326282270028</v>
       </c>
       <c r="L2" t="n">
-        <v>1.21326282270028</v>
+        <v>0.6353196868566902</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6353196868566902</v>
+        <v>0.7867502168784561</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7867502168784561</v>
+        <v>-0.2337722786158035</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.2337722786158035</v>
+        <v>-0.1516610358441694</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.1516610358441694</v>
+        <v>0.48369714560705</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.48369714560705</v>
+        <v>1.406372409363764</v>
       </c>
       <c r="R2" t="n">
-        <v>1.406372409363764</v>
+        <v>1.123218751745443</v>
       </c>
       <c r="S2" t="n">
-        <v>1.123218751745443</v>
+        <v>0.3140627066783801</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3140627066783801</v>
+        <v>0.3038033815903971</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3038033815903971</v>
+        <v>-0.09785030339602621</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.09785030339602621</v>
+        <v>0.04897297432397765</v>
       </c>
       <c r="W2" t="n">
-        <v>0.04897297432397765</v>
-      </c>
-      <c r="X2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -637,69 +629,66 @@
         <v>-0.3399694484492768</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1296027325151821</v>
+        <v>-3</v>
       </c>
       <c r="D3" t="n">
-        <v>-3</v>
+        <v>-0.6881014621804309</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.6881014621804309</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.6685758525266641</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6685758525266641</v>
+        <v>-1.325123279788957</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.325123279788957</v>
+        <v>-0.7503317174094464</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7503317174094464</v>
+        <v>-0.3936732698207331</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.3936732698207331</v>
+        <v>-0.4400697787640809</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.4400697787640809</v>
+        <v>0.7622408533798593</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7622408533798593</v>
+        <v>-0.8069904548352332</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.8069904548352332</v>
+        <v>0.8219978168512284</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8219978168512284</v>
+        <v>-0.21992073058939</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.21992073058939</v>
+        <v>-0.1829794810188182</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.1829794810188182</v>
+        <v>-0.3525080752743974</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.3525080752743974</v>
+        <v>0.3721672217920332</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3721672217920332</v>
+        <v>0.1688774478956298</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1688774478956298</v>
+        <v>0.1848968462335928</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1848968462335928</v>
+        <v>-0.1368859221597664</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.1368859221597664</v>
+        <v>-0.008634179959720685</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.008634179959720685</v>
+        <v>0.2801659319079046</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2801659319079046</v>
-      </c>
-      <c r="X3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -711,69 +700,66 @@
         <v>-0.3399694484492768</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1296027325151821</v>
+        <v>-3</v>
       </c>
       <c r="D4" t="n">
-        <v>-3</v>
+        <v>-0.6881014621804309</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.6881014621804309</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.6685758525266641</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6685758525266641</v>
+        <v>-1.325123279788957</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.325123279788957</v>
+        <v>-0.7503317174094464</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.7503317174094464</v>
+        <v>-0.3936732698207331</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.3936732698207331</v>
+        <v>-0.4400697787640809</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.4400697787640809</v>
+        <v>0.7622408533798593</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7622408533798593</v>
+        <v>-0.8069904548352332</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.8069904548352332</v>
+        <v>0.8219978168512284</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8219978168512284</v>
+        <v>-0.21992073058939</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.21992073058939</v>
+        <v>-0.1829794810188182</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.1829794810188182</v>
+        <v>-0.3525080752743974</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.3525080752743974</v>
+        <v>0.3721672217920332</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3721672217920332</v>
+        <v>0.1688774478956298</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1688774478956298</v>
+        <v>0.1848968462335928</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1848968462335928</v>
+        <v>-0.1368859221597664</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.1368859221597664</v>
+        <v>-0.008634179959720685</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.008634179959720685</v>
+        <v>0.2801659319079046</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2801659319079046</v>
-      </c>
-      <c r="X4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -785,69 +771,66 @@
         <v>-0.3399694484492768</v>
       </c>
       <c r="C5" t="n">
-        <v>1.979208728874293</v>
+        <v>-18</v>
       </c>
       <c r="D5" t="n">
-        <v>-18</v>
+        <v>0.8579739806008415</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8579739806008415</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5945945945945946</v>
+        <v>-0.664756161661453</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.664756161661453</v>
+        <v>1.135553738306794</v>
       </c>
       <c r="H5" t="n">
-        <v>1.135553738306794</v>
+        <v>1.871738435581781</v>
       </c>
       <c r="I5" t="n">
-        <v>1.871738435581781</v>
+        <v>2.078291897786864</v>
       </c>
       <c r="J5" t="n">
-        <v>2.078291897786864</v>
+        <v>0.7953954801632762</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7953954801632762</v>
+        <v>-0.4479650258279262</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.4479650258279262</v>
+        <v>-0.156636907311909</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.156636907311909</v>
+        <v>-1.10168111352529</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.10168111352529</v>
+        <v>-0.3301523546999582</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.3301523546999582</v>
+        <v>-0.2233992627284797</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2233992627284797</v>
+        <v>-1.515931867742584</v>
       </c>
       <c r="Q5" t="n">
-        <v>-1.515931867742584</v>
+        <v>0.9894482341130947</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9894482341130947</v>
+        <v>-1.319023979132787</v>
       </c>
       <c r="S5" t="n">
-        <v>-1.319023979132787</v>
+        <v>-1.095072112192995</v>
       </c>
       <c r="T5" t="n">
-        <v>-1.095072112192995</v>
+        <v>-0.6664883462613878</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.6664883462613878</v>
+        <v>-0.8118435895293252</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.8118435895293252</v>
+        <v>-1.137887596879949</v>
       </c>
       <c r="W5" t="n">
-        <v>-1.137887596879949</v>
-      </c>
-      <c r="X5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -859,69 +842,66 @@
         <v>-0.5748549203470105</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4327469905220113</v>
+        <v>-8</v>
       </c>
       <c r="D6" t="n">
-        <v>-8</v>
+        <v>-0.3790850979741488</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3790850979741488</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5471698113207547</v>
+        <v>-0.4127257121502728</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4127257121502728</v>
+        <v>-1.696008115910737</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.696008115910737</v>
+        <v>-0.2542244040082101</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2542244040082101</v>
+        <v>-1.330550290617086</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.330550290617086</v>
+        <v>-0.7257777273846883</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.7257777273846883</v>
+        <v>-1.130831680305263</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.130831680305263</v>
+        <v>0.4423938195145406</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4423938195145406</v>
+        <v>-0.6362889349771538</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.6362889349771538</v>
+        <v>-0.1519292074796524</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1519292074796524</v>
+        <v>-0.1527125563207623</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1527125563207623</v>
+        <v>0.3983709130493598</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3983709130493598</v>
+        <v>-0.1952852832044008</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1952852832044008</v>
+        <v>-0.4510850551925392</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.4510850551925392</v>
+        <v>-0.7172003111196167</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.7172003111196167</v>
+        <v>-0.761043405540146</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.761043405540146</v>
+        <v>-1.202337569972903</v>
       </c>
       <c r="V6" t="n">
-        <v>-1.202337569972903</v>
+        <v>-0.2177578892499355</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.2177578892499355</v>
-      </c>
-      <c r="X6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -933,69 +913,66 @@
         <v>-0.1050839765515433</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8545092827999065</v>
+        <v>-9</v>
       </c>
       <c r="D7" t="n">
-        <v>-9</v>
+        <v>-1.489954214316991</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.489954214316991</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9166666666666666</v>
+        <v>1.287431741814693</v>
       </c>
       <c r="G7" t="n">
-        <v>1.287431741814693</v>
+        <v>1.192523145571758</v>
       </c>
       <c r="H7" t="n">
-        <v>1.192523145571758</v>
+        <v>0.7818766183666923</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7818766183666923</v>
+        <v>0.7839168925544333</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7839168925544333</v>
+        <v>1.651061459185758</v>
       </c>
       <c r="K7" t="n">
-        <v>1.651061459185758</v>
+        <v>-0.8998552753487181</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.8998552753487181</v>
+        <v>-1.224391634681598</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.224391634681598</v>
+        <v>-0.9777627603741733</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.9777627603741733</v>
+        <v>-0.2751599913556331</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2751599913556331</v>
+        <v>-0.2020273673895214</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.2020273673895214</v>
+        <v>0.1217124548466827</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1217124548466827</v>
+        <v>0.2452959970945879</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2452959970945879</v>
+        <v>-0.7107426907823949</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.7107426907823949</v>
+        <v>0.4424567563951107</v>
       </c>
       <c r="T7" t="n">
-        <v>0.4424567563951107</v>
+        <v>0.2119819067699697</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2119819067699697</v>
+        <v>-1.188661140937705</v>
       </c>
       <c r="V7" t="n">
-        <v>-1.188661140937705</v>
+        <v>0.2984686334432341</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2984686334432341</v>
-      </c>
-      <c r="X7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1007,69 +984,66 @@
         <v>-0.3399694484492768</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4327469905220113</v>
+        <v>-7</v>
       </c>
       <c r="D8" t="n">
-        <v>-7</v>
+        <v>0.7437074793670065</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7437074793670065</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7647058823529411</v>
+        <v>1.11942530056132</v>
       </c>
       <c r="G8" t="n">
-        <v>1.11942530056132</v>
+        <v>1.252588876764866</v>
       </c>
       <c r="H8" t="n">
-        <v>1.252588876764866</v>
+        <v>0.1827389715378367</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1827389715378367</v>
+        <v>1.910776517371914</v>
       </c>
       <c r="J8" t="n">
-        <v>1.910776517371914</v>
+        <v>-0.7887494489127433</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.7887494489127433</v>
+        <v>-0.3496321082242661</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.3496321082242661</v>
+        <v>-1.224795515319249</v>
       </c>
       <c r="M8" t="n">
-        <v>-1.224795515319249</v>
+        <v>-1.322885110784254</v>
       </c>
       <c r="N8" t="n">
-        <v>-1.322885110784254</v>
+        <v>-0.4655379463198251</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.4655379463198251</v>
+        <v>-0.2525727332892089</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.2525727332892089</v>
+        <v>0.845009867071418</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.845009867071418</v>
+        <v>0.74916838948638</v>
       </c>
       <c r="R8" t="n">
-        <v>0.74916838948638</v>
+        <v>-0.3438946246373525</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.3438946246373525</v>
+        <v>0.3553596546078577</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3553596546078577</v>
+        <v>1.359414245851009</v>
       </c>
       <c r="U8" t="n">
-        <v>1.359414245851009</v>
+        <v>-0.07219323663537722</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.07219323663537722</v>
+        <v>-0.9555643302803263</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.9555643302803263</v>
-      </c>
-      <c r="X8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1081,69 +1055,66 @@
         <v>-1.749282279835678</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6919524555523756</v>
+        <v>-5</v>
       </c>
       <c r="D9" t="n">
-        <v>-5</v>
+        <v>0.1346173467031764</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1346173467031764</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5111111111111111</v>
+        <v>1.077924359031284</v>
       </c>
       <c r="G9" t="n">
-        <v>1.077924359031284</v>
+        <v>0.3271338173845101</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3271338173845101</v>
+        <v>-0.03729045951394976</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.03729045951394976</v>
+        <v>-0.5421777492619493</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.5421777492619493</v>
+        <v>-0.627755604779295</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.627755604779295</v>
+        <v>-0.5969981136343318</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.5969981136343318</v>
+        <v>0.7708998359296666</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7708998359296666</v>
+        <v>0.3045449016838162</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3045449016838162</v>
+        <v>0.08072933972038245</v>
       </c>
       <c r="O9" t="n">
-        <v>0.08072933972038245</v>
+        <v>-0.1948740044612376</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.1948740044612376</v>
+        <v>-0.2034837630272046</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.2034837630272046</v>
+        <v>-1.810075643106402</v>
       </c>
       <c r="R9" t="n">
-        <v>-1.810075643106402</v>
+        <v>1.465116856626656</v>
       </c>
       <c r="S9" t="n">
-        <v>1.465116856626656</v>
+        <v>1.527144719864637</v>
       </c>
       <c r="T9" t="n">
-        <v>1.527144719864637</v>
+        <v>0.05092462004248509</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05092462004248509</v>
+        <v>-1.144196229146938</v>
       </c>
       <c r="V9" t="n">
-        <v>-1.144196229146938</v>
+        <v>0.9453785631024499</v>
       </c>
       <c r="W9" t="n">
-        <v>0.9453785631024499</v>
-      </c>
-      <c r="X9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1155,69 +1126,66 @@
         <v>0.5995724391416575</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1515721290034146</v>
+        <v>-1</v>
       </c>
       <c r="D10" t="n">
-        <v>-1</v>
+        <v>0.3224118574266077</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3224118574266077</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5471698113207547</v>
+        <v>1.043234842945424</v>
       </c>
       <c r="G10" t="n">
-        <v>1.043234842945424</v>
+        <v>0.1404880802322198</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1404880802322198</v>
+        <v>2.573758725559054</v>
       </c>
       <c r="I10" t="n">
-        <v>2.573758725559054</v>
+        <v>1.416953051942236</v>
       </c>
       <c r="J10" t="n">
-        <v>1.416953051942236</v>
+        <v>-0.858333840920537</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.858333840920537</v>
+        <v>0.1649093135280855</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1649093135280855</v>
+        <v>-1.340455279866329</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.340455279866329</v>
+        <v>-0.05882006528440996</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.05882006528440996</v>
+        <v>-0.2870189258117014</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.2870189258117014</v>
+        <v>-0.1982004088682549</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1982004088682549</v>
+        <v>1.527148264298309</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.527148264298309</v>
+        <v>0.02536660758489184</v>
       </c>
       <c r="R10" t="n">
-        <v>0.02536660758489184</v>
+        <v>-1.118201481442791</v>
       </c>
       <c r="S10" t="n">
-        <v>-1.118201481442791</v>
+        <v>0.5315472428083172</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5315472428083172</v>
+        <v>-0.8242698178506096</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.8242698178506096</v>
+        <v>-1.722240082426898</v>
       </c>
       <c r="V10" t="n">
-        <v>-1.722240082426898</v>
+        <v>0.5264493160531403</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5264493160531403</v>
-      </c>
-      <c r="X10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1229,67 +1197,64 @@
         <v>-0.5748549203470105</v>
       </c>
       <c r="C11" t="n">
-        <v>1.135684144318503</v>
+        <v>-13</v>
       </c>
       <c r="D11" t="n">
-        <v>-13</v>
-      </c>
-      <c r="E11" t="n">
         <v>-0.3555693832274754</v>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0.7461233133046369</v>
+      </c>
       <c r="G11" t="n">
-        <v>0.7461233133046369</v>
+        <v>0.706129978235412</v>
       </c>
       <c r="H11" t="n">
-        <v>0.706129978235412</v>
+        <v>0.7491637315611899</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7491637315611899</v>
+        <v>2.806689299710189</v>
       </c>
       <c r="J11" t="n">
-        <v>2.806689299710189</v>
+        <v>0.5069834338810334</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5069834338810334</v>
+        <v>0.6402215038673038</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6402215038673038</v>
+        <v>-0.3871627387440107</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.3871627387440107</v>
+        <v>-1.143596509623214</v>
       </c>
       <c r="N11" t="n">
-        <v>-1.143596509623214</v>
+        <v>-0.2129053597651071</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.2129053597651071</v>
+        <v>-0.1907100840477273</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1907100840477273</v>
+        <v>-0.3667700102826169</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.3667700102826169</v>
+        <v>-3.212378376678569</v>
       </c>
       <c r="R11" t="n">
-        <v>-3.212378376678569</v>
+        <v>-0.186600471363934</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.186600471363934</v>
+        <v>1.139624258460544</v>
       </c>
       <c r="T11" t="n">
-        <v>1.139624258460544</v>
+        <v>2.280653859624041</v>
       </c>
       <c r="U11" t="n">
-        <v>2.280653859624041</v>
+        <v>0.7311262913123578</v>
       </c>
       <c r="V11" t="n">
-        <v>0.7311262913123578</v>
+        <v>3.162365519241417</v>
       </c>
       <c r="W11" t="n">
-        <v>3.162365519241417</v>
-      </c>
-      <c r="X11" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1301,69 +1266,66 @@
         <v>-0.809740392244744</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.535477040108166</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>0.08725470995987698</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08725470995987698</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8181818181818182</v>
+        <v>-0.3295632593814081</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3295632593814081</v>
+        <v>-0.5963143842139573</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5963143842139573</v>
+        <v>-0.2086882412333626</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2086882412333626</v>
+        <v>0.1976445934551239</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1976445934551239</v>
+        <v>-0.09550496922925221</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.09550496922925221</v>
+        <v>0.02369802720293284</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02369802720293284</v>
+        <v>0.09220740599043882</v>
       </c>
       <c r="M12" t="n">
-        <v>0.09220740599043882</v>
+        <v>-0.001332996858735328</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.001332996858735328</v>
+        <v>-0.1915782094570568</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.1915782094570568</v>
+        <v>-0.1927436870117696</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.1927436870117696</v>
+        <v>3.369856961870921</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.369856961870921</v>
+        <v>-0.2911371220394349</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.2911371220394349</v>
+        <v>-0.804557113585733</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.804557113585733</v>
+        <v>-0.9592038320409153</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.9592038320409153</v>
+        <v>0.4602897603473198</v>
       </c>
       <c r="U12" t="n">
-        <v>0.4602897603473198</v>
+        <v>-0.2531801809890301</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.2531801809890301</v>
+        <v>1.045373256890737</v>
       </c>
       <c r="W12" t="n">
-        <v>1.045373256890737</v>
-      </c>
-      <c r="X12" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1375,69 +1337,66 @@
         <v>-0.809740392244744</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.9731273170709724</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.08725470995987698</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08725470995987698</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8181818181818182</v>
+        <v>-0.3295632593814081</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3295632593814081</v>
+        <v>-0.5963143842139573</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5963143842139573</v>
+        <v>-0.2086882412333626</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2086882412333626</v>
+        <v>0.1976445934551239</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1976445934551239</v>
+        <v>-0.09550496922925221</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.09550496922925221</v>
+        <v>0.02369802720293284</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02369802720293284</v>
+        <v>0.09220740599043882</v>
       </c>
       <c r="M13" t="n">
-        <v>0.09220740599043882</v>
+        <v>-0.001332996858735328</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.001332996858735328</v>
+        <v>-0.1915782094570568</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.1915782094570568</v>
+        <v>-0.1927436870117696</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.1927436870117696</v>
+        <v>3.369856961870921</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.369856961870921</v>
+        <v>-0.2911371220394349</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.2911371220394349</v>
+        <v>-0.804557113585733</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.804557113585733</v>
+        <v>-0.9592038320409153</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.9592038320409153</v>
+        <v>0.4602897603473198</v>
       </c>
       <c r="U13" t="n">
-        <v>0.4602897603473198</v>
+        <v>-0.2531801809890301</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.2531801809890301</v>
+        <v>1.045373256890737</v>
       </c>
       <c r="W13" t="n">
-        <v>1.045373256890737</v>
-      </c>
-      <c r="X13" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1449,69 +1408,66 @@
         <v>1.773999798630325</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.4107775940337789</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>1.359090549779946</v>
       </c>
       <c r="E14" t="n">
-        <v>1.359090549779946</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4137931034482759</v>
+        <v>-0.3203790811432216</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.3203790811432216</v>
+        <v>-0.2049542670375159</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.2049542670375159</v>
+        <v>1.872080048660594</v>
       </c>
       <c r="I14" t="n">
-        <v>1.872080048660594</v>
+        <v>-0.2693812955341301</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.2693812955341301</v>
+        <v>0.4017835376304157</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4017835376304157</v>
+        <v>-0.2851080903091489</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.2851080903091489</v>
+        <v>0.07832342751073848</v>
       </c>
       <c r="M14" t="n">
-        <v>0.07832342751073848</v>
+        <v>0.001197591282846884</v>
       </c>
       <c r="N14" t="n">
-        <v>0.001197591282846884</v>
+        <v>-0.2741047714189454</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.2741047714189454</v>
+        <v>-0.1927256762776257</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1927256762776257</v>
+        <v>0.7973141443134089</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.7973141443134089</v>
+        <v>0.8224059382699889</v>
       </c>
       <c r="R14" t="n">
-        <v>0.8224059382699889</v>
+        <v>2.75413729395753</v>
       </c>
       <c r="S14" t="n">
-        <v>2.75413729395753</v>
+        <v>1.295258660582876</v>
       </c>
       <c r="T14" t="n">
-        <v>1.295258660582876</v>
+        <v>-0.4876807047294983</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.4876807047294983</v>
+        <v>1.367049406717538</v>
       </c>
       <c r="V14" t="n">
-        <v>1.367049406717538</v>
+        <v>0.5905479420312167</v>
       </c>
       <c r="W14" t="n">
-        <v>0.5905479420312167</v>
-      </c>
-      <c r="X14" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1523,69 +1479,66 @@
         <v>0.3646869672439239</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.113714747830271</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>-1.360783386835265</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.360783386835265</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5471698113207547</v>
+        <v>-0.6187589916791962</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.6187589916791962</v>
+        <v>-0.6202904713918311</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.6202904713918311</v>
+        <v>1.909623523663624</v>
       </c>
       <c r="I15" t="n">
-        <v>1.909623523663624</v>
+        <v>1.900686272710479</v>
       </c>
       <c r="J15" t="n">
-        <v>1.900686272710479</v>
+        <v>0.7490162544148397</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7490162544148397</v>
+        <v>-0.5201324079466715</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.5201324079466715</v>
+        <v>-0.1507807497357855</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.1507807497357855</v>
+        <v>-0.7983553356358187</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.7983553356358187</v>
+        <v>-0.2782090830594185</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.2782090830594185</v>
+        <v>-0.1823450046544984</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1823450046544984</v>
+        <v>-0.3487866622266366</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.3487866622266366</v>
+        <v>0.5647138128049568</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5647138128049568</v>
+        <v>1.857168028508961</v>
       </c>
       <c r="S15" t="n">
-        <v>1.857168028508961</v>
+        <v>0.3131174716536633</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3131174716536633</v>
+        <v>-0.5502662891863367</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.5502662891863367</v>
+        <v>-0.4760663324394757</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.4760663324394757</v>
+        <v>-1.248369057895823</v>
       </c>
       <c r="W15" t="n">
-        <v>-1.248369057895823</v>
-      </c>
-      <c r="X15" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1597,69 +1550,66 @@
         <v>0.3646869672439239</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5733344212813097</v>
+        <v>-5</v>
       </c>
       <c r="D16" t="n">
-        <v>-5</v>
+        <v>0.4360159441605357</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4360159441605357</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="F16" t="n">
-        <v>0.391304347826087</v>
+        <v>0.04811908104233457</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04811908104233457</v>
+        <v>1.233236829673652</v>
       </c>
       <c r="H16" t="n">
-        <v>1.233236829673652</v>
+        <v>-0.3952935776794751</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3952935776794751</v>
+        <v>-0.5565935305621837</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.5565935305621837</v>
+        <v>-0.5034471169068667</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.5034471169068667</v>
+        <v>-0.5925980047722087</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.5925980047722087</v>
+        <v>-0.6883998136346697</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.6883998136346697</v>
+        <v>-0.704229809388716</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.704229809388716</v>
+        <v>-0.2216525119650676</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.2216525119650676</v>
+        <v>-0.2265555536902601</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.2265555536902601</v>
+        <v>-0.09936544353716624</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.09936544353716624</v>
+        <v>0.5423162731374118</v>
       </c>
       <c r="R16" t="n">
-        <v>0.5423162731374118</v>
+        <v>0.7459015690528235</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7459015690528235</v>
+        <v>0.08227574862818422</v>
       </c>
       <c r="T16" t="n">
-        <v>0.08227574862818422</v>
+        <v>-0.4132241966742447</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.4132241966742447</v>
+        <v>1.336060514724326</v>
       </c>
       <c r="V16" t="n">
-        <v>1.336060514724326</v>
+        <v>1.362691878439684</v>
       </c>
       <c r="W16" t="n">
-        <v>1.362691878439684</v>
-      </c>
-      <c r="X16" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1671,69 +1621,66 @@
         <v>0.1298014953461903</v>
       </c>
       <c r="C17" t="n">
-        <v>1.583759592086107</v>
+        <v>-13.18716577540107</v>
       </c>
       <c r="D17" t="n">
-        <v>-13.18716577540107</v>
+        <v>-1.316401615341544</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.316401615341544</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2448979591836735</v>
+        <v>-1.304229296905977</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.304229296905977</v>
+        <v>-1.475925879397437</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.475925879397437</v>
+        <v>-1.238120837229983</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.238120837229983</v>
+        <v>-1.274915655044117</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.274915655044117</v>
+        <v>2.866537218829407</v>
       </c>
       <c r="K17" t="n">
-        <v>2.866537218829407</v>
+        <v>2.418894278994074</v>
       </c>
       <c r="L17" t="n">
-        <v>2.418894278994074</v>
+        <v>2.219587217481146</v>
       </c>
       <c r="M17" t="n">
-        <v>2.219587217481146</v>
+        <v>3.274049082454212</v>
       </c>
       <c r="N17" t="n">
-        <v>3.274049082454212</v>
+        <v>-0.1027205154240363</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1027205154240363</v>
+        <v>-0.07280192051444605</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.07280192051444605</v>
+        <v>0.3699999407239278</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3699999407239278</v>
+        <v>-0.3844601991708613</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.3844601991708613</v>
+        <v>2.688806158528787</v>
       </c>
       <c r="S17" t="n">
-        <v>2.688806158528787</v>
+        <v>0.7487706934448946</v>
       </c>
       <c r="T17" t="n">
-        <v>0.7487706934448946</v>
+        <v>1.197505513241307</v>
       </c>
       <c r="U17" t="n">
-        <v>1.197505513241307</v>
+        <v>2.284336976504068</v>
       </c>
       <c r="V17" t="n">
-        <v>2.284336976504068</v>
+        <v>0.3098780892839663</v>
       </c>
       <c r="W17" t="n">
-        <v>0.3098780892839663</v>
-      </c>
-      <c r="X17" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1745,69 +1692,66 @@
         <v>2.243770742425792</v>
       </c>
       <c r="C18" t="n">
-        <v>2.682145882670785</v>
+        <v>-12</v>
       </c>
       <c r="D18" t="n">
-        <v>-12</v>
+        <v>-2.098713139730867</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.098713139730867</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3260869565217391</v>
+        <v>-0.3295632593814081</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.3295632593814081</v>
+        <v>1.672771883168434</v>
       </c>
       <c r="H18" t="n">
-        <v>1.672771883168434</v>
+        <v>-0.2086882412333626</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.2086882412333626</v>
+        <v>1.535202116665097</v>
       </c>
       <c r="J18" t="n">
-        <v>1.535202116665097</v>
+        <v>-0.09550496922925221</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.09550496922925221</v>
+        <v>-0.8286551038980101</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.8286551038980101</v>
+        <v>0.09220740599043882</v>
       </c>
       <c r="M18" t="n">
-        <v>0.09220740599043882</v>
+        <v>-1.50606959208641</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.50606959208641</v>
+        <v>-0.1915782094570568</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1915782094570568</v>
+        <v>-0.2494475636839154</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.2494475636839154</v>
+        <v>1.006024048382077</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.006024048382077</v>
+        <v>-1.222850684016626</v>
       </c>
       <c r="R18" t="n">
-        <v>-1.222850684016626</v>
+        <v>0.1692421527967566</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1692421527967566</v>
+        <v>-2.062017098606913</v>
       </c>
       <c r="T18" t="n">
-        <v>-2.062017098606913</v>
+        <v>0.3649056660792477</v>
       </c>
       <c r="U18" t="n">
-        <v>0.3649056660792477</v>
+        <v>0.8285791069013321</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8285791069013321</v>
+        <v>-0.85091211416699</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.85091211416699</v>
-      </c>
-      <c r="X18" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1819,69 +1763,66 @@
         <v>1.773999798630325</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8545092827999065</v>
+        <v>-1</v>
       </c>
       <c r="D19" t="n">
-        <v>-1</v>
+        <v>-0.9163032573981466</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.9163032573981466</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3953488372093023</v>
+        <v>-0.08515273587418216</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.08515273587418216</v>
+        <v>-1.100214633700001</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.100214633700001</v>
+        <v>-0.2923757424418358</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.2923757424418358</v>
+        <v>-0.9084048380722211</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.9084048380722211</v>
+        <v>-0.09266255512627128</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.09266255512627128</v>
+        <v>2.471618576771993</v>
       </c>
       <c r="L19" t="n">
-        <v>2.471618576771993</v>
+        <v>1.023543964814711</v>
       </c>
       <c r="M19" t="n">
-        <v>1.023543964814711</v>
+        <v>1.29787820253832</v>
       </c>
       <c r="N19" t="n">
-        <v>1.29787820253832</v>
+        <v>-0.3530254363468345</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.3530254363468345</v>
+        <v>-0.1935447337770129</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.1935447337770129</v>
+        <v>-0.02466932331875099</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.02466932331875099</v>
+        <v>-0.08849959407978515</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.08849959407978515</v>
+        <v>-0.4881452889691915</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.4881452889691915</v>
+        <v>0.2125183444684755</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2125183444684755</v>
+        <v>1.411083433288309</v>
       </c>
       <c r="U19" t="n">
-        <v>1.411083433288309</v>
+        <v>-0.3270461117201992</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.3270461117201992</v>
+        <v>1.178949949713615</v>
       </c>
       <c r="W19" t="n">
-        <v>1.178949949713615</v>
-      </c>
-      <c r="X19" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1893,69 +1834,66 @@
         <v>1.773999798630325</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1515721290034146</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>-0.9163032573981466</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.9163032573981466</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3953488372093023</v>
+        <v>-0.08515273587418216</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.08515273587418216</v>
+        <v>-1.100214633700001</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.100214633700001</v>
+        <v>-0.2923757424418358</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.2923757424418358</v>
+        <v>-0.9084048380722211</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.9084048380722211</v>
+        <v>-0.09266255512627128</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.09266255512627128</v>
+        <v>2.471618576771993</v>
       </c>
       <c r="L20" t="n">
-        <v>2.471618576771993</v>
+        <v>1.023543964814711</v>
       </c>
       <c r="M20" t="n">
-        <v>1.023543964814711</v>
+        <v>1.29787820253832</v>
       </c>
       <c r="N20" t="n">
-        <v>1.29787820253832</v>
+        <v>-0.3530254363468345</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.3530254363468345</v>
+        <v>-0.1935447337770129</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.1935447337770129</v>
+        <v>-0.02466932331875099</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.02466932331875099</v>
+        <v>-0.08849959407978515</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.08849959407978515</v>
+        <v>-0.4881452889691915</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.4881452889691915</v>
+        <v>0.2125183444684755</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2125183444684755</v>
+        <v>1.411083433288309</v>
       </c>
       <c r="U20" t="n">
-        <v>1.411083433288309</v>
+        <v>-0.3270461117201992</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.3270461117201992</v>
+        <v>1.178949949713615</v>
       </c>
       <c r="W20" t="n">
-        <v>1.178949949713615</v>
-      </c>
-      <c r="X20" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1967,69 +1905,66 @@
         <v>-1.044625864142478</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.9731273170709724</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-0.2982705289855816</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.2982705289855816</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5849056603773585</v>
+        <v>1.053724308078342</v>
       </c>
       <c r="G21" t="n">
-        <v>1.053724308078342</v>
+        <v>1.512503874975215</v>
       </c>
       <c r="H21" t="n">
-        <v>1.512503874975215</v>
+        <v>0.658349390577711</v>
       </c>
       <c r="I21" t="n">
-        <v>0.658349390577711</v>
+        <v>0.2225402772819974</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2225402772819974</v>
+        <v>-0.377040883287054</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.377040883287054</v>
+        <v>-0.7793104358851979</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.7793104358851979</v>
+        <v>-1.22773668765375</v>
       </c>
       <c r="M21" t="n">
-        <v>-1.22773668765375</v>
+        <v>-1.458459606681576</v>
       </c>
       <c r="N21" t="n">
-        <v>-1.458459606681576</v>
+        <v>-0.4251051384832946</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.4251051384832946</v>
+        <v>-0.2403901693216834</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.2403901693216834</v>
+        <v>-0.8251882027038067</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.8251882027038067</v>
+        <v>-1.26986143635082</v>
       </c>
       <c r="R21" t="n">
-        <v>-1.26986143635082</v>
+        <v>-0.3824244002795338</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.3824244002795338</v>
+        <v>0.2153712067363438</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2153712067363438</v>
+        <v>0.1359793563129081</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1359793563129081</v>
+        <v>0.4212593725921592</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4212593725921592</v>
+        <v>-1.312342463856503</v>
       </c>
       <c r="W21" t="n">
-        <v>-1.312342463856503</v>
-      </c>
-      <c r="X21" t="n">
         <v>19</v>
       </c>
     </row>
@@ -2041,69 +1976,66 @@
         <v>-1.044625864142478</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.113714747830271</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>-0.2982705289855816</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.2982705289855816</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5849056603773585</v>
+        <v>1.053724308078342</v>
       </c>
       <c r="G22" t="n">
-        <v>1.053724308078342</v>
+        <v>1.512503874975215</v>
       </c>
       <c r="H22" t="n">
-        <v>1.512503874975215</v>
+        <v>0.658349390577711</v>
       </c>
       <c r="I22" t="n">
-        <v>0.658349390577711</v>
+        <v>0.2225402772819974</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2225402772819974</v>
+        <v>-0.377040883287054</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.377040883287054</v>
+        <v>-0.7793104358851979</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.7793104358851979</v>
+        <v>-1.22773668765375</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.22773668765375</v>
+        <v>-1.458459606681576</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.458459606681576</v>
+        <v>-0.4251051384832946</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.4251051384832946</v>
+        <v>-0.2403901693216834</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.2403901693216834</v>
+        <v>-0.8251882027038067</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.8251882027038067</v>
+        <v>-1.26986143635082</v>
       </c>
       <c r="R22" t="n">
-        <v>-1.26986143635082</v>
+        <v>-0.3824244002795338</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.3824244002795338</v>
+        <v>0.2153712067363438</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2153712067363438</v>
+        <v>0.1359793563129081</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1359793563129081</v>
+        <v>0.4212593725921592</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4212593725921592</v>
+        <v>-1.312342463856503</v>
       </c>
       <c r="W22" t="n">
-        <v>-1.312342463856503</v>
-      </c>
-      <c r="X22" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2115,67 +2047,64 @@
         <v>1.069343382937125</v>
       </c>
       <c r="C23" t="n">
-        <v>1.4168590058371</v>
+        <v>-8</v>
       </c>
       <c r="D23" t="n">
-        <v>-8</v>
+        <v>-1.403840329329173</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.403840329329173</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2142857142857143</v>
+        <v>-0.4877047979722063</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.4877047979722063</v>
+        <v>-0.2102642385823862</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.2102642385823862</v>
+        <v>-0.3950452375831822</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.3950452375831822</v>
+        <v>-0.1697075954236686</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.1697075954236686</v>
+        <v>0.1066235435209512</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1066235435209512</v>
+        <v>0.1018362778045523</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1018362778045523</v>
+        <v>0.6517832685334503</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6517832685334503</v>
+        <v>0.5264459691861433</v>
       </c>
       <c r="N23" t="n">
-        <v>0.5264459691861433</v>
+        <v>-0.3407749677216578</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.3407749677216578</v>
-      </c>
-      <c r="P23" t="n">
         <v>-0.2031443607353728</v>
       </c>
-      <c r="Q23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>0.007069262679068088</v>
+      </c>
       <c r="R23" t="n">
-        <v>0.007069262679068088</v>
+        <v>-0.5424109158697007</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.5424109158697007</v>
+        <v>0.3366793125784166</v>
       </c>
       <c r="T23" t="n">
-        <v>0.3366793125784166</v>
+        <v>-1.454463588521528</v>
       </c>
       <c r="U23" t="n">
-        <v>-1.454463588521528</v>
+        <v>-1.099896491619881</v>
       </c>
       <c r="V23" t="n">
-        <v>-1.099896491619881</v>
+        <v>-0.3618787127775666</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.3618787127775666</v>
-      </c>
-      <c r="X23" t="n">
         <v>21</v>
       </c>
     </row>
@@ -2187,69 +2116,66 @@
         <v>-0.1050839765515433</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.4107775940337789</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1.31636481453599</v>
       </c>
       <c r="E24" t="n">
-        <v>1.31636481453599</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5178571428571429</v>
+        <v>4.433123070759654</v>
       </c>
       <c r="G24" t="n">
-        <v>4.433123070759654</v>
+        <v>1.638264611247741</v>
       </c>
       <c r="H24" t="n">
-        <v>1.638264611247741</v>
+        <v>-0.873032552471905</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.873032552471905</v>
+        <v>0.6184109498017094</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6184109498017094</v>
+        <v>-1.262931348216891</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.262931348216891</v>
+        <v>-0.9849895431220156</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.9849895431220156</v>
+        <v>-1.741081253752307</v>
       </c>
       <c r="M24" t="n">
-        <v>-1.741081253752307</v>
+        <v>-1.172189553922096</v>
       </c>
       <c r="N24" t="n">
-        <v>-1.172189553922096</v>
+        <v>-0.03995501112924534</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.03995501112924534</v>
+        <v>-0.2284634539604249</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.2284634539604249</v>
+        <v>1.605709035901019</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.605709035901019</v>
+        <v>-0.07188206464902654</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.07188206464902654</v>
+        <v>0.9550049667554972</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9550049667554972</v>
+        <v>0.3801797450045531</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3801797450045531</v>
+        <v>-0.999685133144452</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.999685133144452</v>
+        <v>0.822038206058411</v>
       </c>
       <c r="V24" t="n">
-        <v>0.822038206058411</v>
+        <v>1.169988873855741</v>
       </c>
       <c r="W24" t="n">
-        <v>1.169988873855741</v>
-      </c>
-      <c r="X24" t="n">
         <v>22</v>
       </c>
     </row>
@@ -2261,69 +2187,66 @@
         <v>-1.044625864142478</v>
       </c>
       <c r="C25" t="n">
-        <v>1.979208728874293</v>
+        <v>-21</v>
       </c>
       <c r="D25" t="n">
-        <v>-21</v>
+        <v>-1.539304094560009</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.539304094560009</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1578947368421053</v>
+        <v>-1.063170950454368</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.063170950454368</v>
+        <v>-0.2013952675390412</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.2013952675390412</v>
+        <v>1.481685398141449</v>
       </c>
       <c r="I25" t="n">
-        <v>1.481685398141449</v>
+        <v>-0.2330918206855587</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.2330918206855587</v>
+        <v>3.763513152876838</v>
       </c>
       <c r="K25" t="n">
-        <v>3.763513152876838</v>
+        <v>3.197718626844086</v>
       </c>
       <c r="L25" t="n">
-        <v>3.197718626844086</v>
+        <v>-0.8773197150438903</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.8773197150438903</v>
+        <v>-0.8537478463575591</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.8537478463575591</v>
+        <v>-0.03957601169328385</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.03957601169328385</v>
+        <v>-0.168457171549267</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.168457171549267</v>
+        <v>3.233809024403937</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.233809024403937</v>
+        <v>-1.87136783258398</v>
       </c>
       <c r="R25" t="n">
-        <v>-1.87136783258398</v>
+        <v>0.8979397098765135</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8979397098765135</v>
+        <v>1.417811677765286</v>
       </c>
       <c r="T25" t="n">
-        <v>1.417811677765286</v>
+        <v>2.15340784803175</v>
       </c>
       <c r="U25" t="n">
-        <v>2.15340784803175</v>
+        <v>1.062730143136808</v>
       </c>
       <c r="V25" t="n">
-        <v>1.062730143136808</v>
+        <v>0.6915723536759163</v>
       </c>
       <c r="W25" t="n">
-        <v>0.6915723536759163</v>
-      </c>
-      <c r="X25" t="n">
         <v>23</v>
       </c>
     </row>
@@ -2335,69 +2258,66 @@
         <v>-0.3399694484492768</v>
       </c>
       <c r="C26" t="n">
-        <v>0.292159559762713</v>
+        <v>-6</v>
       </c>
       <c r="D26" t="n">
-        <v>-6</v>
+        <v>-0.9216025733973968</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.9216025733973968</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>-0.6776153528720036</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.6776153528720036</v>
+        <v>-0.2049542670375159</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.2049542670375159</v>
+        <v>-0.779016980774679</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.779016980774679</v>
+        <v>-0.2693812955341301</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.2693812955341301</v>
+        <v>-0.5277433667463327</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.5277433667463327</v>
+        <v>-0.2851080903091489</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.2851080903091489</v>
+        <v>-0.1207248996681538</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.1207248996681538</v>
+        <v>0.001197591282846884</v>
       </c>
       <c r="N26" t="n">
-        <v>0.001197591282846884</v>
+        <v>-0.1498145343342507</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.1498145343342507</v>
+        <v>-0.1927256762776257</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.1927256762776257</v>
+        <v>-1.904616921464451</v>
       </c>
       <c r="Q26" t="n">
-        <v>-1.904616921464451</v>
+        <v>-0.3927930520789036</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.3927930520789036</v>
+        <v>-0.1726130501685093</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.1726130501685093</v>
+        <v>0.8825198114762453</v>
       </c>
       <c r="T26" t="n">
-        <v>0.8825198114762453</v>
+        <v>1.158294295146236</v>
       </c>
       <c r="U26" t="n">
-        <v>1.158294295146236</v>
+        <v>-0.8425219539067621</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.8425219539067621</v>
+        <v>1.667020087913632</v>
       </c>
       <c r="W26" t="n">
-        <v>1.667020087913632</v>
-      </c>
-      <c r="X26" t="n">
         <v>24</v>
       </c>
     </row>
@@ -2409,69 +2329,66 @@
         <v>0.834457911039391</v>
       </c>
       <c r="C27" t="n">
-        <v>1.838621298114995</v>
+        <v>-12</v>
       </c>
       <c r="D27" t="n">
-        <v>-12</v>
+        <v>-0.07371201351735053</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.07371201351735053</v>
+        <v>0.6875</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6875</v>
+        <v>-0.6541030306842315</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.6541030306842315</v>
+        <v>-1.210277632688192</v>
       </c>
       <c r="H27" t="n">
-        <v>-1.210277632688192</v>
+        <v>0.2042984655914709</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2042984655914709</v>
+        <v>-0.5108465563800463</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.5108465563800463</v>
+        <v>0.1679081645835122</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1679081645835122</v>
+        <v>-0.1300296223456865</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.1300296223456865</v>
+        <v>1.174874024689373</v>
       </c>
       <c r="M27" t="n">
-        <v>1.174874024689373</v>
+        <v>1.801171917704354</v>
       </c>
       <c r="N27" t="n">
-        <v>1.801171917704354</v>
+        <v>-0.237841852665658</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.237841852665658</v>
+        <v>-0.2142193453728861</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.2142193453728861</v>
+        <v>-0.4176126284478757</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.4176126284478757</v>
+        <v>-0.8709925608522969</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.8709925608522969</v>
+        <v>1.395887690186021</v>
       </c>
       <c r="S27" t="n">
-        <v>1.395887690186021</v>
+        <v>1.029387905262349</v>
       </c>
       <c r="T27" t="n">
-        <v>1.029387905262349</v>
+        <v>-0.0739014990948024</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.0739014990948024</v>
+        <v>0.5959917225646362</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5959917225646362</v>
+        <v>0.7529749591855656</v>
       </c>
       <c r="W27" t="n">
-        <v>0.7529749591855656</v>
-      </c>
-      <c r="X27" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2483,69 +2400,66 @@
         <v>-1.514396807937945</v>
       </c>
       <c r="C28" t="n">
-        <v>1.135684144318503</v>
+        <v>-17</v>
       </c>
       <c r="D28" t="n">
-        <v>-17</v>
+        <v>0.2180815736913679</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2180815736913679</v>
+        <v>0.875</v>
       </c>
       <c r="F28" t="n">
-        <v>0.875</v>
+        <v>0.1773836349318637</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1773836349318637</v>
+        <v>-0.01136702033245791</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.01136702033245791</v>
+        <v>0.02929065857781452</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02929065857781452</v>
+        <v>0.3255143148577808</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3255143148577808</v>
+        <v>-0.9360530169761309</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.9360530169761309</v>
+        <v>-0.5423078639129018</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.5423078639129018</v>
+        <v>-0.6697297256768853</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.6697297256768853</v>
+        <v>-0.5315103589787925</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.5315103589787925</v>
+        <v>-0.1640705259363919</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.1640705259363919</v>
+        <v>-0.2160275653719909</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.2160275653719909</v>
+        <v>-0.2269103849124635</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.2269103849124635</v>
+        <v>-0.4691614373324336</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.4691614373324336</v>
+        <v>1.074434394879138</v>
       </c>
       <c r="S28" t="n">
-        <v>1.074434394879138</v>
+        <v>0.5394693211652914</v>
       </c>
       <c r="T28" t="n">
-        <v>0.5394693211652914</v>
+        <v>0.5007109246698923</v>
       </c>
       <c r="U28" t="n">
-        <v>0.5007109246698923</v>
+        <v>0.8551171074730823</v>
       </c>
       <c r="V28" t="n">
-        <v>0.8551171074730823</v>
+        <v>0.771323830198383</v>
       </c>
       <c r="W28" t="n">
-        <v>0.771323830198383</v>
-      </c>
-      <c r="X28" t="n">
         <v>26</v>
       </c>
     </row>
@@ -2557,69 +2471,66 @@
         <v>-1.514396807937945</v>
       </c>
       <c r="C29" t="n">
-        <v>1.557446436596398</v>
+        <v>-20</v>
       </c>
       <c r="D29" t="n">
-        <v>-20</v>
+        <v>0.2180815736913679</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2180815736913679</v>
+        <v>0.875</v>
       </c>
       <c r="F29" t="n">
-        <v>0.875</v>
+        <v>0.1773836349318637</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1773836349318637</v>
+        <v>-0.01136702033245791</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.01136702033245791</v>
+        <v>0.02929065857781452</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02929065857781452</v>
+        <v>0.3255143148577808</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3255143148577808</v>
+        <v>-0.9360530169761309</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.9360530169761309</v>
+        <v>-0.5423078639129018</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.5423078639129018</v>
+        <v>-0.6697297256768853</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.6697297256768853</v>
+        <v>-0.5315103589787925</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.5315103589787925</v>
+        <v>-0.1640705259363919</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.1640705259363919</v>
+        <v>-0.2160275653719909</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.2160275653719909</v>
+        <v>-0.2269103849124635</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.2269103849124635</v>
+        <v>-0.4691614373324336</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.4691614373324336</v>
+        <v>1.074434394879138</v>
       </c>
       <c r="S29" t="n">
-        <v>1.074434394879138</v>
+        <v>0.5394693211652914</v>
       </c>
       <c r="T29" t="n">
-        <v>0.5394693211652914</v>
+        <v>0.5007109246698923</v>
       </c>
       <c r="U29" t="n">
-        <v>0.5007109246698923</v>
+        <v>0.8551171074730823</v>
       </c>
       <c r="V29" t="n">
-        <v>0.8551171074730823</v>
+        <v>0.771323830198383</v>
       </c>
       <c r="W29" t="n">
-        <v>0.771323830198383</v>
-      </c>
-      <c r="X29" t="n">
         <v>27</v>
       </c>
     </row>
@@ -2631,69 +2542,66 @@
         <v>-1.514396807937945</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.676064470867464</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>0.2180815736913679</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2180815736913679</v>
+        <v>0.875</v>
       </c>
       <c r="F30" t="n">
-        <v>0.875</v>
+        <v>0.1773836349318637</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1773836349318637</v>
+        <v>-0.01136702033245791</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.01136702033245791</v>
+        <v>0.02929065857781452</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02929065857781452</v>
+        <v>0.3255143148577808</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3255143148577808</v>
+        <v>-0.9360530169761309</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.9360530169761309</v>
+        <v>-0.5423078639129018</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.5423078639129018</v>
+        <v>-0.6697297256768853</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.6697297256768853</v>
+        <v>-0.5315103589787925</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.5315103589787925</v>
+        <v>-0.1640705259363919</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.1640705259363919</v>
+        <v>-0.2160275653719909</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.2160275653719909</v>
+        <v>-0.2269103849124635</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.2269103849124635</v>
+        <v>-0.4691614373324336</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.4691614373324336</v>
+        <v>1.074434394879138</v>
       </c>
       <c r="S30" t="n">
-        <v>1.074434394879138</v>
+        <v>0.5394693211652914</v>
       </c>
       <c r="T30" t="n">
-        <v>0.5394693211652914</v>
+        <v>0.5007109246698923</v>
       </c>
       <c r="U30" t="n">
-        <v>0.5007109246698923</v>
+        <v>0.8551171074730823</v>
       </c>
       <c r="V30" t="n">
-        <v>0.8551171074730823</v>
+        <v>0.771323830198383</v>
       </c>
       <c r="W30" t="n">
-        <v>0.771323830198383</v>
-      </c>
-      <c r="X30" t="n">
         <v>28</v>
       </c>
     </row>
@@ -2705,67 +2613,64 @@
         <v>0.834457911039391</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.5513650247930773</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
-      </c>
-      <c r="E31" t="n">
         <v>1.155398091058763</v>
       </c>
-      <c r="F31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>-0.9181282112452988</v>
+      </c>
       <c r="G31" t="n">
-        <v>-0.9181282112452988</v>
+        <v>-0.5222923124680182</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.5222923124680182</v>
+        <v>-1.277686537225025</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.277686537225025</v>
+        <v>-1.309241826908099</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.309241826908099</v>
+        <v>0.2672243824110458</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2672243824110458</v>
+        <v>-0.3154406033677383</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.3154406033677383</v>
+        <v>0.4796550017479695</v>
       </c>
       <c r="M31" t="n">
-        <v>0.4796550017479695</v>
+        <v>-0.1518663108364642</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.1518663108364642</v>
+        <v>-0.155248616211743</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.155248616211743</v>
+        <v>-0.08548472496923007</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.08548472496923007</v>
+        <v>-0.2616953689239082</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.2616953689239082</v>
+        <v>0.5170287283514743</v>
       </c>
       <c r="R31" t="n">
-        <v>0.5170287283514743</v>
+        <v>0.6657742282895635</v>
       </c>
       <c r="S31" t="n">
-        <v>0.6657742282895635</v>
+        <v>-0.03571497578917828</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.03571497578917828</v>
+        <v>-0.7307678621586521</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.7307678621586521</v>
+        <v>-0.03429124672036968</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.03429124672036968</v>
+        <v>-0.474408419703812</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.474408419703812</v>
-      </c>
-      <c r="X31" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2777,67 +2682,64 @@
         <v>0.834457911039391</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5733344212813097</v>
+        <v>-3</v>
       </c>
       <c r="D32" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E32" t="n">
         <v>1.155398091058763</v>
       </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>-0.9181282112452988</v>
+      </c>
       <c r="G32" t="n">
-        <v>-0.9181282112452988</v>
+        <v>-0.5222923124680182</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.5222923124680182</v>
+        <v>-1.277686537225025</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.277686537225025</v>
+        <v>-1.309241826908099</v>
       </c>
       <c r="J32" t="n">
-        <v>-1.309241826908099</v>
+        <v>0.2672243824110458</v>
       </c>
       <c r="K32" t="n">
-        <v>0.2672243824110458</v>
+        <v>-0.3154406033677383</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.3154406033677383</v>
+        <v>0.4796550017479695</v>
       </c>
       <c r="M32" t="n">
-        <v>0.4796550017479695</v>
+        <v>-0.1518663108364642</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.1518663108364642</v>
+        <v>-0.155248616211743</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.155248616211743</v>
+        <v>-0.08548472496923007</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.08548472496923007</v>
+        <v>-0.2616953689239082</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.2616953689239082</v>
+        <v>0.5170287283514743</v>
       </c>
       <c r="R32" t="n">
-        <v>0.5170287283514743</v>
+        <v>0.6657742282895635</v>
       </c>
       <c r="S32" t="n">
-        <v>0.6657742282895635</v>
+        <v>-0.03571497578917828</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.03571497578917828</v>
+        <v>-0.7307678621586521</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.7307678621586521</v>
+        <v>-0.03429124672036968</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.03429124672036968</v>
+        <v>-0.474408419703812</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.474408419703812</v>
-      </c>
-      <c r="X32" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2849,67 +2751,64 @@
         <v>0.834457911039391</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.5513650247930773</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
-      </c>
-      <c r="E33" t="n">
         <v>1.155398091058763</v>
       </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>-0.9181282112452988</v>
+      </c>
       <c r="G33" t="n">
-        <v>-0.9181282112452988</v>
+        <v>-0.5222923124680182</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.5222923124680182</v>
+        <v>-1.277686537225025</v>
       </c>
       <c r="I33" t="n">
-        <v>-1.277686537225025</v>
+        <v>-1.309241826908099</v>
       </c>
       <c r="J33" t="n">
-        <v>-1.309241826908099</v>
+        <v>0.2672243824110458</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2672243824110458</v>
+        <v>-0.3154406033677383</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.3154406033677383</v>
+        <v>0.4796550017479695</v>
       </c>
       <c r="M33" t="n">
-        <v>0.4796550017479695</v>
+        <v>-0.1518663108364642</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.1518663108364642</v>
+        <v>-0.155248616211743</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.155248616211743</v>
+        <v>-0.08548472496923007</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.08548472496923007</v>
+        <v>-0.2616953689239082</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.2616953689239082</v>
+        <v>0.5170287283514743</v>
       </c>
       <c r="R33" t="n">
-        <v>0.5170287283514743</v>
+        <v>0.6657742282895635</v>
       </c>
       <c r="S33" t="n">
-        <v>0.6657742282895635</v>
+        <v>-0.03571497578917828</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.03571497578917828</v>
+        <v>-0.7307678621586521</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.7307678621586521</v>
+        <v>-0.03429124672036968</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.03429124672036968</v>
+        <v>-0.474408419703812</v>
       </c>
       <c r="W33" t="n">
-        <v>-0.474408419703812</v>
-      </c>
-      <c r="X33" t="n">
         <v>31</v>
       </c>
     </row>
@@ -2921,67 +2820,64 @@
         <v>0.834457911039391</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5733344212813097</v>
+        <v>-3</v>
       </c>
       <c r="D34" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E34" t="n">
         <v>1.155398091058763</v>
       </c>
-      <c r="F34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>-0.9181282112452988</v>
+      </c>
       <c r="G34" t="n">
-        <v>-0.9181282112452988</v>
+        <v>-0.5222923124680182</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.5222923124680182</v>
+        <v>-1.277686537225025</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.277686537225025</v>
+        <v>-1.309241826908099</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.309241826908099</v>
+        <v>0.2672243824110458</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2672243824110458</v>
+        <v>-0.3154406033677383</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.3154406033677383</v>
+        <v>0.4796550017479695</v>
       </c>
       <c r="M34" t="n">
-        <v>0.4796550017479695</v>
+        <v>-0.1518663108364642</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.1518663108364642</v>
+        <v>-0.155248616211743</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.155248616211743</v>
+        <v>-0.08548472496923007</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.08548472496923007</v>
+        <v>-0.2616953689239082</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.2616953689239082</v>
+        <v>0.5170287283514743</v>
       </c>
       <c r="R34" t="n">
-        <v>0.5170287283514743</v>
+        <v>0.6657742282895635</v>
       </c>
       <c r="S34" t="n">
-        <v>0.6657742282895635</v>
+        <v>-0.03571497578917828</v>
       </c>
       <c r="T34" t="n">
-        <v>-0.03571497578917828</v>
+        <v>-0.7307678621586521</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.7307678621586521</v>
+        <v>-0.03429124672036968</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.03429124672036968</v>
+        <v>-0.474408419703812</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.474408419703812</v>
-      </c>
-      <c r="X34" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2993,69 +2889,66 @@
         <v>-0.3399694484492768</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01098469824411622</v>
+        <v>-4</v>
       </c>
       <c r="D35" t="n">
-        <v>-4</v>
+        <v>-0.3181429639827704</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.3181429639827704</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1724137931034483</v>
+        <v>0.433197413853691</v>
       </c>
       <c r="G35" t="n">
-        <v>0.433197413853691</v>
+        <v>-0.2049542670375159</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.2049542670375159</v>
+        <v>0.4281741901572527</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4281741901572527</v>
+        <v>-0.2693812955341301</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.2693812955341301</v>
+        <v>-0.25083321491326</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.25083321491326</v>
+        <v>-0.2851080903091489</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.2851080903091489</v>
+        <v>-0.4943077591948035</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.4943077591948035</v>
+        <v>0.001197591282846884</v>
       </c>
       <c r="N35" t="n">
-        <v>0.001197591282846884</v>
+        <v>-0.3834792504612945</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.3834792504612945</v>
+        <v>-0.1927256762776257</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.1927256762776257</v>
+        <v>-0.525550976525586</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.525550976525586</v>
+        <v>0.7823552791875859</v>
       </c>
       <c r="R35" t="n">
-        <v>0.7823552791875859</v>
+        <v>-0.6945670530520694</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.6945670530520694</v>
+        <v>-0.3344956012840222</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.3344956012840222</v>
+        <v>-0.4758053043300411</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.4758053043300411</v>
+        <v>-1.152432921299606</v>
       </c>
       <c r="V35" t="n">
-        <v>-1.152432921299606</v>
+        <v>-0.4316358950999082</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.4316358950999082</v>
-      </c>
-      <c r="X35" t="n">
         <v>33</v>
       </c>
     </row>
@@ -3067,69 +2960,66 @@
         <v>-1.044625864142478</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.9731273170709724</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>-2.056981026236772</v>
       </c>
       <c r="E36" t="n">
-        <v>-2.056981026236772</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5882352941176471</v>
+        <v>-0.5524926335501776</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.5524926335501776</v>
+        <v>-0.4002225570568188</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.4002225570568188</v>
+        <v>1.469204065121064</v>
       </c>
       <c r="I36" t="n">
-        <v>1.469204065121064</v>
+        <v>0.8281784567129229</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8281784567129229</v>
+        <v>-0.03660917613523559</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.03660917613523559</v>
+        <v>-0.1189977563508162</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.1189977563508162</v>
+        <v>1.036161803187805</v>
       </c>
       <c r="M36" t="n">
-        <v>1.036161803187805</v>
+        <v>1.073571907039236</v>
       </c>
       <c r="N36" t="n">
-        <v>1.073571907039236</v>
+        <v>4.318053803339787</v>
       </c>
       <c r="O36" t="n">
-        <v>4.318053803339787</v>
+        <v>0.7506556201665229</v>
       </c>
       <c r="P36" t="n">
-        <v>0.7506556201665229</v>
+        <v>-0.6095452090383554</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.6095452090383554</v>
+        <v>2.088892881303284</v>
       </c>
       <c r="R36" t="n">
-        <v>2.088892881303284</v>
+        <v>-0.6764499073292922</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.6764499073292922</v>
+        <v>-1.177294387009318</v>
       </c>
       <c r="T36" t="n">
-        <v>-1.177294387009318</v>
+        <v>-0.3353171034700899</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.3353171034700899</v>
+        <v>-0.8770984309077583</v>
       </c>
       <c r="V36" t="n">
-        <v>-0.8770984309077583</v>
+        <v>-0.6384835486960456</v>
       </c>
       <c r="W36" t="n">
-        <v>-0.6384835486960456</v>
-      </c>
-      <c r="X36" t="n">
         <v>34</v>
       </c>
     </row>
@@ -3141,69 +3031,66 @@
         <v>-1.984167751733412</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.832539886311674</v>
+        <v>-5</v>
       </c>
       <c r="D37" t="n">
-        <v>-5</v>
+        <v>1.364389865779197</v>
       </c>
       <c r="E37" t="n">
-        <v>1.364389865779197</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1896551724137931</v>
+        <v>0.1935819634646436</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1935819634646436</v>
+        <v>-1.134022593480005</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.134022593480005</v>
+        <v>0.02177584647976478</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02177584647976478</v>
+        <v>-0.106733445257343</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.106733445257343</v>
+        <v>-0.7345183215614027</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.7345183215614027</v>
+        <v>0.7773531320193181</v>
       </c>
       <c r="L37" t="n">
-        <v>0.7773531320193181</v>
+        <v>-0.8123735611958347</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.8123735611958347</v>
+        <v>1.549403202318122</v>
       </c>
       <c r="N37" t="n">
-        <v>1.549403202318122</v>
+        <v>-0.3834190642946325</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.3834190642946325</v>
+        <v>-0.08226286081884611</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.08226286081884611</v>
+        <v>-0.3014211495242095</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.3014211495242095</v>
+        <v>1.219324053088584</v>
       </c>
       <c r="R37" t="n">
-        <v>1.219324053088584</v>
+        <v>0.03056929102796382</v>
       </c>
       <c r="S37" t="n">
-        <v>0.03056929102796382</v>
+        <v>0.6814473346006451</v>
       </c>
       <c r="T37" t="n">
-        <v>0.6814473346006451</v>
+        <v>0.6940558550236668</v>
       </c>
       <c r="U37" t="n">
-        <v>0.6940558550236668</v>
+        <v>0.7705919265191742</v>
       </c>
       <c r="V37" t="n">
-        <v>0.7705919265191742</v>
+        <v>0.2897146192974427</v>
       </c>
       <c r="W37" t="n">
-        <v>0.2897146192974427</v>
-      </c>
-      <c r="X37" t="n">
         <v>35</v>
       </c>
     </row>
@@ -3215,69 +3102,66 @@
         <v>-0.1050839765515433</v>
       </c>
       <c r="C38" t="n">
-        <v>1.724347022845405</v>
+        <v>-15.18716577540107</v>
       </c>
       <c r="D38" t="n">
-        <v>-15.18716577540107</v>
+        <v>1.06862179157104</v>
       </c>
       <c r="E38" t="n">
-        <v>1.06862179157104</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3829787234042553</v>
+        <v>-0.8791677679807106</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.8791677679807106</v>
+        <v>-0.9637981165426104</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.9637981165426104</v>
+        <v>-0.4622331068763355</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.4622331068763355</v>
+        <v>-0.8556551782407402</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.8556551782407402</v>
+        <v>0.8872317766758483</v>
       </c>
       <c r="K38" t="n">
-        <v>0.8872317766758483</v>
+        <v>0.3442913477151689</v>
       </c>
       <c r="L38" t="n">
-        <v>0.3442913477151689</v>
+        <v>1.116693962637068</v>
       </c>
       <c r="M38" t="n">
-        <v>1.116693962637068</v>
+        <v>1.222281949395299</v>
       </c>
       <c r="N38" t="n">
-        <v>1.222281949395299</v>
+        <v>0.2749244855469294</v>
       </c>
       <c r="O38" t="n">
-        <v>0.2749244855469294</v>
+        <v>-0.126198424767963</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.126198424767963</v>
+        <v>0.6148862281644989</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.6148862281644989</v>
+        <v>1.802922055754778</v>
       </c>
       <c r="R38" t="n">
-        <v>1.802922055754778</v>
+        <v>-1.444782070579703</v>
       </c>
       <c r="S38" t="n">
-        <v>-1.444782070579703</v>
+        <v>-2.185311436909214</v>
       </c>
       <c r="T38" t="n">
-        <v>-2.185311436909214</v>
+        <v>0.01744944108159753</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01744944108159753</v>
+        <v>-0.7375151708597677</v>
       </c>
       <c r="V38" t="n">
-        <v>-0.7375151708597677</v>
+        <v>-1.247673015247667</v>
       </c>
       <c r="W38" t="n">
-        <v>-1.247673015247667</v>
-      </c>
-      <c r="X38" t="n">
         <v>36</v>
       </c>
     </row>
@@ -3289,57 +3173,54 @@
         <v>2.478656214323526</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01098469824411622</v>
+        <v>8</v>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>1.139168935811059</v>
       </c>
       <c r="E39" t="n">
-        <v>1.139168935811059</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5344827586206896</v>
+        <v>-0.3557106395439336</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.3557106395439336</v>
+        <v>-0.2049542670375159</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.2049542670375159</v>
+        <v>-1.172959249509814</v>
       </c>
       <c r="I39" t="n">
-        <v>-1.172959249509814</v>
+        <v>-0.2693812955341301</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.2693812955341301</v>
+        <v>-0.9638727138654996</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.9638727138654996</v>
+        <v>-0.2851080903091489</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.2851080903091489</v>
+        <v>-1.126942754480801</v>
       </c>
       <c r="M39" t="n">
-        <v>-1.126942754480801</v>
+        <v>0.001197591282846884</v>
       </c>
       <c r="N39" t="n">
-        <v>0.001197591282846884</v>
+        <v>-0.1782886835050984</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.1782886835050984</v>
+        <v>-0.1927256762776257</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.1927256762776257</v>
-      </c>
-      <c r="Q39" t="n">
         <v>-0.5030211608140324</v>
       </c>
+      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="n">
+      <c r="W39" t="n">
         <v>37</v>
       </c>
     </row>
@@ -3351,57 +3232,54 @@
         <v>2.478656214323526</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7139218520406081</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>1.139168935811059</v>
       </c>
       <c r="E40" t="n">
-        <v>1.139168935811059</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5344827586206896</v>
+        <v>-0.3557106395439336</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.3557106395439336</v>
+        <v>-0.2049542670375159</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.2049542670375159</v>
+        <v>-1.172959249509814</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.172959249509814</v>
+        <v>-0.2693812955341301</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.2693812955341301</v>
+        <v>-0.9638727138654996</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.9638727138654996</v>
+        <v>-0.2851080903091489</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.2851080903091489</v>
+        <v>-1.126942754480801</v>
       </c>
       <c r="M40" t="n">
-        <v>-1.126942754480801</v>
+        <v>0.001197591282846884</v>
       </c>
       <c r="N40" t="n">
-        <v>0.001197591282846884</v>
+        <v>-0.1782886835050984</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.1782886835050984</v>
+        <v>-0.1927256762776257</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.1927256762776257</v>
-      </c>
-      <c r="Q40" t="n">
         <v>-0.5030211608140324</v>
       </c>
+      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="n">
+      <c r="W40" t="n">
         <v>38</v>
       </c>
     </row>
@@ -3413,69 +3291,66 @@
         <v>0.6492836501253049</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.254302178589569</v>
+        <v>9.211640211640212</v>
       </c>
       <c r="D41" t="n">
-        <v>9.211640211640212</v>
+        <v>1.168646381056889</v>
       </c>
       <c r="E41" t="n">
-        <v>1.168646381056889</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8857142857142857</v>
+        <v>-0.02683971358639755</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.02683971358639755</v>
+        <v>0.4238643484281807</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4238643484281807</v>
+        <v>-0.6873624719340645</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.6873624719340645</v>
+        <v>-0.2358386570228999</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.2358386570228999</v>
+        <v>-0.6346422474419725</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.6346422474419725</v>
+        <v>-0.4880242015942629</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.4880242015942629</v>
+        <v>-0.04830163649599283</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.04830163649599283</v>
+        <v>0.207819533534181</v>
       </c>
       <c r="N41" t="n">
-        <v>0.207819533534181</v>
+        <v>-0.1338358042801066</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.1338358042801066</v>
+        <v>-0.1336429921620878</v>
       </c>
       <c r="P41" t="n">
-        <v>-0.1336429921620878</v>
+        <v>-0.8855440985717856</v>
       </c>
       <c r="Q41" t="n">
-        <v>-0.8855440985717856</v>
+        <v>-0.569613196164234</v>
       </c>
       <c r="R41" t="n">
-        <v>-0.569613196164234</v>
+        <v>-0.3350130398780516</v>
       </c>
       <c r="S41" t="n">
-        <v>-0.3350130398780516</v>
+        <v>-0.06715934948311615</v>
       </c>
       <c r="T41" t="n">
-        <v>-0.06715934948311615</v>
+        <v>0.03546419602440452</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03546419602440452</v>
+        <v>1.355815356664057</v>
       </c>
       <c r="V41" t="n">
-        <v>1.355815356664057</v>
+        <v>0.2323581389058219</v>
       </c>
       <c r="W41" t="n">
-        <v>0.2323581389058219</v>
-      </c>
-      <c r="X41" t="n">
         <v>39</v>
       </c>
     </row>
@@ -3487,69 +3362,66 @@
         <v>-0.5748549203470105</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.6919524555523756</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.08957316070954863</v>
       </c>
       <c r="E42" t="n">
-        <v>0.08957316070954863</v>
+        <v>0.78</v>
       </c>
       <c r="F42" t="n">
-        <v>0.78</v>
+        <v>-0.00412406685987282</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.00412406685987282</v>
+        <v>0.8334918106872962</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8334918106872962</v>
+        <v>-0.007542496724960703</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.007542496724960703</v>
+        <v>-0.653129203153241</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.653129203153241</v>
+        <v>-0.8519647501753261</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.8519647501753261</v>
+        <v>-0.193161257521849</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.193161257521849</v>
+        <v>0.06534610053585298</v>
       </c>
       <c r="M42" t="n">
-        <v>0.06534610053585298</v>
+        <v>1.10735161321615</v>
       </c>
       <c r="N42" t="n">
-        <v>1.10735161321615</v>
+        <v>-0.2578655477890222</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.2578655477890222</v>
+        <v>-0.1978997305569382</v>
       </c>
       <c r="P42" t="n">
-        <v>-0.1978997305569382</v>
+        <v>0.9209940874652124</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.9209940874652124</v>
+        <v>1.132985150176598</v>
       </c>
       <c r="R42" t="n">
-        <v>1.132985150176598</v>
+        <v>-0.8152622099788068</v>
       </c>
       <c r="S42" t="n">
-        <v>-0.8152622099788068</v>
+        <v>0.3297715553937438</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3297715553937438</v>
+        <v>-1.622135247959357</v>
       </c>
       <c r="U42" t="n">
-        <v>-1.622135247959357</v>
+        <v>-0.4631497050173433</v>
       </c>
       <c r="V42" t="n">
-        <v>-0.4631497050173433</v>
+        <v>0.3809902786149737</v>
       </c>
       <c r="W42" t="n">
-        <v>0.3809902786149737</v>
-      </c>
-      <c r="X42" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3561,69 +3433,66 @@
         <v>1.069343382937125</v>
       </c>
       <c r="C43" t="n">
-        <v>1.4168590058371</v>
+        <v>-8</v>
       </c>
       <c r="D43" t="n">
-        <v>-8</v>
+        <v>0.8619484676002779</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8619484676002779</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="F43" t="n">
-        <v>0.5471698113207547</v>
+        <v>0.2434241128290786</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2434241128290786</v>
+        <v>1.043871777299912</v>
       </c>
       <c r="H43" t="n">
-        <v>1.043871777299912</v>
+        <v>-0.5732040862655868</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.5732040862655868</v>
+        <v>0.3994116995571737</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3994116995571737</v>
+        <v>-0.4274397279070566</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.4274397279070566</v>
+        <v>-0.04801408876187237</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.04801408876187237</v>
+        <v>-0.9391321099346147</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.9391321099346147</v>
+        <v>-0.5985015577133486</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.5985015577133486</v>
+        <v>-0.31674698400246</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.31674698400246</v>
+        <v>-0.2139002027868832</v>
       </c>
       <c r="P43" t="n">
-        <v>-0.2139002027868832</v>
+        <v>0.3877739454575178</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.3877739454575178</v>
+        <v>0.2817341425539859</v>
       </c>
       <c r="R43" t="n">
-        <v>0.2817341425539859</v>
+        <v>0.9348390518144715</v>
       </c>
       <c r="S43" t="n">
-        <v>0.9348390518144715</v>
+        <v>-0.4308716576075726</v>
       </c>
       <c r="T43" t="n">
-        <v>-0.4308716576075726</v>
+        <v>-0.5740798256971461</v>
       </c>
       <c r="U43" t="n">
-        <v>-0.5740798256971461</v>
+        <v>-0.06137982596883072</v>
       </c>
       <c r="V43" t="n">
-        <v>-0.06137982596883072</v>
+        <v>0.1935338055637442</v>
       </c>
       <c r="W43" t="n">
-        <v>0.1935338055637442</v>
-      </c>
-      <c r="X43" t="n">
         <v>41</v>
       </c>
     </row>
@@ -3635,69 +3504,66 @@
         <v>-0.5748549203470105</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.1296027325151821</v>
+        <v>-4</v>
       </c>
       <c r="D44" t="n">
-        <v>-4</v>
+        <v>0.8473753486023394</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8473753486023394</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7058823529411765</v>
+        <v>-0.7713401327847322</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.7713401327847322</v>
+        <v>0.6590618236072479</v>
       </c>
       <c r="H44" t="n">
-        <v>0.6590618236072479</v>
+        <v>3.729345009299901</v>
       </c>
       <c r="I44" t="n">
-        <v>3.729345009299901</v>
+        <v>0.04877991024151711</v>
       </c>
       <c r="J44" t="n">
-        <v>0.04877991024151711</v>
+        <v>0.8177651931448748</v>
       </c>
       <c r="K44" t="n">
-        <v>0.8177651931448748</v>
+        <v>-0.7252865949800477</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.7252865949800477</v>
+        <v>-0.300633951650127</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.300633951650127</v>
+        <v>-1.303294114222646</v>
       </c>
       <c r="N44" t="n">
-        <v>-1.303294114222646</v>
+        <v>-0.1693685901903385</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.1693685901903385</v>
+        <v>-0.1724595160668266</v>
       </c>
       <c r="P44" t="n">
-        <v>-0.1724595160668266</v>
+        <v>-0.368044526435914</v>
       </c>
       <c r="Q44" t="n">
-        <v>-0.368044526435914</v>
+        <v>0.9933015718626149</v>
       </c>
       <c r="R44" t="n">
-        <v>0.9933015718626149</v>
+        <v>-2.222156723299969</v>
       </c>
       <c r="S44" t="n">
-        <v>-2.222156723299969</v>
+        <v>-1.731601523644911</v>
       </c>
       <c r="T44" t="n">
-        <v>-1.731601523644911</v>
+        <v>-0.6906334954235376</v>
       </c>
       <c r="U44" t="n">
-        <v>-0.6906334954235376</v>
+        <v>-2.093419687836294</v>
       </c>
       <c r="V44" t="n">
-        <v>-2.093419687836294</v>
+        <v>-1.571658232328998</v>
       </c>
       <c r="W44" t="n">
-        <v>-1.571658232328998</v>
-      </c>
-      <c r="X44" t="n">
         <v>42</v>
       </c>
     </row>
@@ -3709,65 +3575,62 @@
         <v>-0.1050839765515433</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.832539886311674</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
-      </c>
-      <c r="E45" t="n">
         <v>0.005777726471402837</v>
       </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>0.1136416963373219</v>
+      </c>
       <c r="G45" t="n">
-        <v>0.1136416963373219</v>
+        <v>-0.01896348662483783</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.01896348662483783</v>
+        <v>-0.9159142617386646</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.9159142617386646</v>
+        <v>0.005142469686290637</v>
       </c>
       <c r="J45" t="n">
-        <v>0.005142469686290637</v>
+        <v>-0.7971588060379241</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.7971588060379241</v>
+        <v>-0.5379805032512196</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.5379805032512196</v>
+        <v>-0.9051777530364453</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.9051777530364453</v>
+        <v>-0.3576817639548485</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.3576817639548485</v>
+        <v>-0.2353703113811907</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.2353703113811907</v>
-      </c>
-      <c r="P45" t="n">
         <v>-0.1906424090483885</v>
       </c>
-      <c r="Q45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="n">
+        <v>0.04516314264588287</v>
+      </c>
       <c r="R45" t="n">
-        <v>0.04516314264588287</v>
+        <v>-0.3060513504455483</v>
       </c>
       <c r="S45" t="n">
-        <v>-0.3060513504455483</v>
+        <v>-1.154036984793511</v>
       </c>
       <c r="T45" t="n">
-        <v>-1.154036984793511</v>
+        <v>-0.3403137310207991</v>
       </c>
       <c r="U45" t="n">
-        <v>-0.3403137310207991</v>
+        <v>-0.3240069052679329</v>
       </c>
       <c r="V45" t="n">
-        <v>-0.3240069052679329</v>
+        <v>-0.9261711620214534</v>
       </c>
       <c r="W45" t="n">
-        <v>-0.9261711620214534</v>
-      </c>
-      <c r="X45" t="n">
         <v>43</v>
       </c>
     </row>
@@ -3779,69 +3642,66 @@
         <v>0.834457911039391</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.1296027325151821</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>0.8079616858579162</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8079616858579162</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3518518518518519</v>
+        <v>0.1897115729401382</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1897115729401382</v>
+        <v>0.6437124376308674</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6437124376308674</v>
+        <v>-0.5783203558707314</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.5783203558707314</v>
+        <v>-0.09994131261604253</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.09994131261604253</v>
+        <v>-0.6441308902105028</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.6441308902105028</v>
+        <v>-1.048622653421855</v>
       </c>
       <c r="L46" t="n">
-        <v>-1.048622653421855</v>
+        <v>0.4551839796356775</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4551839796356775</v>
+        <v>-1.267789533231386</v>
       </c>
       <c r="N46" t="n">
-        <v>-1.267789533231386</v>
+        <v>-0.2798090233861559</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.2798090233861559</v>
+        <v>-0.2527773732847017</v>
       </c>
       <c r="P46" t="n">
-        <v>-0.2527773732847017</v>
+        <v>-0.5703006116921102</v>
       </c>
       <c r="Q46" t="n">
-        <v>-0.5703006116921102</v>
+        <v>1.872296628621797</v>
       </c>
       <c r="R46" t="n">
-        <v>1.872296628621797</v>
+        <v>-0.5232640211893235</v>
       </c>
       <c r="S46" t="n">
-        <v>-0.5232640211893235</v>
+        <v>-1.632506009238178</v>
       </c>
       <c r="T46" t="n">
-        <v>-1.632506009238178</v>
+        <v>-1.036030573433914</v>
       </c>
       <c r="U46" t="n">
-        <v>-1.036030573433914</v>
+        <v>-0.9578796596819146</v>
       </c>
       <c r="V46" t="n">
-        <v>-0.9578796596819146</v>
+        <v>-1.736732300925059</v>
       </c>
       <c r="W46" t="n">
-        <v>-1.736732300925059</v>
-      </c>
-      <c r="X46" t="n">
         <v>44</v>
       </c>
     </row>
@@ -3853,69 +3713,66 @@
         <v>-1.044625864142478</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.9731273170709724</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>-2.199731350966576</v>
       </c>
       <c r="E47" t="n">
-        <v>-2.199731350966576</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.9436267597367477</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9436267597367477</v>
+        <v>-2.087656741360717</v>
       </c>
       <c r="H47" t="n">
-        <v>-2.087656741360717</v>
+        <v>-0.1404495898464001</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.1404495898464001</v>
+        <v>-0.8774061487424424</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.8774061487424424</v>
+        <v>-0.8858657887322707</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.8858657887322707</v>
+        <v>3.48786400051552</v>
       </c>
       <c r="L47" t="n">
-        <v>3.48786400051552</v>
+        <v>-1.132443895871091</v>
       </c>
       <c r="M47" t="n">
-        <v>-1.132443895871091</v>
+        <v>2.661492530683467</v>
       </c>
       <c r="N47" t="n">
-        <v>2.661492530683467</v>
+        <v>-0.2812546090838032</v>
       </c>
       <c r="O47" t="n">
-        <v>-0.2812546090838032</v>
+        <v>-0.1224616409593668</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.1224616409593668</v>
+        <v>0.9209940874652124</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.9209940874652124</v>
+        <v>-1.199754731262144</v>
       </c>
       <c r="R47" t="n">
-        <v>-1.199754731262144</v>
+        <v>0.2409169730116922</v>
       </c>
       <c r="S47" t="n">
-        <v>0.2409169730116922</v>
+        <v>-0.4144005229508025</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.4144005229508025</v>
+        <v>1.066831320671094</v>
       </c>
       <c r="U47" t="n">
-        <v>1.066831320671094</v>
+        <v>0.6686904196299299</v>
       </c>
       <c r="V47" t="n">
-        <v>0.6686904196299299</v>
+        <v>0.7442923020658442</v>
       </c>
       <c r="W47" t="n">
-        <v>0.7442923020658442</v>
-      </c>
-      <c r="X47" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3927,69 +3784,66 @@
         <v>0.5995724391416575</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1515721290034146</v>
+        <v>-1</v>
       </c>
       <c r="D48" t="n">
-        <v>-1</v>
+        <v>0.5453143366450731</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5453143366450731</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5471698113207547</v>
+        <v>-1.073540332684153</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.073540332684153</v>
+        <v>-0.6331616072095472</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.6331616072095472</v>
+        <v>0.8150251992163348</v>
       </c>
       <c r="I48" t="n">
-        <v>0.8150251992163348</v>
+        <v>2.155542638400268</v>
       </c>
       <c r="J48" t="n">
-        <v>2.155542638400268</v>
+        <v>2.265588112608981</v>
       </c>
       <c r="K48" t="n">
-        <v>2.265588112608981</v>
+        <v>1.375497882429685</v>
       </c>
       <c r="L48" t="n">
-        <v>1.375497882429685</v>
+        <v>1.151009950664416</v>
       </c>
       <c r="M48" t="n">
-        <v>1.151009950664416</v>
+        <v>-0.1279809680483558</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.1279809680483558</v>
+        <v>-0.1665981495305176</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.1665981495305176</v>
+        <v>-0.1733756825699408</v>
       </c>
       <c r="P48" t="n">
-        <v>-0.1733756825699408</v>
+        <v>-0.4394852872046256</v>
       </c>
       <c r="Q48" t="n">
-        <v>-0.4394852872046256</v>
+        <v>-0.843802431771755</v>
       </c>
       <c r="R48" t="n">
-        <v>-0.843802431771755</v>
+        <v>0.1464375061518809</v>
       </c>
       <c r="S48" t="n">
-        <v>0.1464375061518809</v>
+        <v>0.1477067278919446</v>
       </c>
       <c r="T48" t="n">
-        <v>0.1477067278919446</v>
+        <v>0.3534783961528393</v>
       </c>
       <c r="U48" t="n">
-        <v>0.3534783961528393</v>
+        <v>1.201243080562927</v>
       </c>
       <c r="V48" t="n">
-        <v>1.201243080562927</v>
+        <v>0.0538263643614313</v>
       </c>
       <c r="W48" t="n">
-        <v>0.0538263643614313</v>
-      </c>
-      <c r="X48" t="n">
         <v>46</v>
       </c>
     </row>
@@ -4001,69 +3855,66 @@
         <v>0.5995724391416575</v>
       </c>
       <c r="C49" t="n">
-        <v>0.292159559762713</v>
+        <v>-2</v>
       </c>
       <c r="D49" t="n">
-        <v>-2</v>
+        <v>0.5453143366450731</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5453143366450731</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5471698113207547</v>
+        <v>-1.073540332684153</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.073540332684153</v>
+        <v>-0.6331616072095472</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.6331616072095472</v>
+        <v>0.8150251992163348</v>
       </c>
       <c r="I49" t="n">
-        <v>0.8150251992163348</v>
+        <v>2.155542638400268</v>
       </c>
       <c r="J49" t="n">
-        <v>2.155542638400268</v>
+        <v>2.265588112608981</v>
       </c>
       <c r="K49" t="n">
-        <v>2.265588112608981</v>
+        <v>1.375497882429685</v>
       </c>
       <c r="L49" t="n">
-        <v>1.375497882429685</v>
+        <v>1.151009950664416</v>
       </c>
       <c r="M49" t="n">
-        <v>1.151009950664416</v>
+        <v>-0.1279809680483558</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.1279809680483558</v>
+        <v>-0.1665981495305176</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.1665981495305176</v>
+        <v>-0.1733756825699408</v>
       </c>
       <c r="P49" t="n">
-        <v>-0.1733756825699408</v>
+        <v>-0.4394852872046256</v>
       </c>
       <c r="Q49" t="n">
-        <v>-0.4394852872046256</v>
+        <v>-0.843802431771755</v>
       </c>
       <c r="R49" t="n">
-        <v>-0.843802431771755</v>
+        <v>0.1464375061518809</v>
       </c>
       <c r="S49" t="n">
-        <v>0.1464375061518809</v>
+        <v>0.1477067278919446</v>
       </c>
       <c r="T49" t="n">
-        <v>0.1477067278919446</v>
+        <v>0.3534783961528393</v>
       </c>
       <c r="U49" t="n">
-        <v>0.3534783961528393</v>
+        <v>1.201243080562927</v>
       </c>
       <c r="V49" t="n">
-        <v>1.201243080562927</v>
+        <v>0.0538263643614313</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0538263643614313</v>
-      </c>
-      <c r="X49" t="n">
         <v>47</v>
       </c>
     </row>
@@ -4075,67 +3926,64 @@
         <v>0.5995724391416575</v>
       </c>
       <c r="C50" t="n">
-        <v>1.135684144318503</v>
+        <v>-8</v>
       </c>
       <c r="D50" t="n">
-        <v>-8</v>
+        <v>0.3078387384286708</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3078387384286708</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3142857142857143</v>
+        <v>0.1643696944320459</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1643696944320459</v>
+        <v>0.5582244318621354</v>
       </c>
       <c r="H50" t="n">
-        <v>0.5582244318621354</v>
+        <v>0.118204802905971</v>
       </c>
       <c r="I50" t="n">
-        <v>0.118204802905971</v>
+        <v>-0.461308587211545</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.461308587211545</v>
+        <v>-0.286419017649466</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.286419017649466</v>
+        <v>-0.6980410182259076</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.6980410182259076</v>
+        <v>-0.598257427129706</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.598257427129706</v>
+        <v>-1.028117339041887</v>
       </c>
       <c r="N50" t="n">
-        <v>-1.028117339041887</v>
+        <v>4.913710618281838</v>
       </c>
       <c r="O50" t="n">
-        <v>4.913710618281838</v>
-      </c>
-      <c r="P50" t="n">
         <v>5.831941089450636</v>
       </c>
-      <c r="Q50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="n">
+        <v>1.495724142611675</v>
+      </c>
       <c r="R50" t="n">
-        <v>1.495724142611675</v>
+        <v>-1.225660077934331</v>
       </c>
       <c r="S50" t="n">
-        <v>-1.225660077934331</v>
+        <v>-1.982925923028379</v>
       </c>
       <c r="T50" t="n">
-        <v>-1.982925923028379</v>
+        <v>-3.009264656632023</v>
       </c>
       <c r="U50" t="n">
-        <v>-3.009264656632023</v>
+        <v>-2.161537554190351</v>
       </c>
       <c r="V50" t="n">
-        <v>-2.161537554190351</v>
+        <v>-3.161186598182824</v>
       </c>
       <c r="W50" t="n">
-        <v>-3.161186598182824</v>
-      </c>
-      <c r="X50" t="n">
         <v>48</v>
       </c>
     </row>
@@ -4147,67 +3995,64 @@
         <v>0.5995724391416575</v>
       </c>
       <c r="C51" t="n">
-        <v>1.135684144318503</v>
+        <v>-8</v>
       </c>
       <c r="D51" t="n">
-        <v>-8</v>
+        <v>0.3078387384286708</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3078387384286708</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3142857142857143</v>
+        <v>0.1643696944320459</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1643696944320459</v>
+        <v>0.5582244318621354</v>
       </c>
       <c r="H51" t="n">
-        <v>0.5582244318621354</v>
+        <v>0.118204802905971</v>
       </c>
       <c r="I51" t="n">
-        <v>0.118204802905971</v>
+        <v>-0.461308587211545</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.461308587211545</v>
+        <v>-0.286419017649466</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.286419017649466</v>
+        <v>-0.6980410182259076</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.6980410182259076</v>
+        <v>-0.598257427129706</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.598257427129706</v>
+        <v>-1.028117339041887</v>
       </c>
       <c r="N51" t="n">
-        <v>-1.028117339041887</v>
+        <v>4.913710618281838</v>
       </c>
       <c r="O51" t="n">
-        <v>4.913710618281838</v>
-      </c>
-      <c r="P51" t="n">
         <v>5.831941089450636</v>
       </c>
-      <c r="Q51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="n">
+        <v>1.495724142611675</v>
+      </c>
       <c r="R51" t="n">
-        <v>1.495724142611675</v>
+        <v>-1.225660077934331</v>
       </c>
       <c r="S51" t="n">
-        <v>-1.225660077934331</v>
+        <v>-1.982925923028379</v>
       </c>
       <c r="T51" t="n">
-        <v>-1.982925923028379</v>
+        <v>-3.009264656632023</v>
       </c>
       <c r="U51" t="n">
-        <v>-3.009264656632023</v>
+        <v>-2.161537554190351</v>
       </c>
       <c r="V51" t="n">
-        <v>-2.161537554190351</v>
+        <v>-3.161186598182824</v>
       </c>
       <c r="W51" t="n">
-        <v>-3.161186598182824</v>
-      </c>
-      <c r="X51" t="n">
         <v>49</v>
       </c>
     </row>
@@ -4219,69 +4064,66 @@
         <v>-0.809740392244744</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.4107775940337789</v>
+        <v>-3</v>
       </c>
       <c r="D52" t="n">
-        <v>-3</v>
+        <v>1.811850860465892</v>
       </c>
       <c r="E52" t="n">
-        <v>1.811850860465892</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9142857142857143</v>
+        <v>2.890172205124476</v>
       </c>
       <c r="G52" t="n">
-        <v>2.890172205124476</v>
+        <v>-0.2049542670375159</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.2049542670375159</v>
+        <v>-0.9611687370050001</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.9611687370050001</v>
+        <v>-0.2693812955341301</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.2693812955341301</v>
+        <v>-1.160819099138376</v>
       </c>
       <c r="K52" t="n">
-        <v>-1.160819099138376</v>
+        <v>-0.2851080903091489</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.2851080903091489</v>
+        <v>-1.561249989958208</v>
       </c>
       <c r="M52" t="n">
-        <v>-1.561249989958208</v>
+        <v>0.001197591282846884</v>
       </c>
       <c r="N52" t="n">
-        <v>0.001197591282846884</v>
+        <v>-0.4245671646312899</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.4245671646312899</v>
+        <v>-0.1927256762776257</v>
       </c>
       <c r="P52" t="n">
-        <v>-0.1927256762776257</v>
+        <v>-0.172248267180193</v>
       </c>
       <c r="Q52" t="n">
-        <v>-0.172248267180193</v>
+        <v>-1.095594127711731</v>
       </c>
       <c r="R52" t="n">
-        <v>-1.095594127711731</v>
+        <v>0.9703224824997987</v>
       </c>
       <c r="S52" t="n">
-        <v>0.9703224824997987</v>
+        <v>1.94033522452069</v>
       </c>
       <c r="T52" t="n">
-        <v>1.94033522452069</v>
+        <v>0.9807010766428916</v>
       </c>
       <c r="U52" t="n">
-        <v>0.9807010766428916</v>
+        <v>1.412635303380341</v>
       </c>
       <c r="V52" t="n">
-        <v>1.412635303380341</v>
+        <v>0.1030919963902208</v>
       </c>
       <c r="W52" t="n">
-        <v>0.1030919963902208</v>
-      </c>
-      <c r="X52" t="n">
         <v>50</v>
       </c>
     </row>
@@ -4293,69 +4135,66 @@
         <v>-0.809740392244744</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.2701901632744805</v>
+        <v>-4</v>
       </c>
       <c r="D53" t="n">
-        <v>-4</v>
+        <v>1.811850860465892</v>
       </c>
       <c r="E53" t="n">
-        <v>1.811850860465892</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9142857142857143</v>
+        <v>2.890172205124476</v>
       </c>
       <c r="G53" t="n">
-        <v>2.890172205124476</v>
+        <v>-0.2049542670375159</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.2049542670375159</v>
+        <v>-0.9611687370050001</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.9611687370050001</v>
+        <v>-0.2693812955341301</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.2693812955341301</v>
+        <v>-1.160819099138376</v>
       </c>
       <c r="K53" t="n">
-        <v>-1.160819099138376</v>
+        <v>-0.2851080903091489</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.2851080903091489</v>
+        <v>-1.561249989958208</v>
       </c>
       <c r="M53" t="n">
-        <v>-1.561249989958208</v>
+        <v>0.001197591282846884</v>
       </c>
       <c r="N53" t="n">
-        <v>0.001197591282846884</v>
+        <v>-0.4245671646312899</v>
       </c>
       <c r="O53" t="n">
-        <v>-0.4245671646312899</v>
+        <v>-0.1927256762776257</v>
       </c>
       <c r="P53" t="n">
-        <v>-0.1927256762776257</v>
+        <v>-0.172248267180193</v>
       </c>
       <c r="Q53" t="n">
-        <v>-0.172248267180193</v>
+        <v>-1.095594127711731</v>
       </c>
       <c r="R53" t="n">
-        <v>-1.095594127711731</v>
+        <v>0.9703224824997987</v>
       </c>
       <c r="S53" t="n">
-        <v>0.9703224824997987</v>
+        <v>1.94033522452069</v>
       </c>
       <c r="T53" t="n">
-        <v>1.94033522452069</v>
+        <v>0.9807010766428916</v>
       </c>
       <c r="U53" t="n">
-        <v>0.9807010766428916</v>
+        <v>1.412635303380341</v>
       </c>
       <c r="V53" t="n">
-        <v>1.412635303380341</v>
+        <v>0.1030919963902208</v>
       </c>
       <c r="W53" t="n">
-        <v>0.1030919963902208</v>
-      </c>
-      <c r="X53" t="n">
         <v>51</v>
       </c>
     </row>
@@ -4367,67 +4206,64 @@
         <v>1.773999798630325</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01098469824411622</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>5</v>
+        <v>-0.2333539079947659</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2333539079947659</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3783783783783784</v>
+        <v>-1.067242522219194</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.067242522219194</v>
+        <v>-0.8701780613122956</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.8701780613122956</v>
+        <v>-0.9607375685267129</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.9607375685267129</v>
+        <v>-0.6842583737663727</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.6842583737663727</v>
+        <v>-0.9436441283830027</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.9436441283830027</v>
+        <v>-0.6957724345341479</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.6957724345341479</v>
+        <v>0.05307315448288166</v>
       </c>
       <c r="M54" t="n">
-        <v>0.05307315448288166</v>
+        <v>0.03399047536187672</v>
       </c>
       <c r="N54" t="n">
-        <v>0.03399047536187672</v>
+        <v>-0.153509871793217</v>
       </c>
       <c r="O54" t="n">
-        <v>-0.153509871793217</v>
-      </c>
-      <c r="P54" t="n">
         <v>-0.08375636267382232</v>
       </c>
-      <c r="Q54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="n">
+        <v>-0.3500932264546487</v>
+      </c>
       <c r="R54" t="n">
-        <v>-0.3500932264546487</v>
+        <v>-1.074630228674337</v>
       </c>
       <c r="S54" t="n">
-        <v>-1.074630228674337</v>
+        <v>-0.3332206748597044</v>
       </c>
       <c r="T54" t="n">
-        <v>-0.3332206748597044</v>
+        <v>-0.3872327569539318</v>
       </c>
       <c r="U54" t="n">
-        <v>-0.3872327569539318</v>
+        <v>-0.7605074283682177</v>
       </c>
       <c r="V54" t="n">
-        <v>-0.7605074283682177</v>
+        <v>-0.8023767993275537</v>
       </c>
       <c r="W54" t="n">
-        <v>-0.8023767993275537</v>
-      </c>
-      <c r="X54" t="n">
         <v>52</v>
       </c>
     </row>
@@ -4439,69 +4275,66 @@
         <v>0.1298014953461903</v>
       </c>
       <c r="C55" t="n">
-        <v>1.557446436596398</v>
+        <v>-13</v>
       </c>
       <c r="D55" t="n">
-        <v>-13</v>
+        <v>0.9202409435920321</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9202409435920321</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3260869565217391</v>
+        <v>-1.298690701139554</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.298690701139554</v>
+        <v>-1.852526234442966</v>
       </c>
       <c r="H55" t="n">
-        <v>-1.852526234442966</v>
+        <v>-1.219555067912166</v>
       </c>
       <c r="I55" t="n">
-        <v>-1.219555067912166</v>
+        <v>-0.7619615534621117</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.7619615534621117</v>
+        <v>0.8402258946067316</v>
       </c>
       <c r="K55" t="n">
-        <v>0.8402258946067316</v>
+        <v>1.760011337533895</v>
       </c>
       <c r="L55" t="n">
-        <v>1.760011337533895</v>
+        <v>2.828336636412282</v>
       </c>
       <c r="M55" t="n">
-        <v>2.828336636412282</v>
+        <v>1.619536976729909</v>
       </c>
       <c r="N55" t="n">
-        <v>1.619536976729909</v>
+        <v>-0.04045804165938353</v>
       </c>
       <c r="O55" t="n">
-        <v>-0.04045804165938353</v>
+        <v>-0.09519588918496742</v>
       </c>
       <c r="P55" t="n">
-        <v>-0.09519588918496742</v>
+        <v>0.7141644528025681</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.7141644528025681</v>
+        <v>-0.8994109493331689</v>
       </c>
       <c r="R55" t="n">
-        <v>-0.8994109493331689</v>
+        <v>0.3701719181484801</v>
       </c>
       <c r="S55" t="n">
-        <v>0.3701719181484801</v>
+        <v>-0.06174138670395027</v>
       </c>
       <c r="T55" t="n">
-        <v>-0.06174138670395027</v>
+        <v>0.2269717961440229</v>
       </c>
       <c r="U55" t="n">
-        <v>0.2269717961440229</v>
+        <v>0.992762325029198</v>
       </c>
       <c r="V55" t="n">
-        <v>0.992762325029198</v>
+        <v>0.4500863979641935</v>
       </c>
       <c r="W55" t="n">
-        <v>0.4500863979641935</v>
-      </c>
-      <c r="X55" t="n">
         <v>53</v>
       </c>
     </row>
@@ -4513,69 +4346,66 @@
         <v>0.5995724391416575</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1515721290034146</v>
+        <v>-1</v>
       </c>
       <c r="D56" t="n">
-        <v>-1</v>
+        <v>-0.2144750947474367</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2144750947474367</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8666666666666667</v>
+        <v>-0.4054581386180739</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.4054581386180739</v>
+        <v>-0.2535776256751148</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.2535776256751148</v>
+        <v>-0.2264957391580903</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.2264957391580903</v>
+        <v>-0.2931350279207243</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.2931350279207243</v>
+        <v>-0.5434157216915682</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.5434157216915682</v>
+        <v>-0.6326130261109815</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.6326130261109815</v>
+        <v>-0.06480137479168945</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.06480137479168945</v>
+        <v>0.001197591282846884</v>
       </c>
       <c r="N56" t="n">
-        <v>0.001197591282846884</v>
+        <v>-0.07489166617711149</v>
       </c>
       <c r="O56" t="n">
-        <v>-0.07489166617711149</v>
+        <v>-0.1652720833780708</v>
       </c>
       <c r="P56" t="n">
-        <v>-0.1652720833780708</v>
+        <v>-1.609497549420686</v>
       </c>
       <c r="Q56" t="n">
-        <v>-1.609497549420686</v>
+        <v>-0.2813351856045486</v>
       </c>
       <c r="R56" t="n">
-        <v>-0.2813351856045486</v>
+        <v>0.5295899286469485</v>
       </c>
       <c r="S56" t="n">
-        <v>0.5295899286469485</v>
+        <v>0.263608779796743</v>
       </c>
       <c r="T56" t="n">
-        <v>0.263608779796743</v>
+        <v>-0.2630788301652561</v>
       </c>
       <c r="U56" t="n">
-        <v>-0.2630788301652561</v>
+        <v>0.6947439046234835</v>
       </c>
       <c r="V56" t="n">
-        <v>0.6947439046234835</v>
+        <v>0.1099936323380457</v>
       </c>
       <c r="W56" t="n">
-        <v>0.1099936323380457</v>
-      </c>
-      <c r="X56" t="n">
         <v>54</v>
       </c>
     </row>
@@ -4587,69 +4417,66 @@
         <v>-0.1050839765515433</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.2701901632744805</v>
+        <v>-1</v>
       </c>
       <c r="D57" t="n">
-        <v>-1</v>
+        <v>0.04618501096568731</v>
       </c>
       <c r="E57" t="n">
-        <v>0.04618501096568731</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3571428571428572</v>
+        <v>-0.1098896714127107</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1098896714127107</v>
+        <v>1.417411075495717</v>
       </c>
       <c r="H57" t="n">
-        <v>1.417411075495717</v>
+        <v>0.2777436883060159</v>
       </c>
       <c r="I57" t="n">
-        <v>0.2777436883060159</v>
+        <v>1.246915237438464</v>
       </c>
       <c r="J57" t="n">
-        <v>1.246915237438464</v>
+        <v>-0.9083337978298146</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.9083337978298146</v>
+        <v>-0.7711630287537908</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.7711630287537908</v>
+        <v>-0.6746576223465811</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.6746576223465811</v>
+        <v>-0.5327237911203743</v>
       </c>
       <c r="N57" t="n">
-        <v>-0.5327237911203743</v>
+        <v>-0.1109207894681066</v>
       </c>
       <c r="O57" t="n">
-        <v>-0.1109207894681066</v>
+        <v>-0.196757496510782</v>
       </c>
       <c r="P57" t="n">
-        <v>-0.196757496510782</v>
+        <v>-1.276998436085024</v>
       </c>
       <c r="Q57" t="n">
-        <v>-1.276998436085024</v>
+        <v>-0.3942139664454375</v>
       </c>
       <c r="R57" t="n">
-        <v>-0.3942139664454375</v>
+        <v>-0.6030266570514556</v>
       </c>
       <c r="S57" t="n">
-        <v>-0.6030266570514556</v>
+        <v>1.01416311123563</v>
       </c>
       <c r="T57" t="n">
-        <v>1.01416311123563</v>
+        <v>0.8130339007280274</v>
       </c>
       <c r="U57" t="n">
-        <v>0.8130339007280274</v>
+        <v>-1.346039179400713</v>
       </c>
       <c r="V57" t="n">
-        <v>-1.346039179400713</v>
+        <v>0.4155642204789406</v>
       </c>
       <c r="W57" t="n">
-        <v>0.4155642204789406</v>
-      </c>
-      <c r="X57" t="n">
         <v>55</v>
       </c>
     </row>
@@ -4661,69 +4488,66 @@
         <v>0.3646869672439239</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.832539886311674</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>5</v>
+        <v>0.431710249911145</v>
       </c>
       <c r="E58" t="n">
-        <v>0.431710249911145</v>
+        <v>0.32</v>
       </c>
       <c r="F58" t="n">
-        <v>0.32</v>
+        <v>-0.7425633285857446</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.7425633285857446</v>
+        <v>-0.9391469831831171</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.9391469831831171</v>
+        <v>0.1556432159936128</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1556432159936128</v>
+        <v>1.711864614697667</v>
       </c>
       <c r="J58" t="n">
-        <v>1.711864614697667</v>
+        <v>0.5393018241623594</v>
       </c>
       <c r="K58" t="n">
-        <v>0.5393018241623594</v>
+        <v>0.5243705590389179</v>
       </c>
       <c r="L58" t="n">
-        <v>0.5243705590389179</v>
+        <v>-0.8732668328073628</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.8732668328073628</v>
+        <v>-0.5074838805545201</v>
       </c>
       <c r="N58" t="n">
-        <v>-0.5074838805545201</v>
+        <v>-0.1872500129272558</v>
       </c>
       <c r="O58" t="n">
-        <v>-0.1872500129272558</v>
+        <v>-0.1846265365366379</v>
       </c>
       <c r="P58" t="n">
-        <v>-0.1846265365366379</v>
+        <v>-0.1915269495631873</v>
       </c>
       <c r="Q58" t="n">
-        <v>-0.1915269495631873</v>
+        <v>0.07442444446961022</v>
       </c>
       <c r="R58" t="n">
-        <v>0.07442444446961022</v>
+        <v>-0.1909125451238847</v>
       </c>
       <c r="S58" t="n">
-        <v>-0.1909125451238847</v>
+        <v>1.541540525857607</v>
       </c>
       <c r="T58" t="n">
-        <v>1.541540525857607</v>
+        <v>-0.70972824164709</v>
       </c>
       <c r="U58" t="n">
-        <v>-0.70972824164709</v>
+        <v>0.5284244348872897</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5284244348872897</v>
+        <v>-0.01576502756447691</v>
       </c>
       <c r="W58" t="n">
-        <v>-0.01576502756447691</v>
-      </c>
-      <c r="X58" t="n">
         <v>56</v>
       </c>
     </row>
@@ -4735,69 +4559,66 @@
         <v>0.3646869672439239</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.832539886311674</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>5</v>
+        <v>0.431710249911145</v>
       </c>
       <c r="E59" t="n">
-        <v>0.431710249911145</v>
+        <v>0.32</v>
       </c>
       <c r="F59" t="n">
-        <v>0.32</v>
+        <v>-0.7425633285857446</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.7425633285857446</v>
+        <v>-0.9391469831831171</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.9391469831831171</v>
+        <v>0.1556432159936128</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1556432159936128</v>
+        <v>1.711864614697667</v>
       </c>
       <c r="J59" t="n">
-        <v>1.711864614697667</v>
+        <v>0.5393018241623594</v>
       </c>
       <c r="K59" t="n">
-        <v>0.5393018241623594</v>
+        <v>0.5243705590389179</v>
       </c>
       <c r="L59" t="n">
-        <v>0.5243705590389179</v>
+        <v>-0.8732668328073628</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.8732668328073628</v>
+        <v>-0.5074838805545201</v>
       </c>
       <c r="N59" t="n">
-        <v>-0.5074838805545201</v>
+        <v>-0.1872500129272558</v>
       </c>
       <c r="O59" t="n">
-        <v>-0.1872500129272558</v>
+        <v>-0.1846265365366379</v>
       </c>
       <c r="P59" t="n">
-        <v>-0.1846265365366379</v>
+        <v>-0.1915269495631873</v>
       </c>
       <c r="Q59" t="n">
-        <v>-0.1915269495631873</v>
+        <v>0.07442444446961022</v>
       </c>
       <c r="R59" t="n">
-        <v>0.07442444446961022</v>
+        <v>-0.1909125451238847</v>
       </c>
       <c r="S59" t="n">
-        <v>-0.1909125451238847</v>
+        <v>1.541540525857607</v>
       </c>
       <c r="T59" t="n">
-        <v>1.541540525857607</v>
+        <v>-0.70972824164709</v>
       </c>
       <c r="U59" t="n">
-        <v>-0.70972824164709</v>
+        <v>0.5284244348872897</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5284244348872897</v>
+        <v>-0.01576502756447691</v>
       </c>
       <c r="W59" t="n">
-        <v>-0.01576502756447691</v>
-      </c>
-      <c r="X59" t="n">
         <v>57</v>
       </c>
     </row>
@@ -4809,69 +4630,66 @@
         <v>-0.5748549203470105</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.4107775940337789</v>
+        <v>-2</v>
       </c>
       <c r="D60" t="n">
-        <v>-2</v>
+        <v>-0.2750860214888616</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2750860214888616</v>
+        <v>0.5</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5</v>
+        <v>-0.5447417433958276</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.5447417433958276</v>
+        <v>0.1337517217057351</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1337517217057351</v>
+        <v>-0.6209142261197182</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.6209142261197182</v>
+        <v>-0.9167561650988869</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.9167561650988869</v>
+        <v>0.4951850978345261</v>
       </c>
       <c r="K60" t="n">
-        <v>0.4951850978345261</v>
+        <v>-0.0813231679314026</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.0813231679314026</v>
+        <v>0.7164755354838767</v>
       </c>
       <c r="M60" t="n">
-        <v>0.7164755354838767</v>
+        <v>0.5485673740351654</v>
       </c>
       <c r="N60" t="n">
-        <v>0.5485673740351654</v>
+        <v>-0.324237926427479</v>
       </c>
       <c r="O60" t="n">
-        <v>-0.324237926427479</v>
+        <v>-0.2088045599748345</v>
       </c>
       <c r="P60" t="n">
-        <v>-0.2088045599748345</v>
+        <v>0.456366086740915</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.456366086740915</v>
+        <v>0.6309912611117618</v>
       </c>
       <c r="R60" t="n">
-        <v>0.6309912611117618</v>
+        <v>-1.730558863707639</v>
       </c>
       <c r="S60" t="n">
-        <v>-1.730558863707639</v>
+        <v>-1.332271315863503</v>
       </c>
       <c r="T60" t="n">
-        <v>-1.332271315863503</v>
+        <v>-0.230455097086585</v>
       </c>
       <c r="U60" t="n">
-        <v>-0.230455097086585</v>
+        <v>-2.337216901072441</v>
       </c>
       <c r="V60" t="n">
-        <v>-2.337216901072441</v>
+        <v>-1.315612102307689</v>
       </c>
       <c r="W60" t="n">
-        <v>-1.315612102307689</v>
-      </c>
-      <c r="X60" t="n">
         <v>58</v>
       </c>
     </row>
@@ -4883,69 +4701,66 @@
         <v>-1.279511336040211</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.6919524555523756</v>
+        <v>-3</v>
       </c>
       <c r="D61" t="n">
-        <v>-3</v>
+        <v>-0.1800295407523093</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.1800295407523093</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2352941176470588</v>
+        <v>-0.6589407924617264</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.6589407924617264</v>
+        <v>-1.843741314658524</v>
       </c>
       <c r="H61" t="n">
-        <v>-1.843741314658524</v>
+        <v>-0.3189077793532979</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.3189077793532979</v>
+        <v>-1.374586523377171</v>
       </c>
       <c r="J61" t="n">
-        <v>-1.374586523377171</v>
+        <v>-0.07240367587294264</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.07240367587294264</v>
+        <v>-0.3731237712627338</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.3731237712627338</v>
+        <v>0.22796494332211</v>
       </c>
       <c r="M61" t="n">
-        <v>0.22796494332211</v>
+        <v>2.434505640606184</v>
       </c>
       <c r="N61" t="n">
-        <v>2.434505640606184</v>
+        <v>0.000957762654031899</v>
       </c>
       <c r="O61" t="n">
-        <v>0.000957762654031899</v>
+        <v>0.03232408060513943</v>
       </c>
       <c r="P61" t="n">
-        <v>0.03232408060513943</v>
+        <v>-0.8694481084446216</v>
       </c>
       <c r="Q61" t="n">
-        <v>-0.8694481084446216</v>
+        <v>-0.3708290131791178</v>
       </c>
       <c r="R61" t="n">
-        <v>-0.3708290131791178</v>
+        <v>0.2720454215851913</v>
       </c>
       <c r="S61" t="n">
-        <v>0.2720454215851913</v>
+        <v>0.4871249185170629</v>
       </c>
       <c r="T61" t="n">
-        <v>0.4871249185170629</v>
+        <v>1.017962936926987</v>
       </c>
       <c r="U61" t="n">
-        <v>1.017962936926987</v>
+        <v>-0.0272217882335763</v>
       </c>
       <c r="V61" t="n">
-        <v>-0.0272217882335763</v>
+        <v>0.1126630675818902</v>
       </c>
       <c r="W61" t="n">
-        <v>0.1126630675818902</v>
-      </c>
-      <c r="X61" t="n">
         <v>59</v>
       </c>
     </row>
@@ -4957,69 +4772,66 @@
         <v>0.5995724391416575</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.832539886311674</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>6</v>
+        <v>-1.324350589340419</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.324350589340419</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.117713371120578</v>
       </c>
       <c r="G62" t="n">
-        <v>1.117713371120578</v>
+        <v>1.121528208998599</v>
       </c>
       <c r="H62" t="n">
-        <v>1.121528208998599</v>
+        <v>-0.7918746896035544</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.7918746896035544</v>
+        <v>-1.270116326527858</v>
       </c>
       <c r="J62" t="n">
-        <v>-1.270116326527858</v>
+        <v>-0.9965826776535592</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.9965826776535592</v>
+        <v>-1.104938280336151</v>
       </c>
       <c r="L62" t="n">
-        <v>-1.104938280336151</v>
+        <v>-0.2906399396341997</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.2906399396341997</v>
+        <v>-0.6923577668031452</v>
       </c>
       <c r="N62" t="n">
-        <v>-0.6923577668031452</v>
+        <v>0.02363677831818397</v>
       </c>
       <c r="O62" t="n">
-        <v>0.02363677831818397</v>
+        <v>-0.2084353927162341</v>
       </c>
       <c r="P62" t="n">
-        <v>-0.2084353927162341</v>
+        <v>-0.8224726401900403</v>
       </c>
       <c r="Q62" t="n">
-        <v>-0.8224726401900403</v>
+        <v>-0.6928478334960393</v>
       </c>
       <c r="R62" t="n">
-        <v>-0.6928478334960393</v>
+        <v>-0.1296424821466775</v>
       </c>
       <c r="S62" t="n">
-        <v>-0.1296424821466775</v>
+        <v>0.4036486820979379</v>
       </c>
       <c r="T62" t="n">
-        <v>0.4036486820979379</v>
+        <v>-0.1607487505354991</v>
       </c>
       <c r="U62" t="n">
-        <v>-0.1607487505354991</v>
+        <v>-0.07126826075860032</v>
       </c>
       <c r="V62" t="n">
-        <v>-0.07126826075860032</v>
+        <v>0.2892417347201112</v>
       </c>
       <c r="W62" t="n">
-        <v>0.2892417347201112</v>
-      </c>
-      <c r="X62" t="n">
         <v>60</v>
       </c>
     </row>
@@ -5031,69 +4843,66 @@
         <v>0.5995724391416575</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.113714747830271</v>
+        <v>8</v>
       </c>
       <c r="D63" t="n">
-        <v>8</v>
+        <v>-1.324350589340419</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.324350589340419</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.117713371120578</v>
       </c>
       <c r="G63" t="n">
-        <v>1.117713371120578</v>
+        <v>1.121528208998599</v>
       </c>
       <c r="H63" t="n">
-        <v>1.121528208998599</v>
+        <v>-0.7918746896035544</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.7918746896035544</v>
+        <v>-1.270116326527858</v>
       </c>
       <c r="J63" t="n">
-        <v>-1.270116326527858</v>
+        <v>-0.9965826776535592</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.9965826776535592</v>
+        <v>-1.104938280336151</v>
       </c>
       <c r="L63" t="n">
-        <v>-1.104938280336151</v>
+        <v>-0.2906399396341997</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.2906399396341997</v>
+        <v>-0.6923577668031452</v>
       </c>
       <c r="N63" t="n">
-        <v>-0.6923577668031452</v>
+        <v>0.02363677831818397</v>
       </c>
       <c r="O63" t="n">
-        <v>0.02363677831818397</v>
+        <v>-0.2084353927162341</v>
       </c>
       <c r="P63" t="n">
-        <v>-0.2084353927162341</v>
+        <v>-0.8224726401900403</v>
       </c>
       <c r="Q63" t="n">
-        <v>-0.8224726401900403</v>
+        <v>-0.6928478334960393</v>
       </c>
       <c r="R63" t="n">
-        <v>-0.6928478334960393</v>
+        <v>-0.1296424821466775</v>
       </c>
       <c r="S63" t="n">
-        <v>-0.1296424821466775</v>
+        <v>0.4036486820979379</v>
       </c>
       <c r="T63" t="n">
-        <v>0.4036486820979379</v>
+        <v>-0.1607487505354991</v>
       </c>
       <c r="U63" t="n">
-        <v>-0.1607487505354991</v>
+        <v>-0.07126826075860032</v>
       </c>
       <c r="V63" t="n">
-        <v>-0.07126826075860032</v>
+        <v>0.2892417347201112</v>
       </c>
       <c r="W63" t="n">
-        <v>0.2892417347201112</v>
-      </c>
-      <c r="X63" t="n">
         <v>61</v>
       </c>
     </row>
@@ -5105,69 +4914,66 @@
         <v>-0.1050839765515433</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01098469824411622</v>
+        <v>-3</v>
       </c>
       <c r="D64" t="n">
-        <v>-3</v>
+        <v>1.190506059553797</v>
       </c>
       <c r="E64" t="n">
-        <v>1.190506059553797</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6521739130434783</v>
+        <v>-1.107600015646435</v>
       </c>
       <c r="G64" t="n">
-        <v>-1.107600015646435</v>
+        <v>-0.2049542670375159</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.2049542670375159</v>
+        <v>1.427219868368814</v>
       </c>
       <c r="I64" t="n">
-        <v>1.427219868368814</v>
+        <v>-0.2693812955341301</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.2693812955341301</v>
+        <v>2.082095374696262</v>
       </c>
       <c r="K64" t="n">
-        <v>2.082095374696262</v>
+        <v>-0.2851080903091489</v>
       </c>
       <c r="L64" t="n">
-        <v>-0.2851080903091489</v>
+        <v>1.400091010535773</v>
       </c>
       <c r="M64" t="n">
-        <v>1.400091010535773</v>
+        <v>0.001197591282846884</v>
       </c>
       <c r="N64" t="n">
-        <v>0.001197591282846884</v>
+        <v>-0.3433975218977286</v>
       </c>
       <c r="O64" t="n">
-        <v>-0.3433975218977286</v>
+        <v>-0.1927256762776257</v>
       </c>
       <c r="P64" t="n">
-        <v>-0.1927256762776257</v>
+        <v>-0.09383673119963966</v>
       </c>
       <c r="Q64" t="n">
-        <v>-0.09383673119963966</v>
+        <v>1.516562286092425</v>
       </c>
       <c r="R64" t="n">
-        <v>1.516562286092425</v>
+        <v>-0.875641971315065</v>
       </c>
       <c r="S64" t="n">
-        <v>-0.875641971315065</v>
+        <v>-0.4356540609884776</v>
       </c>
       <c r="T64" t="n">
-        <v>-0.4356540609884776</v>
+        <v>1.257106570392231</v>
       </c>
       <c r="U64" t="n">
-        <v>1.257106570392231</v>
+        <v>0.5866538664515761</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5866538664515761</v>
+        <v>0.2714552918876005</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2714552918876005</v>
-      </c>
-      <c r="X64" t="n">
         <v>62</v>
       </c>
     </row>
@@ -5179,69 +4985,66 @@
         <v>0.1298014953461903</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4327469905220113</v>
+        <v>-5</v>
       </c>
       <c r="D65" t="n">
-        <v>-5</v>
+        <v>0.7493380026162093</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7493380026162093</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5405405405405406</v>
+        <v>-0.6031886723932951</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.6031886723932951</v>
+        <v>0.1530861188206554</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1530861188206554</v>
+        <v>2.145023299063388</v>
       </c>
       <c r="I65" t="n">
-        <v>2.145023299063388</v>
+        <v>0.3031594712260196</v>
       </c>
       <c r="J65" t="n">
-        <v>0.3031594712260196</v>
+        <v>0.1122434077245215</v>
       </c>
       <c r="K65" t="n">
-        <v>0.1122434077245215</v>
+        <v>-0.2472103493765844</v>
       </c>
       <c r="L65" t="n">
-        <v>-0.2472103493765844</v>
+        <v>0.9054421227570483</v>
       </c>
       <c r="M65" t="n">
-        <v>0.9054421227570483</v>
+        <v>0.6011777703076363</v>
       </c>
       <c r="N65" t="n">
-        <v>0.6011777703076363</v>
+        <v>-0.2039703526064387</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.2039703526064387</v>
+        <v>-0.1965117855122682</v>
       </c>
       <c r="P65" t="n">
-        <v>-0.1965117855122682</v>
+        <v>0.703540416923722</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.703540416923722</v>
+        <v>1.649913140690729</v>
       </c>
       <c r="R65" t="n">
-        <v>1.649913140690729</v>
+        <v>-2.141149803156782</v>
       </c>
       <c r="S65" t="n">
-        <v>-2.141149803156782</v>
+        <v>-2.991354608365723</v>
       </c>
       <c r="T65" t="n">
-        <v>-2.991354608365723</v>
+        <v>-0.3704839687489595</v>
       </c>
       <c r="U65" t="n">
-        <v>-0.3704839687489595</v>
+        <v>1.289039808695408</v>
       </c>
       <c r="V65" t="n">
-        <v>1.289039808695408</v>
+        <v>0.4891520717567759</v>
       </c>
       <c r="W65" t="n">
-        <v>0.4891520717567759</v>
-      </c>
-      <c r="X65" t="n">
         <v>63</v>
       </c>
     </row>
@@ -5253,69 +5056,66 @@
         <v>-0.809740392244744</v>
       </c>
       <c r="C66" t="n">
-        <v>-1.254302178589569</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>3</v>
+        <v>-1.637672647796093</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.637672647796093</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3684210526315789</v>
+        <v>-0.537355413360544</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.537355413360544</v>
+        <v>-0.2401622340908825</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.2401622340908825</v>
+        <v>-0.4827648693825064</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.4827648693825064</v>
+        <v>-0.2026364432570358</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.2026364432570358</v>
+        <v>-0.5232658113065486</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.5232658113065486</v>
+        <v>-0.4402067881838311</v>
       </c>
       <c r="L66" t="n">
-        <v>-0.4402067881838311</v>
+        <v>1.734469097555805</v>
       </c>
       <c r="M66" t="n">
-        <v>1.734469097555805</v>
+        <v>0.6776709325165166</v>
       </c>
       <c r="N66" t="n">
-        <v>0.6776709325165166</v>
+        <v>-0.2097539327102791</v>
       </c>
       <c r="O66" t="n">
-        <v>-0.2097539327102791</v>
+        <v>-0.2094901964356369</v>
       </c>
       <c r="P66" t="n">
-        <v>-0.2094901964356369</v>
+        <v>1.247509137385974</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.247509137385974</v>
+        <v>-0.257709393761687</v>
       </c>
       <c r="R66" t="n">
-        <v>-0.257709393761687</v>
+        <v>-0.7845199108284765</v>
       </c>
       <c r="S66" t="n">
-        <v>-0.7845199108284765</v>
+        <v>0.4365680827760641</v>
       </c>
       <c r="T66" t="n">
-        <v>0.4365680827760641</v>
+        <v>-0.3569392929244241</v>
       </c>
       <c r="U66" t="n">
-        <v>-0.3569392929244241</v>
+        <v>0.3692404933433744</v>
       </c>
       <c r="V66" t="n">
-        <v>0.3692404933433744</v>
+        <v>-0.07551113098301458</v>
       </c>
       <c r="W66" t="n">
-        <v>-0.07551113098301458</v>
-      </c>
-      <c r="X66" t="n">
         <v>64</v>
       </c>
     </row>
@@ -5327,69 +5127,66 @@
         <v>-0.1050839765515433</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1515721290034146</v>
+        <v>-4</v>
       </c>
       <c r="D67" t="n">
-        <v>-4</v>
+        <v>-0.5797966914457531</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5797966914457531</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="F67" t="n">
-        <v>0.4807692307692308</v>
+        <v>-0.4413313309736011</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4413313309736011</v>
+        <v>-0.2049542670375159</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.2049542670375159</v>
+        <v>-0.337169561433911</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.337169561433911</v>
+        <v>0.4714899863527092</v>
       </c>
       <c r="J67" t="n">
-        <v>0.4714899863527092</v>
+        <v>-0.2954078075612263</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.2954078075612263</v>
+        <v>-0.4160143124943125</v>
       </c>
       <c r="L67" t="n">
-        <v>-0.4160143124943125</v>
+        <v>2.970879049248902</v>
       </c>
       <c r="M67" t="n">
-        <v>2.970879049248902</v>
+        <v>1.337128082033634</v>
       </c>
       <c r="N67" t="n">
-        <v>1.337128082033634</v>
+        <v>-0.2821781865520522</v>
       </c>
       <c r="O67" t="n">
-        <v>-0.2821781865520522</v>
+        <v>-0.2153998578624634</v>
       </c>
       <c r="P67" t="n">
-        <v>-0.2153998578624634</v>
+        <v>-0.1496294598427021</v>
       </c>
       <c r="Q67" t="n">
-        <v>-0.1496294598427021</v>
+        <v>-0.1433133602336416</v>
       </c>
       <c r="R67" t="n">
-        <v>-0.1433133602336416</v>
+        <v>-0.6306582583710124</v>
       </c>
       <c r="S67" t="n">
-        <v>-0.6306582583710124</v>
+        <v>0.05263037615918255</v>
       </c>
       <c r="T67" t="n">
-        <v>0.05263037615918255</v>
+        <v>-0.5897195032488313</v>
       </c>
       <c r="U67" t="n">
-        <v>-0.5897195032488313</v>
+        <v>-0.2114901968285938</v>
       </c>
       <c r="V67" t="n">
-        <v>-0.2114901968285938</v>
+        <v>-0.3975600253618553</v>
       </c>
       <c r="W67" t="n">
-        <v>-0.3975600253618553</v>
-      </c>
-      <c r="X67" t="n">
         <v>65</v>
       </c>
     </row>
@@ -5401,69 +5198,66 @@
         <v>-0.5748549203470105</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.832539886311674</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>-0.2250737267459371</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.2250737267459371</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5142857142857142</v>
+        <v>-0.2875787368522831</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2875787368522831</v>
+        <v>2.867036650060447</v>
       </c>
       <c r="H68" t="n">
-        <v>2.867036650060447</v>
+        <v>0.6335647454838742</v>
       </c>
       <c r="I68" t="n">
-        <v>0.6335647454838742</v>
+        <v>-1.049376341798703</v>
       </c>
       <c r="J68" t="n">
-        <v>-1.049376341798703</v>
+        <v>0.09036945614021333</v>
       </c>
       <c r="K68" t="n">
-        <v>0.09036945614021333</v>
+        <v>-0.3929564470103438</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.3929564470103438</v>
+        <v>1.149101537750212</v>
       </c>
       <c r="M68" t="n">
-        <v>1.149101537750212</v>
+        <v>-0.503210919978993</v>
       </c>
       <c r="N68" t="n">
-        <v>-0.503210919978993</v>
+        <v>-0.2888606372762064</v>
       </c>
       <c r="O68" t="n">
-        <v>-0.2888606372762064</v>
+        <v>-0.2234874263512652</v>
       </c>
       <c r="P68" t="n">
-        <v>-0.2234874263512652</v>
+        <v>-0.7746188799922692</v>
       </c>
       <c r="Q68" t="n">
-        <v>-0.7746188799922692</v>
+        <v>-1.601778524198237</v>
       </c>
       <c r="R68" t="n">
-        <v>-1.601778524198237</v>
+        <v>1.398633689551598</v>
       </c>
       <c r="S68" t="n">
-        <v>1.398633689551598</v>
+        <v>0.501297755314749</v>
       </c>
       <c r="T68" t="n">
-        <v>0.501297755314749</v>
+        <v>-0.02391279252903345</v>
       </c>
       <c r="U68" t="n">
-        <v>-0.02391279252903345</v>
+        <v>-0.5745872771360993</v>
       </c>
       <c r="V68" t="n">
-        <v>-0.5745872771360993</v>
+        <v>0.07987014688981968</v>
       </c>
       <c r="W68" t="n">
-        <v>0.07987014688981968</v>
-      </c>
-      <c r="X68" t="n">
         <v>66</v>
       </c>
     </row>
@@ -5475,69 +5269,66 @@
         <v>-1.044625864142478</v>
       </c>
       <c r="C69" t="n">
-        <v>-1.535477040108166</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>4</v>
+        <v>-0.08331702376599232</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.08331702376599232</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="F69" t="n">
-        <v>0.4821428571428572</v>
+        <v>-0.6198349688648432</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6198349688648432</v>
+        <v>0.2318061840936094</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2318061840936094</v>
+        <v>0.1294507964331773</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1294507964331773</v>
+        <v>-0.2693812955341301</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.2693812955341301</v>
+        <v>1.973340023408897</v>
       </c>
       <c r="K69" t="n">
-        <v>1.973340023408897</v>
+        <v>0.362372520252861</v>
       </c>
       <c r="L69" t="n">
-        <v>0.362372520252861</v>
+        <v>-0.4217028931367671</v>
       </c>
       <c r="M69" t="n">
-        <v>-0.4217028931367671</v>
+        <v>-0.3421561007328414</v>
       </c>
       <c r="N69" t="n">
-        <v>-0.3421561007328414</v>
+        <v>-0.06958546212619086</v>
       </c>
       <c r="O69" t="n">
-        <v>-0.06958546212619086</v>
+        <v>-0.1602955354929587</v>
       </c>
       <c r="P69" t="n">
-        <v>-0.1602955354929587</v>
+        <v>-0.7011848053750172</v>
       </c>
       <c r="Q69" t="n">
-        <v>-0.7011848053750172</v>
+        <v>-0.04500501704797414</v>
       </c>
       <c r="R69" t="n">
-        <v>-0.04500501704797414</v>
+        <v>-0.9144184554996945</v>
       </c>
       <c r="S69" t="n">
-        <v>-0.9144184554996945</v>
+        <v>-0.6980020916897542</v>
       </c>
       <c r="T69" t="n">
-        <v>-0.6980020916897542</v>
+        <v>1.78780242962157</v>
       </c>
       <c r="U69" t="n">
-        <v>1.78780242962157</v>
+        <v>0.2909038436721282</v>
       </c>
       <c r="V69" t="n">
-        <v>0.2909038436721282</v>
+        <v>1.118967404006412</v>
       </c>
       <c r="W69" t="n">
-        <v>1.118967404006412</v>
-      </c>
-      <c r="X69" t="n">
         <v>67</v>
       </c>
     </row>
@@ -5549,69 +5340,66 @@
         <v>0.3646869672439239</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1515721290034146</v>
+        <v>-2</v>
       </c>
       <c r="D70" t="n">
-        <v>-2</v>
+        <v>0.9066614463439531</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9066614463439531</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5818181818181818</v>
+        <v>-0.3295632593814081</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3295632593814081</v>
+        <v>1.018284464570761</v>
       </c>
       <c r="H70" t="n">
-        <v>1.018284464570761</v>
+        <v>-0.2086882412333626</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.2086882412333626</v>
+        <v>0.6177086730150919</v>
       </c>
       <c r="J70" t="n">
-        <v>0.6177086730150919</v>
+        <v>-0.09550496922925221</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.09550496922925221</v>
+        <v>-0.7118494943341743</v>
       </c>
       <c r="L70" t="n">
-        <v>-0.7118494943341743</v>
+        <v>0.09220740599043882</v>
       </c>
       <c r="M70" t="n">
-        <v>0.09220740599043882</v>
+        <v>-1.079270789909809</v>
       </c>
       <c r="N70" t="n">
-        <v>-1.079270789909809</v>
+        <v>-0.1915782094570568</v>
       </c>
       <c r="O70" t="n">
-        <v>-0.1915782094570568</v>
+        <v>-0.229959865137952</v>
       </c>
       <c r="P70" t="n">
-        <v>-0.229959865137952</v>
+        <v>-0.1935514152297532</v>
       </c>
       <c r="Q70" t="n">
-        <v>-0.1935514152297532</v>
+        <v>-0.1609062663918568</v>
       </c>
       <c r="R70" t="n">
-        <v>-0.1609062663918568</v>
+        <v>0.9464237275874732</v>
       </c>
       <c r="S70" t="n">
-        <v>0.9464237275874732</v>
+        <v>-0.5960737250711409</v>
       </c>
       <c r="T70" t="n">
-        <v>-0.5960737250711409</v>
+        <v>1.935897609467291</v>
       </c>
       <c r="U70" t="n">
-        <v>1.935897609467291</v>
+        <v>1.593458176834365</v>
       </c>
       <c r="V70" t="n">
-        <v>1.593458176834365</v>
+        <v>0.4188114751279967</v>
       </c>
       <c r="W70" t="n">
-        <v>0.4188114751279967</v>
-      </c>
-      <c r="X70" t="n">
         <v>68</v>
       </c>
     </row>
@@ -5623,69 +5411,66 @@
         <v>-0.3399694484492768</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.832539886311674</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>-0.09656531376411788</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.09656531376411788</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="F71" t="n">
-        <v>0.4901960784313725</v>
+        <v>0.5227539790426117</v>
       </c>
       <c r="G71" t="n">
-        <v>0.5227539790426117</v>
+        <v>0.3986833460404453</v>
       </c>
       <c r="H71" t="n">
-        <v>0.3986833460404453</v>
+        <v>0.7566462460069591</v>
       </c>
       <c r="I71" t="n">
-        <v>0.7566462460069591</v>
+        <v>1.188910333042865</v>
       </c>
       <c r="J71" t="n">
-        <v>1.188910333042865</v>
+        <v>1.064135940878897</v>
       </c>
       <c r="K71" t="n">
-        <v>1.064135940878897</v>
+        <v>1.307737830584957</v>
       </c>
       <c r="L71" t="n">
-        <v>1.307737830584957</v>
+        <v>0.1914209239363831</v>
       </c>
       <c r="M71" t="n">
-        <v>0.1914209239363831</v>
+        <v>0.3471355496195248</v>
       </c>
       <c r="N71" t="n">
-        <v>0.3471355496195248</v>
+        <v>-0.06458962446442024</v>
       </c>
       <c r="O71" t="n">
-        <v>-0.06458962446442024</v>
+        <v>-0.2026339800995225</v>
       </c>
       <c r="P71" t="n">
-        <v>-0.2026339800995225</v>
+        <v>-0.2686930248892987</v>
       </c>
       <c r="Q71" t="n">
-        <v>-0.2686930248892987</v>
+        <v>1.21311054208404</v>
       </c>
       <c r="R71" t="n">
-        <v>1.21311054208404</v>
+        <v>0.08615428378039741</v>
       </c>
       <c r="S71" t="n">
-        <v>0.08615428378039741</v>
+        <v>-0.7438727609848281</v>
       </c>
       <c r="T71" t="n">
-        <v>-0.7438727609848281</v>
+        <v>-0.145848484567288</v>
       </c>
       <c r="U71" t="n">
-        <v>-0.145848484567288</v>
+        <v>-1.092573768131056</v>
       </c>
       <c r="V71" t="n">
-        <v>-1.092573768131056</v>
+        <v>-0.03026084581966954</v>
       </c>
       <c r="W71" t="n">
-        <v>-0.03026084581966954</v>
-      </c>
-      <c r="X71" t="n">
         <v>69</v>
       </c>
     </row>
@@ -5697,69 +5482,66 @@
         <v>-0.809740392244744</v>
       </c>
       <c r="C72" t="n">
-        <v>-1.254302178589569</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>3</v>
+        <v>-0.3810723414738679</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.3810723414738679</v>
+        <v>0.525</v>
       </c>
       <c r="F72" t="n">
-        <v>0.525</v>
+        <v>-0.08199494522981141</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.08199494522981141</v>
+        <v>0.2015685350868485</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2015685350868485</v>
+        <v>0.6015664867835191</v>
       </c>
       <c r="I72" t="n">
-        <v>0.6015664867835191</v>
+        <v>0.4039919441382562</v>
       </c>
       <c r="J72" t="n">
-        <v>0.4039919441382562</v>
+        <v>-0.1817009888299467</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.1817009888299467</v>
+        <v>-0.6579035762354573</v>
       </c>
       <c r="L72" t="n">
-        <v>-0.6579035762354573</v>
+        <v>0.8950572025806077</v>
       </c>
       <c r="M72" t="n">
-        <v>0.8950572025806077</v>
+        <v>-0.7454066304355168</v>
       </c>
       <c r="N72" t="n">
-        <v>-0.7454066304355168</v>
+        <v>-0.3211565841510412</v>
       </c>
       <c r="O72" t="n">
-        <v>-0.3211565841510412</v>
+        <v>-0.2097426262666054</v>
       </c>
       <c r="P72" t="n">
-        <v>-0.2097426262666054</v>
+        <v>0.3028916792618486</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.3028916792618486</v>
+        <v>0.738523539708637</v>
       </c>
       <c r="R72" t="n">
-        <v>0.738523539708637</v>
+        <v>-0.9561232882825005</v>
       </c>
       <c r="S72" t="n">
-        <v>-0.9561232882825005</v>
+        <v>0.1769557125861601</v>
       </c>
       <c r="T72" t="n">
-        <v>0.1769557125861601</v>
+        <v>-1.500235403939054</v>
       </c>
       <c r="U72" t="n">
-        <v>-1.500235403939054</v>
+        <v>-0.3256145992323871</v>
       </c>
       <c r="V72" t="n">
-        <v>-0.3256145992323871</v>
+        <v>-0.2855164956252325</v>
       </c>
       <c r="W72" t="n">
-        <v>-0.2855164956252325</v>
-      </c>
-      <c r="X72" t="n">
         <v>70</v>
       </c>
     </row>
@@ -5771,69 +5553,66 @@
         <v>-0.809740392244744</v>
       </c>
       <c r="C73" t="n">
-        <v>-1.113714747830271</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>-1.61846262729881</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.61846262729881</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7857142857142857</v>
+        <v>-0.08970148691119871</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.08970148691119871</v>
+        <v>0.3408350549255664</v>
       </c>
       <c r="H73" t="n">
-        <v>0.3408350549255664</v>
+        <v>-0.7789853897560137</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.7789853897560137</v>
+        <v>-0.8124465427227701</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.8124465427227701</v>
+        <v>-0.6801535462219127</v>
       </c>
       <c r="K73" t="n">
-        <v>-0.6801535462219127</v>
+        <v>-0.695284255894723</v>
       </c>
       <c r="L73" t="n">
-        <v>-0.695284255894723</v>
+        <v>0.3292026129512225</v>
       </c>
       <c r="M73" t="n">
-        <v>0.3292026129512225</v>
+        <v>0.473997283888929</v>
       </c>
       <c r="N73" t="n">
-        <v>0.473997283888929</v>
+        <v>-0.1905455663115374</v>
       </c>
       <c r="O73" t="n">
-        <v>-0.1905455663115374</v>
+        <v>-0.1616988651112632</v>
       </c>
       <c r="P73" t="n">
-        <v>-0.1616988651112632</v>
+        <v>-0.9534441620798977</v>
       </c>
       <c r="Q73" t="n">
-        <v>-0.9534441620798977</v>
+        <v>-0.9959612012551378</v>
       </c>
       <c r="R73" t="n">
-        <v>-0.9959612012551378</v>
+        <v>0.6960874632289172</v>
       </c>
       <c r="S73" t="n">
-        <v>0.6960874632289172</v>
+        <v>0.5710699619621709</v>
       </c>
       <c r="T73" t="n">
-        <v>0.5710699619621709</v>
+        <v>0.01090677112907898</v>
       </c>
       <c r="U73" t="n">
-        <v>0.01090677112907898</v>
+        <v>0.4481497427241686</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4481497427241686</v>
+        <v>0.05875111142495498</v>
       </c>
       <c r="W73" t="n">
-        <v>0.05875111142495498</v>
-      </c>
-      <c r="X73" t="n">
         <v>71</v>
       </c>
     </row>

--- a/data/bdi_df.xlsx
+++ b/data/bdi_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W73"/>
+  <dimension ref="A1:W72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,70 +552,70 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.875535105733151</v>
+        <v>1.887766971676689</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.044625864142478</v>
+        <v>-1.044103764157248</v>
       </c>
       <c r="C2" t="n">
         <v>-2</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.626742808547639</v>
+        <v>-1.698903987188134</v>
       </c>
       <c r="E2" t="n">
         <v>0.2285714285714286</v>
       </c>
       <c r="F2" t="n">
-        <v>1.079075810623373</v>
+        <v>1.06766926023147</v>
       </c>
       <c r="G2" t="n">
-        <v>2.185121720442071</v>
+        <v>2.238255592711399</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6634953473547206</v>
+        <v>-0.6619306766481157</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8461932470823021</v>
+        <v>-0.8328817153156179</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4812474201096446</v>
+        <v>0.4765417438786486</v>
       </c>
       <c r="K2" t="n">
-        <v>1.21326282270028</v>
+        <v>1.198993826520248</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6353196868566902</v>
+        <v>0.6321576410056706</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7867502168784561</v>
+        <v>0.7727481897665802</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.2337722786158035</v>
+        <v>-0.234860938937911</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.1516610358441694</v>
+        <v>-0.1541462424586113</v>
       </c>
       <c r="P2" t="n">
-        <v>0.48369714560705</v>
+        <v>0.4990452016236414</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.406372409363764</v>
+        <v>1.393959510080086</v>
       </c>
       <c r="R2" t="n">
-        <v>1.123218751745443</v>
+        <v>1.117720103762035</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3140627066783801</v>
+        <v>0.2913659640237752</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3038033815903971</v>
+        <v>0.3071447050319976</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.09785030339602621</v>
+        <v>-0.08565097885980326</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04897297432397765</v>
+        <v>0.03656960490674763</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -623,70 +623,70 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.591120739996269</v>
+        <v>1.603525233838018</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3399694484492768</v>
+        <v>-0.3178279713370118</v>
       </c>
       <c r="C3" t="n">
         <v>-3</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6881014621804309</v>
+        <v>-0.7361197951342583</v>
       </c>
       <c r="E3" t="n">
         <v>0.4666666666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6685758525266641</v>
+        <v>0.6597538776527656</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.325123279788957</v>
+        <v>-1.318990720990398</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.7503317174094464</v>
+        <v>-0.7481801835083864</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3936732698207331</v>
+        <v>-0.3758006874828811</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.4400697787640809</v>
+        <v>-0.4383238927109475</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7622408533798593</v>
+        <v>0.7489469503479788</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.8069904548352332</v>
+        <v>-0.8000463316177234</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8219978168512284</v>
+        <v>0.8083277693196437</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.21992073058939</v>
+        <v>-0.2211036765944176</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.1829794810188182</v>
+        <v>-0.1852571809199679</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.3525080752743974</v>
+        <v>-0.3373364436075063</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3721672217920332</v>
+        <v>0.3557999858214606</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1688774478956298</v>
+        <v>0.1701200032788893</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1848968462335928</v>
+        <v>0.1589331847271364</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.1368859221597664</v>
+        <v>-0.1307684190758845</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.008634179959720685</v>
+        <v>0.003366707886857616</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2801659319079046</v>
+        <v>0.2673126195303138</v>
       </c>
       <c r="W3" t="n">
         <v>1</v>
@@ -694,141 +694,141 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.91439918055434</v>
+        <v>1.926607457592532</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3399694484492768</v>
+        <v>-0.3178279713370118</v>
       </c>
       <c r="C4" t="n">
         <v>-3</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6881014621804309</v>
+        <v>-0.7361197951342583</v>
       </c>
       <c r="E4" t="n">
         <v>0.4666666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6685758525266641</v>
+        <v>0.6597538776527656</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.325123279788957</v>
+        <v>-1.318990720990398</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.7503317174094464</v>
+        <v>-0.7481801835083864</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3936732698207331</v>
+        <v>-0.3758006874828811</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.4400697787640809</v>
+        <v>-0.4383238927109475</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7622408533798593</v>
+        <v>0.7489469503479788</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.8069904548352332</v>
+        <v>-0.8000463316177234</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8219978168512284</v>
+        <v>0.8083277693196437</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.21992073058939</v>
+        <v>-0.2211036765944176</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1829794810188182</v>
+        <v>-0.1852571809199679</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.3525080752743974</v>
+        <v>-0.3373364436075063</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3721672217920332</v>
+        <v>0.3557999858214606</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1688774478956298</v>
+        <v>0.1701200032788893</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1848968462335928</v>
+        <v>0.1589331847271364</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.1368859221597664</v>
+        <v>-0.1307684190758845</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.008634179959720685</v>
+        <v>0.003366707886857616</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2801659319079046</v>
+        <v>0.2673126195303138</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.534591176619995</v>
+        <v>1.547029981596792</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.3399694484492768</v>
+        <v>-0.3178279713370118</v>
       </c>
       <c r="C5" t="n">
         <v>-18</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8579739806008415</v>
+        <v>0.8497223391309114</v>
       </c>
       <c r="E5" t="n">
         <v>0.5945945945945946</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.664756161661453</v>
+        <v>-0.6651832580139994</v>
       </c>
       <c r="G5" t="n">
-        <v>1.135553738306794</v>
+        <v>1.174634154554113</v>
       </c>
       <c r="H5" t="n">
-        <v>1.871738435581781</v>
+        <v>1.856169324721896</v>
       </c>
       <c r="I5" t="n">
-        <v>2.078291897786864</v>
+        <v>2.121079972713249</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7953954801632762</v>
+        <v>0.7884899689803744</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.4479650258279262</v>
+        <v>-0.4586425076188488</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.156636907311909</v>
+        <v>-0.1542497671700909</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.10168111352529</v>
+        <v>-1.133469334334341</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.3301523546999582</v>
+        <v>-0.3305849683999728</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.2233992627284797</v>
+        <v>-0.2254091531643835</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.515931867742584</v>
+        <v>-1.501005697693112</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9894482341130947</v>
+        <v>0.9754412038178347</v>
       </c>
       <c r="R5" t="n">
-        <v>-1.319023979132787</v>
+        <v>-1.307271299050228</v>
       </c>
       <c r="S5" t="n">
-        <v>-1.095072112192995</v>
+        <v>-1.15340930263093</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.6664883462613878</v>
+        <v>-0.6570345437579779</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.8118435895293252</v>
+        <v>-0.7980561836164221</v>
       </c>
       <c r="V5" t="n">
-        <v>-1.137887596879949</v>
+        <v>-1.147981122759885</v>
       </c>
       <c r="W5" t="n">
         <v>3</v>
@@ -836,70 +836,70 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.691814024760258</v>
+        <v>1.704157401892703</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5748549203470105</v>
+        <v>-0.5599199022770904</v>
       </c>
       <c r="C6" t="n">
         <v>-8</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3790850979741488</v>
+        <v>-0.4191552040311304</v>
       </c>
       <c r="E6" t="n">
         <v>0.5471698113207547</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4127257121502728</v>
+        <v>-0.414739633828255</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.696008115910737</v>
+        <v>-1.694841613453819</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2542244040082101</v>
+        <v>-0.2554256947652018</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.330550290617086</v>
+        <v>-1.322120702369078</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.7257777273846883</v>
+        <v>-0.7220311594514706</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.130831680305263</v>
+        <v>-1.14003282914308</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4423938195145406</v>
+        <v>0.4405835920947256</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.6362889349771538</v>
+        <v>-0.6636938587610289</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1519292074796524</v>
+        <v>-0.1535749629249647</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1527125563207623</v>
+        <v>-0.1551907958729238</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3983709130493598</v>
+        <v>0.4137009667565714</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1952852832044008</v>
+        <v>-0.2138222029916308</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.4510850551925392</v>
+        <v>-0.4454632559306312</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.7172003111196167</v>
+        <v>-0.7659802044028794</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.761043405540146</v>
+        <v>-0.7509939411306936</v>
       </c>
       <c r="U6" t="n">
-        <v>-1.202337569972903</v>
+        <v>-1.187681617772391</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.2177578892499355</v>
+        <v>-0.2296421525679561</v>
       </c>
       <c r="W6" t="n">
         <v>4</v>
@@ -907,70 +907,70 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.312006020825914</v>
+        <v>1.324579925896962</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.1050839765515433</v>
+        <v>-0.07573604039693323</v>
       </c>
       <c r="C7" t="n">
         <v>-9</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.489954214316991</v>
+        <v>-1.558597046003148</v>
       </c>
       <c r="E7" t="n">
         <v>0.9166666666666666</v>
       </c>
       <c r="F7" t="n">
-        <v>1.287431741814693</v>
+        <v>1.27471334807624</v>
       </c>
       <c r="G7" t="n">
-        <v>1.192523145571758</v>
+        <v>1.23236636811007</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7818766183666923</v>
+        <v>0.7736730824054626</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7839168925544333</v>
+        <v>0.8136586708451488</v>
       </c>
       <c r="J7" t="n">
-        <v>1.651061459185758</v>
+        <v>1.638164111136224</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.8998552753487181</v>
+        <v>-0.9095557868011708</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.224391634681598</v>
+        <v>-1.214522809785167</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.9777627603741733</v>
+        <v>-1.008383855963315</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2751599913556331</v>
+        <v>-0.2759669309088608</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2020273673895214</v>
+        <v>-0.2041788616545387</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1217124548466827</v>
+        <v>0.1369841385660507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2452959970945879</v>
+        <v>0.2284436624759315</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.7107426907823949</v>
+        <v>-0.7032867417041077</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4424567563951107</v>
+        <v>0.4230074116213449</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2119819067699697</v>
+        <v>0.2159016715464324</v>
       </c>
       <c r="U7" t="n">
-        <v>-1.188661140937705</v>
+        <v>-1.174035608186048</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2984686334432341</v>
+        <v>0.2855797007258307</v>
       </c>
       <c r="W7" t="n">
         <v>5</v>
@@ -978,70 +978,70 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.506326394931857</v>
+        <v>1.518782355476178</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.3399694484492768</v>
+        <v>-0.3178279713370118</v>
       </c>
       <c r="C8" t="n">
         <v>-7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7437074793670065</v>
+        <v>0.7325167829352203</v>
       </c>
       <c r="E8" t="n">
         <v>0.7647058823529411</v>
       </c>
       <c r="F8" t="n">
-        <v>1.11942530056132</v>
+        <v>1.107764703118253</v>
       </c>
       <c r="G8" t="n">
-        <v>1.252588876764866</v>
+        <v>1.293236364606732</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1827389715378367</v>
+        <v>0.1785845665238669</v>
       </c>
       <c r="I8" t="n">
-        <v>1.910776517371914</v>
+        <v>1.951876167123912</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.7887494489127433</v>
+        <v>-0.7845619188612956</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.3496321082242661</v>
+        <v>-0.3605221822184856</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.224795515319249</v>
+        <v>-1.214923860458659</v>
       </c>
       <c r="M8" t="n">
-        <v>-1.322885110784254</v>
+        <v>-1.356756741817703</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.4655379463198251</v>
+        <v>-0.4650490079348972</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.2525727332892089</v>
+        <v>-0.2543893289763591</v>
       </c>
       <c r="P8" t="n">
-        <v>0.845009867071418</v>
+        <v>0.8604341536117265</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.74916838948638</v>
+        <v>0.7342426368561841</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.3438946246373525</v>
+        <v>-0.3390299889692429</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3553596546078577</v>
+        <v>0.3337074122356816</v>
       </c>
       <c r="T8" t="n">
-        <v>1.359414245851009</v>
+        <v>1.356105611223301</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.07219323663537722</v>
+        <v>-0.06005097917624611</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.9555643302803263</v>
+        <v>-0.9660126899370945</v>
       </c>
       <c r="W8" t="n">
         <v>6</v>
@@ -1049,2170 +1049,2158 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.331438058236508</v>
+        <v>1.344000168854883</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.749282279835678</v>
+        <v>-1.770379556977483</v>
       </c>
       <c r="C9" t="n">
         <v>-5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1346173467031764</v>
+        <v>0.1077602094747134</v>
       </c>
       <c r="E9" t="n">
         <v>0.5111111111111111</v>
       </c>
       <c r="F9" t="n">
-        <v>1.077924359031284</v>
+        <v>1.066525058368733</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3271338173845101</v>
+        <v>0.3553896905823326</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.03729045951394976</v>
+        <v>-0.03995784734030786</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5421777492619493</v>
+        <v>-0.5258019769541764</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.627755604779295</v>
+        <v>-0.6246954408663045</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.5969981136343318</v>
+        <v>-0.6073533912918573</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7708998359296666</v>
+        <v>0.7667877891951612</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3045449016838162</v>
+        <v>0.2860012229906643</v>
       </c>
       <c r="N9" t="n">
-        <v>0.08072933972038245</v>
+        <v>0.07749990785362434</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.1948740044612376</v>
+        <v>-0.1970728947838164</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.2034837630272046</v>
+        <v>-0.1882806898950833</v>
       </c>
       <c r="Q9" t="n">
-        <v>-1.810075643106402</v>
+        <v>-1.834786796825679</v>
       </c>
       <c r="R9" t="n">
-        <v>1.465116856626656</v>
+        <v>1.457203134867876</v>
       </c>
       <c r="S9" t="n">
-        <v>1.527144719864637</v>
+        <v>1.535129772570457</v>
       </c>
       <c r="T9" t="n">
-        <v>0.05092462004248509</v>
+        <v>0.05585898616472357</v>
       </c>
       <c r="U9" t="n">
-        <v>-1.144196229146938</v>
+        <v>-1.129669596342525</v>
       </c>
       <c r="V9" t="n">
-        <v>0.9453785631024499</v>
+        <v>0.931230627637387</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.024058557378015</v>
+        <v>1.036807234793214</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5995724391416575</v>
+        <v>0.6505397524233025</v>
       </c>
       <c r="C10" t="n">
         <v>-1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3224118574266077</v>
+        <v>0.300384993135456</v>
       </c>
       <c r="E10" t="n">
         <v>0.5471698113207547</v>
       </c>
       <c r="F10" t="n">
-        <v>1.043234842945424</v>
+        <v>1.032053953204089</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1404880802322198</v>
+        <v>0.1662448131138251</v>
       </c>
       <c r="H10" t="n">
-        <v>2.573758725559054</v>
+        <v>2.553445175592735</v>
       </c>
       <c r="I10" t="n">
-        <v>1.416953051942236</v>
+        <v>1.453075343981357</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.858333840920537</v>
+        <v>-0.8536590432487839</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1649093135280855</v>
+        <v>0.1529068196321326</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.340455279866329</v>
+        <v>-1.329773204901802</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.05882006528440996</v>
+        <v>-0.0807860975369484</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.2870189258117014</v>
+        <v>-0.2877451431429968</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.1982004088682549</v>
+        <v>-0.2003772594234783</v>
       </c>
       <c r="P10" t="n">
-        <v>1.527148264298309</v>
+        <v>1.542716469843343</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02536660758489184</v>
+        <v>0.007673361642336063</v>
       </c>
       <c r="R10" t="n">
-        <v>-1.118201481442791</v>
+        <v>-1.107867356013656</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5315472428083172</v>
+        <v>0.5143512131797584</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.8242698178506096</v>
+        <v>-0.8138220504253656</v>
       </c>
       <c r="U10" t="n">
-        <v>-1.722240082426898</v>
+        <v>-1.706427750308322</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5264493160531403</v>
+        <v>0.5131166920386031</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.184814503229296</v>
+        <v>1.197465608354202</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.5748549203470105</v>
+        <v>-0.5599199022770904</v>
       </c>
       <c r="C11" t="n">
         <v>-13</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3555693832274754</v>
+        <v>-0.3950346402923069</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>0.7461233133046369</v>
+        <v>0.7368130868130296</v>
       </c>
       <c r="G11" t="n">
-        <v>0.706129978235412</v>
+        <v>0.7394605164093825</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7491637315611899</v>
+        <v>0.7411812779556416</v>
       </c>
       <c r="I11" t="n">
-        <v>2.806689299710189</v>
+        <v>2.856819055784408</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5069834338810334</v>
+        <v>0.5020975401353809</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6402215038673038</v>
+        <v>0.6271914022458754</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.3871627387440107</v>
+        <v>-0.3831603197798561</v>
       </c>
       <c r="M11" t="n">
-        <v>-1.143596509623214</v>
+        <v>-1.175779510661701</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.2129053597651071</v>
+        <v>-0.2141360584854156</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.1907100840477273</v>
+        <v>-0.1929365632699017</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.3667700102826169</v>
+        <v>-0.3516013876289997</v>
       </c>
       <c r="Q11" t="n">
-        <v>-3.212378376678569</v>
+        <v>-3.242451306969975</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.186600471363934</v>
+        <v>-0.1828469181474865</v>
       </c>
       <c r="S11" t="n">
-        <v>1.139624258460544</v>
+        <v>1.137807975918183</v>
       </c>
       <c r="T11" t="n">
-        <v>2.280653859624041</v>
+        <v>2.271541756113253</v>
       </c>
       <c r="U11" t="n">
-        <v>0.7311262913123578</v>
+        <v>0.7414817857771669</v>
       </c>
       <c r="V11" t="n">
-        <v>3.162365519241417</v>
+        <v>3.143902929538824</v>
       </c>
       <c r="W11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9622293474352153</v>
+        <v>0.9750155526543728</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.809740392244744</v>
+        <v>-0.8020118332171691</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08725470995987698</v>
+        <v>0.05917935574722429</v>
       </c>
       <c r="E12" t="n">
         <v>0.8181818181818182</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3295632593814081</v>
+        <v>-0.3321007855938224</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.5963143842139573</v>
+        <v>-0.5804232543302027</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.2086882412333626</v>
+        <v>-0.2101972774423168</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1976445934551239</v>
+        <v>0.2214772014571625</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.09550496922925221</v>
+        <v>-0.09617191269059069</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02369802720293284</v>
+        <v>0.0120008269891144</v>
       </c>
       <c r="L12" t="n">
-        <v>0.09220740599043882</v>
+        <v>0.09285091095333106</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.001332996858735328</v>
+        <v>-0.02275758705953489</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1915782094570568</v>
+        <v>-0.1929540793111404</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.1927436870117696</v>
+        <v>-0.1949566921848699</v>
       </c>
       <c r="P12" t="n">
-        <v>3.369856961870921</v>
+        <v>3.385813946002286</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.2911371220394349</v>
+        <v>-0.3100405362586853</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.804557113585733</v>
+        <v>-0.7964384853377475</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.9592038320409153</v>
+        <v>-1.014104583126617</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4602897603473198</v>
+        <v>0.4626452774729912</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.2531801809890301</v>
+        <v>-0.240635367929822</v>
       </c>
       <c r="V12" t="n">
-        <v>1.045373256890737</v>
+        <v>1.031030713817321</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.319072216247948</v>
+        <v>1.331641832427115</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.809740392244744</v>
+        <v>-0.8020118332171691</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08725470995987698</v>
+        <v>0.05917935574722429</v>
       </c>
       <c r="E13" t="n">
         <v>0.8181818181818182</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3295632593814081</v>
+        <v>-0.3321007855938224</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.5963143842139573</v>
+        <v>-0.5804232543302027</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.2086882412333626</v>
+        <v>-0.2101972774423168</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1976445934551239</v>
+        <v>0.2214772014571625</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.09550496922925221</v>
+        <v>-0.09617191269059069</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02369802720293284</v>
+        <v>0.0120008269891144</v>
       </c>
       <c r="L13" t="n">
-        <v>0.09220740599043882</v>
+        <v>0.09285091095333106</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.001332996858735328</v>
+        <v>-0.02275758705953489</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.1915782094570568</v>
+        <v>-0.1929540793111404</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.1927436870117696</v>
+        <v>-0.1949566921848699</v>
       </c>
       <c r="P13" t="n">
-        <v>3.369856961870921</v>
+        <v>3.385813946002286</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.2911371220394349</v>
+        <v>-0.3100405362586853</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.804557113585733</v>
+        <v>-0.7964384853377475</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.9592038320409153</v>
+        <v>-1.014104583126617</v>
       </c>
       <c r="T13" t="n">
-        <v>0.4602897603473198</v>
+        <v>0.4626452774729912</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.2531801809890301</v>
+        <v>-0.240635367929822</v>
       </c>
       <c r="V13" t="n">
-        <v>1.045373256890737</v>
+        <v>1.031030713817321</v>
       </c>
       <c r="W13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.163615916963193</v>
+        <v>1.176279888763742</v>
       </c>
       <c r="B14" t="n">
-        <v>1.773999798630325</v>
+        <v>1.860999407123695</v>
       </c>
       <c r="C14" t="n">
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>1.359090549779946</v>
+        <v>1.363728155142736</v>
       </c>
       <c r="E14" t="n">
         <v>0.4137931034482759</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3203790811432216</v>
+        <v>-0.3229744324583166</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2049542670375159</v>
+        <v>-0.183822921856494</v>
       </c>
       <c r="H14" t="n">
-        <v>1.872080048660594</v>
+        <v>1.856508629089017</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2693812955341301</v>
+        <v>-0.2502559464482947</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4017835376304157</v>
+        <v>0.3976343105656572</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.2851080903091489</v>
+        <v>-0.2961376628911091</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07832342751073848</v>
+        <v>0.07906421656656172</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001197591282846884</v>
+        <v>-0.02020316456923727</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.2741047714189454</v>
+        <v>-0.2749188937168145</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.1927256762776257</v>
+        <v>-0.1949388007844996</v>
       </c>
       <c r="P14" t="n">
-        <v>0.7973141443134089</v>
+        <v>0.8127283679090467</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.8224059382699889</v>
+        <v>0.807760213171557</v>
       </c>
       <c r="R14" t="n">
-        <v>2.75413729395753</v>
+        <v>2.737118287876689</v>
       </c>
       <c r="S14" t="n">
-        <v>1.295258660582876</v>
+        <v>1.29737875070539</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.4876807047294983</v>
+        <v>-0.479353324242872</v>
       </c>
       <c r="U14" t="n">
-        <v>1.367049406717538</v>
+        <v>1.375990465393959</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5905479420312167</v>
+        <v>0.5770905705943141</v>
       </c>
       <c r="W14" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.085887767320815</v>
+        <v>1.098598916932056</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3646869672439239</v>
+        <v>0.4084478214832239</v>
       </c>
       <c r="C15" t="n">
         <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.360783386835265</v>
+        <v>-1.426103808564541</v>
       </c>
       <c r="E15" t="n">
         <v>0.5471698113207547</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6187589916791962</v>
+        <v>-0.6194756938090119</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.6202904713918311</v>
+        <v>-0.6047203753929409</v>
       </c>
       <c r="H15" t="n">
-        <v>1.909623523663624</v>
+        <v>1.893798375341556</v>
       </c>
       <c r="I15" t="n">
-        <v>1.900686272710479</v>
+        <v>1.941684220618385</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7490162544148397</v>
+        <v>0.7424355157033207</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.5201324079466715</v>
+        <v>-0.5306538664735165</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.1507807497357855</v>
+        <v>-0.1484346432918147</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.7983553356358187</v>
+        <v>-0.8272866820899335</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.2782090830594185</v>
+        <v>-0.2789952678426358</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.1823450046544984</v>
+        <v>-0.1846269084075408</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.3487866622266366</v>
+        <v>-0.3336142454081338</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.5647138128049568</v>
+        <v>0.5490827886209123</v>
       </c>
       <c r="R15" t="n">
-        <v>1.857168028508961</v>
+        <v>1.846484965562559</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3131174716536633</v>
+        <v>0.2903968217056681</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.5502662891863367</v>
+        <v>-0.5415446426624121</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.4760663324394757</v>
+        <v>-0.4630257705362479</v>
       </c>
       <c r="V15" t="n">
-        <v>-1.248369057895823</v>
+        <v>-1.258247567037559</v>
       </c>
       <c r="W15" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.243110615461079</v>
+        <v>1.255726337227967</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3646869672439239</v>
+        <v>0.4084478214832239</v>
       </c>
       <c r="C16" t="n">
         <v>-5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4360159441605357</v>
+        <v>0.4169110968314614</v>
       </c>
       <c r="E16" t="n">
         <v>0.391304347826087</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04811908104233457</v>
+        <v>0.04320360445163596</v>
       </c>
       <c r="G16" t="n">
-        <v>1.233236829673652</v>
+        <v>1.273625198385208</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.3952935776794751</v>
+        <v>-0.3955414855872335</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.5565935305621837</v>
+        <v>-0.5403630581546079</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.5034471169068667</v>
+        <v>-0.5012574283881651</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.5925980047722087</v>
+        <v>-0.6029627953055904</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.6883998136346697</v>
+        <v>-0.6822866469744731</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.704229809388716</v>
+        <v>-0.7322746344137875</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.2216525119650676</v>
+        <v>-0.2228236699598769</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.2265555536902601</v>
+        <v>-0.2285445314799574</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.09936544353716624</v>
+        <v>-0.08414040330133729</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5423162731374118</v>
+        <v>0.5265996108093435</v>
       </c>
       <c r="R16" t="n">
-        <v>0.7459015690528235</v>
+        <v>0.7430681854271544</v>
       </c>
       <c r="S16" t="n">
-        <v>0.08227574862818422</v>
+        <v>0.05371654990151851</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.4132241966742447</v>
+        <v>-0.4053658646535996</v>
       </c>
       <c r="U16" t="n">
-        <v>1.336060514724326</v>
+        <v>1.345070499654277</v>
       </c>
       <c r="V16" t="n">
-        <v>1.362691878439684</v>
+        <v>1.347731776417027</v>
       </c>
       <c r="W16" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.147716977263616</v>
+        <v>1.160390599070897</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1298014953461903</v>
+        <v>0.1663558905431454</v>
       </c>
       <c r="C17" t="n">
         <v>-13.18716577540107</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.316401615341544</v>
+        <v>-1.380580491085635</v>
       </c>
       <c r="E17" t="n">
         <v>0.2448979591836735</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.304229296905977</v>
+        <v>-1.300630164809104</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.475925879397437</v>
+        <v>-1.471812530157167</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.238120837229983</v>
+        <v>-1.232672695226835</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.274915655044117</v>
+        <v>-1.265925312798257</v>
       </c>
       <c r="J17" t="n">
-        <v>2.866537218829407</v>
+        <v>2.845128450850041</v>
       </c>
       <c r="K17" t="n">
-        <v>2.418894278994074</v>
+        <v>2.402018751309602</v>
       </c>
       <c r="L17" t="n">
-        <v>2.219587217481146</v>
+        <v>2.205324316792143</v>
       </c>
       <c r="M17" t="n">
-        <v>3.274049082454212</v>
+        <v>3.283473683938058</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1027205154240363</v>
+        <v>-0.1047012280255611</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.07280192051444605</v>
+        <v>-0.07580962419871204</v>
       </c>
       <c r="P17" t="n">
-        <v>0.3699999407239278</v>
+        <v>0.3853240086632705</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.3844601991708613</v>
+        <v>-0.4037204389717946</v>
       </c>
       <c r="R17" t="n">
-        <v>2.688806158528787</v>
+        <v>2.672248633543151</v>
       </c>
       <c r="S17" t="n">
-        <v>0.7487706934448946</v>
+        <v>0.7370687733550727</v>
       </c>
       <c r="T17" t="n">
-        <v>1.197505513241307</v>
+        <v>1.19521684375356</v>
       </c>
       <c r="U17" t="n">
-        <v>2.284336976504068</v>
+        <v>2.291237781672607</v>
       </c>
       <c r="V17" t="n">
-        <v>0.3098780892839663</v>
+        <v>0.2969669517191889</v>
       </c>
       <c r="W17" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9498635054466548</v>
+        <v>0.7066631045085464</v>
       </c>
       <c r="B18" t="n">
-        <v>2.243770742425792</v>
+        <v>1.860999407123695</v>
       </c>
       <c r="C18" t="n">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.098713139730867</v>
+        <v>-0.9701911812757968</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3260869565217391</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.3295632593814081</v>
+        <v>-0.08922911109970783</v>
       </c>
       <c r="G18" t="n">
-        <v>1.672771883168434</v>
+        <v>-1.091070603686066</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.2086882412333626</v>
+        <v>-0.2933191963462301</v>
       </c>
       <c r="I18" t="n">
-        <v>1.535202116665097</v>
+        <v>-0.8957203509154453</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.09550496922925221</v>
+        <v>-0.09334940271145015</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.8286551038980101</v>
+        <v>2.454629061066977</v>
       </c>
       <c r="L18" t="n">
-        <v>0.09220740599043882</v>
+        <v>1.017661657851925</v>
       </c>
       <c r="M18" t="n">
-        <v>-1.50606959208641</v>
+        <v>1.288690235228687</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1915782094570568</v>
+        <v>-0.3533023559598452</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.2494475636839154</v>
+        <v>-0.1957524314522307</v>
       </c>
       <c r="P18" t="n">
-        <v>1.006024048382077</v>
+        <v>-0.00942852353717228</v>
       </c>
       <c r="Q18" t="n">
-        <v>-1.222850684016626</v>
+        <v>-0.1066282132964754</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1692421527967566</v>
+        <v>-0.4822617064524911</v>
       </c>
       <c r="S18" t="n">
-        <v>-2.062017098606913</v>
+        <v>0.1872532978513496</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3649056660792477</v>
+        <v>1.407449301887532</v>
       </c>
       <c r="U18" t="n">
-        <v>0.8285791069013321</v>
+        <v>-0.3143370042464027</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.85091211416699</v>
+        <v>1.164347442438728</v>
       </c>
       <c r="W18" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.693713921397911</v>
+        <v>0.9008655340877627</v>
       </c>
       <c r="B19" t="n">
-        <v>1.773999798630325</v>
+        <v>1.860999407123695</v>
       </c>
       <c r="C19" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.9163032573981466</v>
+        <v>-0.9701911812757968</v>
       </c>
       <c r="E19" t="n">
         <v>0.3953488372093023</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.08515273587418216</v>
+        <v>-0.08922911109970783</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.100214633700001</v>
+        <v>-1.091070603686066</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.2923757424418358</v>
+        <v>-0.2933191963462301</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.9084048380722211</v>
+        <v>-0.8957203509154453</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.09266255512627128</v>
+        <v>-0.09334940271145015</v>
       </c>
       <c r="K19" t="n">
-        <v>2.471618576771993</v>
+        <v>2.454629061066977</v>
       </c>
       <c r="L19" t="n">
-        <v>1.023543964814711</v>
+        <v>1.017661657851925</v>
       </c>
       <c r="M19" t="n">
-        <v>1.29787820253832</v>
+        <v>1.288690235228687</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.3530254363468345</v>
+        <v>-0.3533023559598452</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.1935447337770129</v>
+        <v>-0.1957524314522307</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.02466932331875099</v>
+        <v>-0.00942852353717228</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.08849959407978515</v>
+        <v>-0.1066282132964754</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.4881452889691915</v>
+        <v>-0.4822617064524911</v>
       </c>
       <c r="S19" t="n">
-        <v>0.2125183444684755</v>
+        <v>0.1872532978513496</v>
       </c>
       <c r="T19" t="n">
-        <v>1.411083433288309</v>
+        <v>1.407449301887532</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.3270461117201992</v>
+        <v>-0.3143370042464027</v>
       </c>
       <c r="V19" t="n">
-        <v>1.178949949713615</v>
+        <v>1.164347442438728</v>
       </c>
       <c r="W19" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.8880342955038547</v>
+        <v>0.7031321512434698</v>
       </c>
       <c r="B20" t="n">
-        <v>1.773999798630325</v>
+        <v>-1.044103764157248</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.9163032573981466</v>
+        <v>-0.3362619990695403</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3953488372093023</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.08515273587418216</v>
+        <v>1.042477374932508</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.100214633700001</v>
+        <v>1.556631560440277</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.2923757424418358</v>
+        <v>0.6509806843480413</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.9084048380722211</v>
+        <v>0.2466238144775388</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.09266255512627128</v>
+        <v>-0.3757363597151235</v>
       </c>
       <c r="K20" t="n">
-        <v>2.471618576771993</v>
+        <v>-0.7892715609108276</v>
       </c>
       <c r="L20" t="n">
-        <v>1.023543964814711</v>
+        <v>-1.217844424198647</v>
       </c>
       <c r="M20" t="n">
-        <v>1.29787820253832</v>
+        <v>-1.493608146335214</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.3530254363468345</v>
+        <v>-0.4248914209539689</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.1935447337770129</v>
+        <v>-0.2422874830583497</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.02466932331875099</v>
+        <v>-0.8101162980919679</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.08849959407978515</v>
+        <v>-1.292507053286656</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.4881452889691915</v>
+        <v>-0.3772876009188038</v>
       </c>
       <c r="S20" t="n">
-        <v>0.2125183444684755</v>
+        <v>0.1901783159465592</v>
       </c>
       <c r="T20" t="n">
-        <v>1.411083433288309</v>
+        <v>0.1403779090507413</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.3270461117201992</v>
+        <v>0.4323040806566281</v>
       </c>
       <c r="V20" t="n">
-        <v>1.178949949713615</v>
+        <v>-1.322096469276486</v>
       </c>
       <c r="W20" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.6901808236868938</v>
+        <v>0.9626572162266041</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.044625864142478</v>
+        <v>-1.044103764157248</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2982705289855816</v>
+        <v>-0.3362619990695403</v>
       </c>
       <c r="E21" t="n">
         <v>0.5849056603773585</v>
       </c>
       <c r="F21" t="n">
-        <v>1.053724308078342</v>
+        <v>1.042477374932508</v>
       </c>
       <c r="G21" t="n">
-        <v>1.512503874975215</v>
+        <v>1.556631560440277</v>
       </c>
       <c r="H21" t="n">
-        <v>0.658349390577711</v>
+        <v>0.6509806843480413</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2225402772819974</v>
+        <v>0.2466238144775388</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.377040883287054</v>
+        <v>-0.3757363597151235</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.7793104358851979</v>
+        <v>-0.7892715609108276</v>
       </c>
       <c r="L21" t="n">
-        <v>-1.22773668765375</v>
+        <v>-1.217844424198647</v>
       </c>
       <c r="M21" t="n">
-        <v>-1.458459606681576</v>
+        <v>-1.493608146335214</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.4251051384832946</v>
+        <v>-0.4248914209539689</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.2403901693216834</v>
+        <v>-0.2422874830583497</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.8251882027038067</v>
+        <v>-0.8101162980919679</v>
       </c>
       <c r="Q21" t="n">
-        <v>-1.26986143635082</v>
+        <v>-1.292507053286656</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.3824244002795338</v>
+        <v>-0.3772876009188038</v>
       </c>
       <c r="S21" t="n">
-        <v>0.2153712067363438</v>
+        <v>0.1901783159465592</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1359793563129081</v>
+        <v>0.1403779090507413</v>
       </c>
       <c r="U21" t="n">
-        <v>0.4212593725921592</v>
+        <v>0.4323040806566281</v>
       </c>
       <c r="V21" t="n">
-        <v>-1.312342463856503</v>
+        <v>-1.322096469276486</v>
       </c>
       <c r="W21" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9498635054466548</v>
+        <v>0.9997322255099091</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.044625864142478</v>
+        <v>1.13472361430346</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2982705289855816</v>
+        <v>-1.470268221044077</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5849056603773585</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="F22" t="n">
-        <v>1.053724308078342</v>
+        <v>-0.4892466389452934</v>
       </c>
       <c r="G22" t="n">
-        <v>1.512503874975215</v>
+        <v>-0.1892039926087088</v>
       </c>
       <c r="H22" t="n">
-        <v>0.658349390577711</v>
+        <v>-0.3952948238391042</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2225402772819974</v>
+        <v>-0.1495776127091251</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.377040883287054</v>
+        <v>0.1045411866808106</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.7793104358851979</v>
+        <v>0.08997014552543998</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.22773668765375</v>
+        <v>0.6485058634853418</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.458459606681576</v>
+        <v>0.5099922660746625</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.4251051384832946</v>
+        <v>-0.3411352746786832</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.2403901693216834</v>
-      </c>
-      <c r="P22" t="n">
-        <v>-0.8251882027038067</v>
-      </c>
+        <v>-0.2052884541343294</v>
+      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="n">
-        <v>-1.26986143635082</v>
+        <v>-0.01069394410211367</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.3824244002795338</v>
+        <v>-0.5361440159535747</v>
       </c>
       <c r="S22" t="n">
-        <v>0.2153712067363438</v>
+        <v>0.3145545989098402</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1359793563129081</v>
+        <v>-1.440045833393063</v>
       </c>
       <c r="U22" t="n">
-        <v>0.4212593725921592</v>
+        <v>-1.085468391378064</v>
       </c>
       <c r="V22" t="n">
-        <v>-1.312342463856503</v>
+        <v>-0.373482491124655</v>
       </c>
       <c r="W22" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.986961031412335</v>
+        <v>1.012090561937677</v>
       </c>
       <c r="B23" t="n">
-        <v>1.069343382937125</v>
+        <v>-0.07573604039693323</v>
       </c>
       <c r="C23" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.403840329329173</v>
+        <v>1.319903468913043</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.4877047979722063</v>
+        <v>4.400598884997042</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2102642385823862</v>
+        <v>1.684076201906734</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.3950452375831822</v>
+        <v>-0.8700517738202679</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1697075954236686</v>
+        <v>0.6464845564919307</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1066235435209512</v>
+        <v>-1.255423339549493</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1018362778045523</v>
+        <v>-0.9945059973736544</v>
       </c>
       <c r="L23" t="n">
-        <v>0.6517832685334503</v>
+        <v>-1.727592019836109</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5264459691861433</v>
+        <v>-1.204641858596943</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.3407749677216578</v>
+        <v>-0.04236296034179546</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.2031443607353728</v>
-      </c>
-      <c r="P23" t="inlineStr"/>
+        <v>-0.2304397905697525</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.621293816364143</v>
+      </c>
       <c r="Q23" t="n">
-        <v>0.007069262679068088</v>
+        <v>-0.08994714588789259</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.5424109158697007</v>
+        <v>0.9506945344860268</v>
       </c>
       <c r="S23" t="n">
-        <v>0.3366793125784166</v>
+        <v>0.3591552631020739</v>
       </c>
       <c r="T23" t="n">
-        <v>-1.454463588521528</v>
+        <v>-0.9881323141032077</v>
       </c>
       <c r="U23" t="n">
-        <v>-1.099896491619881</v>
+        <v>0.8321914920129575</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.3618787127775666</v>
+        <v>1.15540380644166</v>
       </c>
       <c r="W23" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.999326873400895</v>
+        <v>0.5919071233935547</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.1050839765515433</v>
+        <v>-1.044103764157248</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="D24" t="n">
-        <v>1.31636481453599</v>
+        <v>-1.609216257229693</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5178571428571429</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="F24" t="n">
-        <v>4.433123070759654</v>
+        <v>-1.061089561510352</v>
       </c>
       <c r="G24" t="n">
-        <v>1.638264611247741</v>
+        <v>-0.1802162682338601</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.873032552471905</v>
+        <v>1.468752369045632</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6184109498017094</v>
+        <v>-0.2136007018253431</v>
       </c>
       <c r="J24" t="n">
-        <v>-1.262931348216891</v>
+        <v>3.735823273340078</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.9849895431220156</v>
+        <v>3.179159309151896</v>
       </c>
       <c r="L24" t="n">
-        <v>-1.741081253752307</v>
+        <v>-0.8698827994833275</v>
       </c>
       <c r="M24" t="n">
-        <v>-1.172189553922096</v>
+        <v>-0.8832009072681158</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.03995501112924534</v>
+        <v>-0.04198654070562081</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.2284634539604249</v>
+        <v>-0.1708310919585114</v>
       </c>
       <c r="P24" t="n">
-        <v>1.605709035901019</v>
+        <v>3.249737304853124</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.07188206464902654</v>
+        <v>-1.896313340139791</v>
       </c>
       <c r="R24" t="n">
-        <v>0.9550049667554972</v>
+        <v>0.8940323708193357</v>
       </c>
       <c r="S24" t="n">
-        <v>0.3801797450045531</v>
+        <v>1.423031431845489</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.999685133144452</v>
+        <v>2.145097347337137</v>
       </c>
       <c r="U24" t="n">
-        <v>0.822038206058411</v>
+        <v>1.072348076182279</v>
       </c>
       <c r="V24" t="n">
-        <v>1.169988873855741</v>
+        <v>0.6779183706150301</v>
       </c>
       <c r="W24" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.578888245789853</v>
+        <v>0.715490487671238</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.044625864142478</v>
+        <v>-0.3178279713370118</v>
       </c>
       <c r="C25" t="n">
-        <v>-21</v>
+        <v>-6</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.539304094560009</v>
+        <v>-0.9756268012732782</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1578947368421053</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.063170950454368</v>
+        <v>-0.6779614856333762</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2013952675390412</v>
+        <v>-0.183822921856494</v>
       </c>
       <c r="H25" t="n">
-        <v>1.481685398141449</v>
+        <v>-0.7766715842641883</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.2330918206855587</v>
+        <v>-0.2502559464482947</v>
       </c>
       <c r="J25" t="n">
-        <v>3.763513152876838</v>
+        <v>-0.5253835427202275</v>
       </c>
       <c r="K25" t="n">
-        <v>3.197718626844086</v>
+        <v>-0.2961376628911091</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.8773197150438903</v>
+        <v>-0.1185893925214503</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.8537478463575591</v>
+        <v>-0.02020316456923727</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.03957601169328385</v>
+        <v>-0.1514746840841769</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.168457171549267</v>
+        <v>-0.1949388007844996</v>
       </c>
       <c r="P25" t="n">
-        <v>3.233809024403937</v>
+        <v>-1.889772757011367</v>
       </c>
       <c r="Q25" t="n">
-        <v>-1.87136783258398</v>
+        <v>-0.4120851529711916</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8979397098765135</v>
+        <v>-0.1689583002318458</v>
       </c>
       <c r="S25" t="n">
-        <v>1.417811677765286</v>
+        <v>0.8742007319730187</v>
       </c>
       <c r="T25" t="n">
-        <v>2.15340784803175</v>
+        <v>1.156252641831784</v>
       </c>
       <c r="U25" t="n">
-        <v>1.062730143136808</v>
+        <v>-0.8286663124234677</v>
       </c>
       <c r="V25" t="n">
-        <v>0.6915723536759163</v>
+        <v>1.651467708613488</v>
       </c>
       <c r="W25" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7025466656754538</v>
+        <v>0.2529356099461954</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.3399694484492768</v>
+        <v>0.8926316833633812</v>
       </c>
       <c r="C26" t="n">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.9216025733973968</v>
+        <v>-0.1059276016762702</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0.6875</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.6776153528720036</v>
+        <v>-0.6545972009084573</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.2049542670375159</v>
+        <v>-1.202607319043523</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.779016980774679</v>
+        <v>0.1999983558049135</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2693812955341301</v>
+        <v>-0.4941549899363898</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.5277433667463327</v>
+        <v>0.165396659616833</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.2851080903091489</v>
+        <v>-0.1413944689537988</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.1207248996681538</v>
+        <v>1.167931358289295</v>
       </c>
       <c r="M26" t="n">
-        <v>0.001197591282846884</v>
+        <v>1.796724223106994</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.1498145343342507</v>
+        <v>-0.2389028119273675</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.1927256762776257</v>
+        <v>-0.2162900592139152</v>
       </c>
       <c r="P26" t="n">
-        <v>-1.904616921464451</v>
+        <v>-0.4024547326775915</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.3927930520789036</v>
+        <v>-0.8921130821430916</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.1726130501685093</v>
+        <v>1.388462984136817</v>
       </c>
       <c r="S26" t="n">
-        <v>0.8825198114762453</v>
+        <v>1.02478347715906</v>
       </c>
       <c r="T26" t="n">
-        <v>1.158294295146236</v>
+        <v>-0.06818077458395551</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.8425219539067621</v>
+        <v>0.6066477866512356</v>
       </c>
       <c r="V26" t="n">
-        <v>1.667020087913632</v>
+        <v>0.739201475641682</v>
       </c>
       <c r="W26" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.2397108655322057</v>
+        <v>0.1452415353613574</v>
       </c>
       <c r="B27" t="n">
-        <v>0.834457911039391</v>
+        <v>-1.528287626037405</v>
       </c>
       <c r="C27" t="n">
-        <v>-12</v>
+        <v>-17</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.07371201351735053</v>
+        <v>0.1933712244350432</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6875</v>
+        <v>0.875</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.6541030306842315</v>
+        <v>0.1716542873656901</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.210277632688192</v>
+        <v>0.0123564102630375</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2042984655914709</v>
+        <v>0.02617329791600624</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.5108465563800463</v>
+        <v>0.3506357505252145</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1679081645835122</v>
+        <v>-0.9308339875179671</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.1300296223456865</v>
+        <v>-0.5527813799078067</v>
       </c>
       <c r="L27" t="n">
-        <v>1.174874024689373</v>
+        <v>-0.6637473790532199</v>
       </c>
       <c r="M27" t="n">
-        <v>1.801171917704354</v>
+        <v>-0.557928425566424</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.237841852665658</v>
+        <v>-0.1656336370086665</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.2142193453728861</v>
+        <v>-0.2180862984845122</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.4176126284478757</v>
+        <v>-0.2117122543786763</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.8709925608522969</v>
+        <v>-0.4887455366706354</v>
       </c>
       <c r="R27" t="n">
-        <v>1.395887690186021</v>
+        <v>1.069280346117645</v>
       </c>
       <c r="S27" t="n">
-        <v>1.029387905262349</v>
+        <v>0.5224736601716111</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.0739014990948024</v>
+        <v>0.5028118034084853</v>
       </c>
       <c r="U27" t="n">
-        <v>0.5959917225646362</v>
+        <v>0.8651968185238896</v>
       </c>
       <c r="V27" t="n">
-        <v>0.7529749591855656</v>
+        <v>0.7575146364606031</v>
       </c>
       <c r="W27" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.1319513853461826</v>
+        <v>0.4806820955436401</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.514396807937945</v>
+        <v>-1.528287626037405</v>
       </c>
       <c r="C28" t="n">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2180815736913679</v>
+        <v>0.1933712244350432</v>
       </c>
       <c r="E28" t="n">
         <v>0.875</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1773836349318637</v>
+        <v>0.1716542873656901</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.01136702033245791</v>
+        <v>0.0123564102630375</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02929065857781452</v>
+        <v>0.02617329791600624</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3255143148577808</v>
+        <v>0.3506357505252145</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.9360530169761309</v>
+        <v>-0.9308339875179671</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.5423078639129018</v>
+        <v>-0.5527813799078067</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.6697297256768853</v>
+        <v>-0.6637473790532199</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.5315103589787925</v>
+        <v>-0.557928425566424</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.1640705259363919</v>
+        <v>-0.1656336370086665</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.2160275653719909</v>
+        <v>-0.2180862984845122</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.2269103849124635</v>
+        <v>-0.2117122543786763</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.4691614373324336</v>
+        <v>-0.4887455366706354</v>
       </c>
       <c r="R28" t="n">
-        <v>1.074434394879138</v>
+        <v>1.069280346117645</v>
       </c>
       <c r="S28" t="n">
-        <v>0.5394693211652914</v>
+        <v>0.5224736601716111</v>
       </c>
       <c r="T28" t="n">
-        <v>0.5007109246698923</v>
+        <v>0.5028118034084853</v>
       </c>
       <c r="U28" t="n">
-        <v>0.8551171074730823</v>
+        <v>0.8651968185238896</v>
       </c>
       <c r="V28" t="n">
-        <v>0.771323830198383</v>
+        <v>0.7575146364606031</v>
       </c>
       <c r="W28" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4675956678928126</v>
+        <v>0.5036332917666381</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.514396807937945</v>
+        <v>-1.528287626037405</v>
       </c>
       <c r="C29" t="n">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2180815736913679</v>
+        <v>0.1933712244350432</v>
       </c>
       <c r="E29" t="n">
         <v>0.875</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1773836349318637</v>
+        <v>0.1716542873656901</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01136702033245791</v>
+        <v>0.0123564102630375</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02929065857781452</v>
+        <v>0.02617329791600624</v>
       </c>
       <c r="I29" t="n">
-        <v>0.3255143148577808</v>
+        <v>0.3506357505252145</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.9360530169761309</v>
+        <v>-0.9308339875179671</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.5423078639129018</v>
+        <v>-0.5527813799078067</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.6697297256768853</v>
+        <v>-0.6637473790532199</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.5315103589787925</v>
+        <v>-0.557928425566424</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.1640705259363919</v>
+        <v>-0.1656336370086665</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.2160275653719909</v>
+        <v>-0.2180862984845122</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.2269103849124635</v>
+        <v>-0.2117122543786763</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.4691614373324336</v>
+        <v>-0.4887455366706354</v>
       </c>
       <c r="R29" t="n">
-        <v>1.074434394879138</v>
+        <v>1.069280346117645</v>
       </c>
       <c r="S29" t="n">
-        <v>0.5394693211652914</v>
+        <v>0.5224736601716111</v>
       </c>
       <c r="T29" t="n">
-        <v>0.5007109246698923</v>
+        <v>0.5028118034084853</v>
       </c>
       <c r="U29" t="n">
-        <v>0.8551171074730823</v>
+        <v>0.8651968185238896</v>
       </c>
       <c r="V29" t="n">
-        <v>0.771323830198383</v>
+        <v>0.7575146364606031</v>
       </c>
       <c r="W29" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4905608030144239</v>
+        <v>0.02165817108367414</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.514396807937945</v>
+        <v>0.8926316833633812</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2180815736913679</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.875</v>
-      </c>
+        <v>1.154796511489548</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>0.1773836349318637</v>
+        <v>-0.9169600353368265</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.01136702033245791</v>
+        <v>-0.5054100453281297</v>
       </c>
       <c r="H30" t="n">
-        <v>0.02929065857781452</v>
+        <v>-1.271970999739139</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3255143148577808</v>
+        <v>-1.300597465864515</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.9360530169761309</v>
+        <v>0.2640174114681298</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.5423078639129018</v>
+        <v>-0.3264045981560176</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.6697297256768853</v>
+        <v>0.4775836877584501</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.5315103589787925</v>
+        <v>-0.1747086993109839</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.1640705259363919</v>
+        <v>-0.1568717768742483</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.2160275653719909</v>
+        <v>-0.08840839615912849</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.2269103849124635</v>
+        <v>-0.2465045773997687</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.4691614373324336</v>
+        <v>0.5012153777962822</v>
       </c>
       <c r="R30" t="n">
-        <v>1.074434394879138</v>
+        <v>0.6635068420666437</v>
       </c>
       <c r="S30" t="n">
-        <v>0.5394693211652914</v>
+        <v>-0.06725844699012888</v>
       </c>
       <c r="T30" t="n">
-        <v>0.5007109246698923</v>
+        <v>-0.7209091224763021</v>
       </c>
       <c r="U30" t="n">
-        <v>0.8551171074730823</v>
+        <v>-0.02223329179669953</v>
       </c>
       <c r="V30" t="n">
-        <v>0.771323830198383</v>
+        <v>-0.4857931950588022</v>
       </c>
       <c r="W30" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.008292965460581763</v>
+        <v>0.3553332546334187</v>
       </c>
       <c r="B31" t="n">
-        <v>0.834457911039391</v>
+        <v>0.8926316833633812</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="D31" t="n">
-        <v>1.155398091058763</v>
+        <v>1.154796511489548</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>-0.9181282112452988</v>
+        <v>-0.9169600353368265</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.5222923124680182</v>
+        <v>-0.5054100453281297</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.277686537225025</v>
+        <v>-1.271970999739139</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.309241826908099</v>
+        <v>-1.300597465864515</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2672243824110458</v>
+        <v>0.2640174114681298</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.3154406033677383</v>
+        <v>-0.3264045981560176</v>
       </c>
       <c r="L31" t="n">
-        <v>0.4796550017479695</v>
+        <v>0.4775836877584501</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.1518663108364642</v>
+        <v>-0.1747086993109839</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.155248616211743</v>
+        <v>-0.1568717768742483</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.08548472496923007</v>
+        <v>-0.08840839615912849</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.2616953689239082</v>
+        <v>-0.2465045773997687</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.5170287283514743</v>
+        <v>0.5012153777962822</v>
       </c>
       <c r="R31" t="n">
-        <v>0.6657742282895635</v>
+        <v>0.6635068420666437</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.03571497578917828</v>
+        <v>-0.06725844699012888</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.7307678621586521</v>
+        <v>-0.7209091224763021</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.03429124672036968</v>
+        <v>-0.02223329179669953</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.474408419703812</v>
+        <v>-0.4857931950588022</v>
       </c>
       <c r="W31" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.3421706991517036</v>
+        <v>0.02165817108367414</v>
       </c>
       <c r="B32" t="n">
-        <v>0.834457911039391</v>
+        <v>0.8926316833633812</v>
       </c>
       <c r="C32" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>1.155398091058763</v>
+        <v>1.154796511489548</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>-0.9181282112452988</v>
+        <v>-0.9169600353368265</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.5222923124680182</v>
+        <v>-0.5054100453281297</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.277686537225025</v>
+        <v>-1.271970999739139</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.309241826908099</v>
+        <v>-1.300597465864515</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2672243824110458</v>
+        <v>0.2640174114681298</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.3154406033677383</v>
+        <v>-0.3264045981560176</v>
       </c>
       <c r="L32" t="n">
-        <v>0.4796550017479695</v>
+        <v>0.4775836877584501</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.1518663108364642</v>
+        <v>-0.1747086993109839</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.155248616211743</v>
+        <v>-0.1568717768742483</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.08548472496923007</v>
+        <v>-0.08840839615912849</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.2616953689239082</v>
+        <v>-0.2465045773997687</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.5170287283514743</v>
+        <v>0.5012153777962822</v>
       </c>
       <c r="R32" t="n">
-        <v>0.6657742282895635</v>
+        <v>0.6635068420666437</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.03571497578917828</v>
+        <v>-0.06725844699012888</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.7307678621586521</v>
+        <v>-0.7209091224763021</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.03429124672036968</v>
+        <v>-0.02223329179669953</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.474408419703812</v>
+        <v>-0.4857931950588022</v>
       </c>
       <c r="W32" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.008292965460581763</v>
+        <v>0.3553332546334187</v>
       </c>
       <c r="B33" t="n">
-        <v>0.834457911039391</v>
+        <v>0.8926316833633812</v>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="D33" t="n">
-        <v>1.155398091058763</v>
+        <v>1.154796511489548</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>-0.9181282112452988</v>
+        <v>-0.9169600353368265</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.5222923124680182</v>
+        <v>-0.5054100453281297</v>
       </c>
       <c r="H33" t="n">
-        <v>-1.277686537225025</v>
+        <v>-1.271970999739139</v>
       </c>
       <c r="I33" t="n">
-        <v>-1.309241826908099</v>
+        <v>-1.300597465864515</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2672243824110458</v>
+        <v>0.2640174114681298</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.3154406033677383</v>
+        <v>-0.3264045981560176</v>
       </c>
       <c r="L33" t="n">
-        <v>0.4796550017479695</v>
+        <v>0.4775836877584501</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.1518663108364642</v>
+        <v>-0.1747086993109839</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.155248616211743</v>
+        <v>-0.1568717768742483</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.08548472496923007</v>
+        <v>-0.08840839615912849</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.2616953689239082</v>
+        <v>-0.2465045773997687</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.5170287283514743</v>
+        <v>0.5012153777962822</v>
       </c>
       <c r="R33" t="n">
-        <v>0.6657742282895635</v>
+        <v>0.6635068420666437</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.03571497578917828</v>
+        <v>-0.06725844699012888</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.7307678621586521</v>
+        <v>-0.7209091224763021</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.03429124672036968</v>
+        <v>-0.02223329179669953</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.474408419703812</v>
+        <v>-0.4857931950588022</v>
       </c>
       <c r="W33" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.3421706991517036</v>
+        <v>-0.1125180529892387</v>
       </c>
       <c r="B34" t="n">
-        <v>0.834457911039391</v>
+        <v>-0.3178279713370118</v>
       </c>
       <c r="C34" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D34" t="n">
-        <v>1.155398091058763</v>
-      </c>
-      <c r="E34" t="inlineStr"/>
+        <v>-0.3566455740600954</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.1724137931034483</v>
+      </c>
       <c r="F34" t="n">
-        <v>-0.9181282112452988</v>
+        <v>0.425857420495408</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.5222923124680182</v>
+        <v>-0.183822921856494</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.277686537225025</v>
+        <v>0.4223610689125145</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.309241826908099</v>
+        <v>-0.2502559464482947</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2672243824110458</v>
+        <v>-0.2504124658266466</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.3154406033677383</v>
+        <v>-0.2961376628911091</v>
       </c>
       <c r="L34" t="n">
-        <v>0.4796550017479695</v>
+        <v>-0.4895545823594905</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.1518663108364642</v>
+        <v>-0.02020316456923727</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.155248616211743</v>
+        <v>-0.3835488749289663</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.08548472496923007</v>
+        <v>-0.1949388007844996</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.2616953689239082</v>
+        <v>-0.5104158538167368</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.5170287283514743</v>
+        <v>0.7675564183357783</v>
       </c>
       <c r="R34" t="n">
-        <v>0.6657742282895635</v>
+        <v>-0.6872253642107495</v>
       </c>
       <c r="S34" t="n">
-        <v>-0.03571497578917828</v>
+        <v>-0.373595961392273</v>
       </c>
       <c r="T34" t="n">
-        <v>-0.7307678621586521</v>
+        <v>-0.4675527344742887</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.03429124672036968</v>
+        <v>-1.137887968242514</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.474408419703812</v>
+        <v>-0.4431039134591123</v>
       </c>
       <c r="W34" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.1259647475580701</v>
+        <v>-0.3102514358335319</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.3399694484492768</v>
+        <v>-1.044103764157248</v>
       </c>
       <c r="C35" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.3181429639827704</v>
+        <v>-2.140208385733647</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1724137931034483</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="F35" t="n">
-        <v>0.433197413853691</v>
+        <v>-0.5536265596126866</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.2049542670375159</v>
+        <v>-0.3817058060450056</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4281741901572527</v>
+        <v>1.456355388180487</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.2693812955341301</v>
+        <v>0.8583663572581905</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.25083321491326</v>
+        <v>-0.03768853985518179</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.2851080903091489</v>
+        <v>-0.1303864534533049</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.4943077591948035</v>
+        <v>1.030191083889702</v>
       </c>
       <c r="M35" t="n">
-        <v>0.001197591282846884</v>
+        <v>1.062271310503954</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.3834792504612945</v>
+        <v>4.285981455862109</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.1927256762776257</v>
+        <v>0.7421919314597093</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.525550976525586</v>
+        <v>-0.5944278076106936</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7823552791875859</v>
+        <v>2.079089634121703</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.6945670530520694</v>
+        <v>-0.6692361930011241</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.3344956012840222</v>
+        <v>-1.237711178811844</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.4758053043300411</v>
+        <v>-0.327949557325803</v>
       </c>
       <c r="U35" t="n">
-        <v>-1.152432921299606</v>
+        <v>-0.8631658835763797</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.4316358950999082</v>
+        <v>-0.6495490044228263</v>
       </c>
       <c r="W35" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.3238182193750312</v>
+        <v>-0.06308470727816554</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.044625864142478</v>
+        <v>-2.012471487917562</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.056981026236772</v>
+        <v>1.369163775140217</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5524926335501776</v>
+        <v>0.1877506285473566</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.4002225570568188</v>
+        <v>-1.125331243696459</v>
       </c>
       <c r="H36" t="n">
-        <v>1.469204065121064</v>
+        <v>0.01870927290901999</v>
       </c>
       <c r="I36" t="n">
-        <v>0.8281784567129229</v>
+        <v>-0.08596873192753893</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.03660917613523559</v>
+        <v>-0.7307105472512713</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.1189977563508162</v>
+        <v>0.7640265567888382</v>
       </c>
       <c r="L36" t="n">
-        <v>1.036161803187805</v>
+        <v>-0.8053917189181716</v>
       </c>
       <c r="M36" t="n">
-        <v>1.073571907039236</v>
+        <v>1.542584223646699</v>
       </c>
       <c r="N36" t="n">
-        <v>4.318053803339787</v>
+        <v>-0.3834890984417</v>
       </c>
       <c r="O36" t="n">
-        <v>0.7506556201665229</v>
+        <v>-0.08520787912341742</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.6095452090383554</v>
+        <v>-0.2862387394294533</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.088892881303284</v>
+        <v>1.206195964801476</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.6764499073292922</v>
+        <v>0.03278881702849912</v>
       </c>
       <c r="S36" t="n">
-        <v>-1.177294387009318</v>
+        <v>0.6680426429779981</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.3353171034700899</v>
+        <v>0.6949387322019343</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.8770984309077583</v>
+        <v>0.7808596405503181</v>
       </c>
       <c r="V36" t="n">
-        <v>-0.6384835486960456</v>
+        <v>0.2768427234616164</v>
       </c>
       <c r="W36" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.0765013796038299</v>
+        <v>-0.01365136156709232</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.984167751733412</v>
+        <v>-0.07573604039693323</v>
       </c>
       <c r="C37" t="n">
-        <v>-5</v>
+        <v>-15.18716577540107</v>
       </c>
       <c r="D37" t="n">
-        <v>1.364389865779197</v>
+        <v>1.065788234030793</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1896551724137931</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1935819634646436</v>
+        <v>-0.8782448934561876</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.134022593480005</v>
+        <v>-0.9528275030608305</v>
       </c>
       <c r="H37" t="n">
-        <v>0.02177584647976478</v>
+        <v>-0.4620286197114413</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.106733445257343</v>
+        <v>-0.8424390154051156</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.7345183215614027</v>
+        <v>0.8796831779790926</v>
       </c>
       <c r="K37" t="n">
-        <v>0.7773531320193181</v>
+        <v>0.3319010363638913</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.8123735611958347</v>
+        <v>1.110158959974852</v>
       </c>
       <c r="M37" t="n">
-        <v>1.549403202318122</v>
+        <v>1.212381978646868</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.3834190642946325</v>
+        <v>0.2703731926210961</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.08226286081884611</v>
+        <v>-0.1288523390786777</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.3014211495242095</v>
+        <v>0.6302619627317618</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.219324053088584</v>
+        <v>1.792025384424453</v>
       </c>
       <c r="R37" t="n">
-        <v>0.03056929102796382</v>
+        <v>-1.432141070075479</v>
       </c>
       <c r="S37" t="n">
-        <v>0.6814473346006451</v>
+        <v>-2.271223432258295</v>
       </c>
       <c r="T37" t="n">
-        <v>0.6940558550236668</v>
+        <v>0.02259468845183115</v>
       </c>
       <c r="U37" t="n">
-        <v>0.7705919265191742</v>
+        <v>-0.7238930880384673</v>
       </c>
       <c r="V37" t="n">
-        <v>0.2897146192974427</v>
+        <v>-1.257552879013233</v>
       </c>
       <c r="W37" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.02703801164958969</v>
+        <v>-0.3473264451168366</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.1050839765515433</v>
+        <v>2.587275199943931</v>
       </c>
       <c r="C38" t="n">
-        <v>-15.18716577540107</v>
+        <v>8</v>
       </c>
       <c r="D38" t="n">
-        <v>1.06862179157104</v>
+        <v>1.138149925247262</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3829787234042553</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.8791677679807106</v>
+        <v>-0.3580835375333844</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.9637981165426104</v>
+        <v>-0.183822921856494</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.4622331068763355</v>
+        <v>-1.167951486779788</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.8556551782407402</v>
+        <v>-0.2502559464482947</v>
       </c>
       <c r="J38" t="n">
-        <v>0.8872317766758483</v>
+        <v>-0.9584588758143487</v>
       </c>
       <c r="K38" t="n">
-        <v>0.3442913477151689</v>
+        <v>-0.2961376628911091</v>
       </c>
       <c r="L38" t="n">
-        <v>1.116693962637068</v>
+        <v>-1.11775674726025</v>
       </c>
       <c r="M38" t="n">
-        <v>1.222281949395299</v>
+        <v>-0.02020316456923727</v>
       </c>
       <c r="N38" t="n">
-        <v>0.2749244855469294</v>
+        <v>-0.1797550134310581</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.126198424767963</v>
+        <v>-0.1949388007844996</v>
       </c>
       <c r="P38" t="n">
-        <v>0.6148862281644989</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.802922055754778</v>
-      </c>
-      <c r="R38" t="n">
-        <v>-1.444782070579703</v>
-      </c>
-      <c r="S38" t="n">
-        <v>-2.185311436909214</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0.01744944108159753</v>
-      </c>
-      <c r="U38" t="n">
-        <v>-0.7375151708597677</v>
-      </c>
-      <c r="V38" t="n">
-        <v>-1.247673015247667</v>
-      </c>
+        <v>-0.487881284716916</v>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
       <c r="W38" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.3609157453407112</v>
+        <v>-0.01365136156709232</v>
       </c>
       <c r="B39" t="n">
-        <v>2.478656214323526</v>
+        <v>2.587275199943931</v>
       </c>
       <c r="C39" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>1.139168935811059</v>
+        <v>1.138149925247262</v>
       </c>
       <c r="E39" t="n">
         <v>0.5344827586206896</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.3557106395439336</v>
+        <v>-0.3580835375333844</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2049542670375159</v>
+        <v>-0.183822921856494</v>
       </c>
       <c r="H39" t="n">
-        <v>-1.172959249509814</v>
+        <v>-1.167951486779788</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.2693812955341301</v>
+        <v>-0.2502559464482947</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.9638727138654996</v>
+        <v>-0.9584588758143487</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.2851080903091489</v>
+        <v>-0.2961376628911091</v>
       </c>
       <c r="L39" t="n">
-        <v>-1.126942754480801</v>
+        <v>-1.11775674726025</v>
       </c>
       <c r="M39" t="n">
-        <v>0.001197591282846884</v>
+        <v>-0.02020316456923727</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.1782886835050984</v>
+        <v>-0.1797550134310581</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.1927256762776257</v>
+        <v>-0.1949388007844996</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.5030211608140324</v>
+        <v>-0.487881284716916</v>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
@@ -3221,2399 +3209,2340 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.02703801164958969</v>
+        <v>-0.5962586503047413</v>
       </c>
       <c r="B40" t="n">
-        <v>2.478656214323526</v>
+        <v>0.7017761399238484</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>9.211640211640212</v>
       </c>
       <c r="D40" t="n">
-        <v>1.139168935811059</v>
+        <v>1.168385561483252</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5344827586206896</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.3557106395439336</v>
+        <v>-0.03128323722890392</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.2049542670375159</v>
+        <v>0.4534154195428091</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.172959249509814</v>
+        <v>-0.685636500876417</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.2693812955341301</v>
+        <v>-0.21637522414358</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.9638727138654996</v>
+        <v>-0.6315338595252173</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.2851080903091489</v>
+        <v>-0.4986150768993214</v>
       </c>
       <c r="L40" t="n">
-        <v>-1.126942754480801</v>
+        <v>-0.04667359422869025</v>
       </c>
       <c r="M40" t="n">
-        <v>0.001197591282846884</v>
+        <v>0.1883648467966052</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.1782886835050984</v>
+        <v>-0.1356047191638993</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.1927256762776257</v>
+        <v>-0.1362475809809647</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.5030211608140324</v>
-      </c>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
+        <v>-0.8704849279747715</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-0.5895813779649733</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-0.3302111412714516</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-0.09949812539424054</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.04049595710053633</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.364781402390106</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.2195978690678329</v>
+      </c>
       <c r="W40" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.6099991339674211</v>
+        <v>-0.2484597536946902</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6492836501253049</v>
+        <v>-0.5599199022770904</v>
       </c>
       <c r="C41" t="n">
-        <v>9.211640211640212</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.168646381056889</v>
+        <v>0.061557439496122</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8857142857142857</v>
+        <v>0.78</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.02683971358639755</v>
+        <v>-0.008710611964981085</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4238643484281807</v>
+        <v>0.8685276923375449</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.6873624719340645</v>
+        <v>-0.0104109291649971</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.2358386570228999</v>
+        <v>-0.6378717354896192</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.6346422474419725</v>
+        <v>-0.8473345523283524</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.4880242015942629</v>
+        <v>-0.2043896158232283</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.04830163649599283</v>
+        <v>0.0661778208391761</v>
       </c>
       <c r="M41" t="n">
-        <v>0.207819533534181</v>
+        <v>1.096369170900946</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.1338358042801066</v>
+        <v>-0.2587902083665926</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.1336429921620878</v>
+        <v>-0.2000785733173235</v>
       </c>
       <c r="P41" t="n">
-        <v>-0.8855440985717856</v>
+        <v>0.9364344053173755</v>
       </c>
       <c r="Q41" t="n">
-        <v>-0.569613196164234</v>
+        <v>1.119526940656881</v>
       </c>
       <c r="R41" t="n">
-        <v>-0.3350130398780516</v>
+        <v>-0.8070679638868128</v>
       </c>
       <c r="S41" t="n">
-        <v>-0.06715934948311615</v>
+        <v>0.3074721277404278</v>
       </c>
       <c r="T41" t="n">
-        <v>0.03546419602440452</v>
+        <v>-1.606661223383102</v>
       </c>
       <c r="U41" t="n">
-        <v>1.355815356664057</v>
+        <v>-0.4501378725935897</v>
       </c>
       <c r="V41" t="n">
-        <v>0.2323581389058219</v>
+        <v>0.3679407439756499</v>
       </c>
       <c r="W41" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.2619890094322308</v>
+        <v>-0.3349681086890685</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.5748549203470105</v>
+        <v>1.13472361430346</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08957316070954863</v>
+        <v>0.853799054129021</v>
       </c>
       <c r="E42" t="n">
-        <v>0.78</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.00412406685987282</v>
+        <v>0.2372789635094484</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8334918106872962</v>
+        <v>1.081724594736146</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.007542496724960703</v>
+        <v>-0.5722496278223544</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.653129203153241</v>
+        <v>0.4252779635761215</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.8519647501753261</v>
+        <v>-0.4257822843141914</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.193161257521849</v>
+        <v>-0.05955624998053474</v>
       </c>
       <c r="L42" t="n">
-        <v>0.06534610053585298</v>
+        <v>-0.9312620791270334</v>
       </c>
       <c r="M42" t="n">
-        <v>1.10735161321615</v>
+        <v>-0.6255505810201973</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.2578655477890222</v>
+        <v>-0.317270846314442</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.1978997305569382</v>
+        <v>-0.2159730311718727</v>
       </c>
       <c r="P42" t="n">
-        <v>0.9209940874652124</v>
+        <v>0.4031017633940482</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.132985150176598</v>
+        <v>0.2650211310572051</v>
       </c>
       <c r="R42" t="n">
-        <v>-0.8152622099788068</v>
+        <v>0.930671065998009</v>
       </c>
       <c r="S42" t="n">
-        <v>0.3297715553937438</v>
+        <v>-0.4724096026487639</v>
       </c>
       <c r="T42" t="n">
-        <v>-1.622135247959357</v>
+        <v>-0.5652081626996891</v>
       </c>
       <c r="U42" t="n">
-        <v>-0.4631497050173433</v>
+        <v>-0.04926161996288754</v>
       </c>
       <c r="V42" t="n">
-        <v>0.3809902786149737</v>
+        <v>0.1808490948416578</v>
       </c>
       <c r="W42" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-0.3485499033521513</v>
+        <v>-0.2272740341042302</v>
       </c>
       <c r="B43" t="n">
-        <v>1.069343382937125</v>
+        <v>-0.5599199022770904</v>
       </c>
       <c r="C43" t="n">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8619484676002779</v>
+        <v>0.8388510991359472</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5471698113207547</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2434241128290786</v>
+        <v>-0.7710961588559218</v>
       </c>
       <c r="G43" t="n">
-        <v>1.043871777299912</v>
+        <v>0.6917621308172761</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.5732040862655868</v>
+        <v>3.701221701077713</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3994116995571737</v>
+        <v>0.07111207763868564</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.4274397279070566</v>
+        <v>0.8107030371096298</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.04801408876187237</v>
+        <v>-0.7353645175913534</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.9391321099346147</v>
+        <v>-0.2972378340121488</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.5985015577133486</v>
+        <v>-1.336981227421659</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.31674698400246</v>
+        <v>-0.1708956380294361</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.2139002027868832</v>
+        <v>-0.174806918130359</v>
       </c>
       <c r="P43" t="n">
-        <v>0.3877739454575178</v>
+        <v>-0.3528761726824159</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.2817341425539859</v>
+        <v>0.9793092750022797</v>
       </c>
       <c r="R43" t="n">
-        <v>0.9348390518144715</v>
+        <v>-2.20402456297175</v>
       </c>
       <c r="S43" t="n">
-        <v>-0.4308716576075726</v>
+        <v>-1.806038091479237</v>
       </c>
       <c r="T43" t="n">
-        <v>-0.5740798256971461</v>
+        <v>-0.6810275874095256</v>
       </c>
       <c r="U43" t="n">
-        <v>-0.06137982596883072</v>
+        <v>-2.076781768936719</v>
       </c>
       <c r="V43" t="n">
-        <v>0.1935338055637442</v>
+        <v>-1.58090756275475</v>
       </c>
       <c r="W43" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.2407904231661278</v>
+        <v>-0.3102514358335319</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.5748549203470105</v>
+        <v>-0.07573604039693323</v>
       </c>
       <c r="C44" t="n">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8473753486023394</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.7058823529411765</v>
-      </c>
+        <v>-0.02439330171405166</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>-0.7713401327847322</v>
+        <v>0.1083136785416199</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6590618236072479</v>
+        <v>0.004658229163441917</v>
       </c>
       <c r="H44" t="n">
-        <v>3.729345009299901</v>
+        <v>-0.912643677135119</v>
       </c>
       <c r="I44" t="n">
-        <v>0.04877991024151711</v>
+        <v>0.02703480551099873</v>
       </c>
       <c r="J44" t="n">
-        <v>0.8177651931448748</v>
+        <v>-0.7929123891108933</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.7252865949800477</v>
+        <v>-0.5484633748430087</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.300633951650127</v>
+        <v>-0.8975456380983479</v>
       </c>
       <c r="M44" t="n">
-        <v>-1.303294114222646</v>
+        <v>-0.3824626256246063</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.1693685901903385</v>
+        <v>-0.2364480941024462</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.1724595160668266</v>
-      </c>
-      <c r="P44" t="n">
-        <v>-0.368044526435914</v>
-      </c>
+        <v>-0.192869336665003</v>
+      </c>
+      <c r="P44" t="inlineStr"/>
       <c r="Q44" t="n">
-        <v>0.9933015718626149</v>
+        <v>0.02754558977256114</v>
       </c>
       <c r="R44" t="n">
-        <v>-2.222156723299969</v>
+        <v>-0.301454029213436</v>
       </c>
       <c r="S44" t="n">
-        <v>-1.731601523644911</v>
+        <v>-1.21386554031222</v>
       </c>
       <c r="T44" t="n">
-        <v>-0.6906334954235376</v>
+        <v>-0.332914707970746</v>
       </c>
       <c r="U44" t="n">
-        <v>-2.093419687836294</v>
+        <v>-0.3113045576716597</v>
       </c>
       <c r="V44" t="n">
-        <v>-1.571658232328998</v>
+        <v>-0.9366767260553749</v>
       </c>
       <c r="W44" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.3238182193750312</v>
+        <v>-0.739262257540346</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.1050839765515433</v>
+        <v>0.8926316833633812</v>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>0.005777726471402837</v>
-      </c>
-      <c r="E45" t="inlineStr"/>
+        <v>0.7984236754046808</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.3518518518518519</v>
+      </c>
       <c r="F45" t="n">
-        <v>0.1136416963373219</v>
+        <v>0.1839046066406731</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.01896348662483783</v>
+        <v>0.6762072203541969</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.9159142617386646</v>
+        <v>-0.5773313203220504</v>
       </c>
       <c r="I45" t="n">
-        <v>0.005142469686290637</v>
+        <v>-0.07910813985456751</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.7971588060379241</v>
+        <v>-0.6409560576752298</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.5379805032512196</v>
+        <v>-1.058001535195722</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.9051777530364453</v>
+        <v>0.4532841324337773</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.3576817639548485</v>
+        <v>-1.30114224647395</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.2353703113811907</v>
+        <v>-0.2805843175839996</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.1906424090483885</v>
-      </c>
-      <c r="P45" t="inlineStr"/>
+        <v>-0.2545926130880387</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-0.5551749303561279</v>
+      </c>
       <c r="Q45" t="n">
-        <v>0.04516314264588287</v>
+        <v>1.861665214536285</v>
       </c>
       <c r="R45" t="n">
-        <v>-0.3060513504455483</v>
+        <v>-0.5171323696485534</v>
       </c>
       <c r="S45" t="n">
-        <v>-1.154036984793511</v>
+        <v>-1.704436210428606</v>
       </c>
       <c r="T45" t="n">
-        <v>-0.3403137310207991</v>
+        <v>-1.024248791559756</v>
       </c>
       <c r="U45" t="n">
-        <v>-0.3240069052679329</v>
+        <v>-0.9437674367604525</v>
       </c>
       <c r="V45" t="n">
-        <v>-0.9261711620214534</v>
+        <v>-1.745660367606972</v>
       </c>
       <c r="W45" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.753089591263616</v>
+        <v>-0.6933598650943494</v>
       </c>
       <c r="B46" t="n">
-        <v>0.834457911039391</v>
+        <v>-1.044103764157248</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8079616858579162</v>
+        <v>-2.286630399415799</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3518518518518519</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1897115729401382</v>
+        <v>0.9330730189345989</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6437124376308674</v>
+        <v>-2.091734317255584</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.5783203558707314</v>
+        <v>-0.142419800939945</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.09994131261604253</v>
+        <v>-0.8644092188278273</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.6441308902105028</v>
+        <v>-0.8809981974425022</v>
       </c>
       <c r="K46" t="n">
-        <v>-1.048622653421855</v>
+        <v>3.468677399043205</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4551839796356775</v>
+        <v>-1.123219342526961</v>
       </c>
       <c r="M46" t="n">
-        <v>-1.267789533231386</v>
+        <v>2.665147767242649</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.2798090233861559</v>
+        <v>-0.2820200633681251</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.2527773732847017</v>
+        <v>-0.1251403140894316</v>
       </c>
       <c r="P46" t="n">
-        <v>-0.5703006116921102</v>
+        <v>0.9364344053173755</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.872296628621797</v>
+        <v>-1.222132291607991</v>
       </c>
       <c r="R46" t="n">
-        <v>-0.5232640211893235</v>
+        <v>0.2416506610879553</v>
       </c>
       <c r="S46" t="n">
-        <v>-1.632506009238178</v>
+        <v>-0.4555218729247191</v>
       </c>
       <c r="T46" t="n">
-        <v>-1.036030573433914</v>
+        <v>1.065365850271906</v>
       </c>
       <c r="U46" t="n">
-        <v>-0.9578796596819146</v>
+        <v>0.6791847854916854</v>
       </c>
       <c r="V46" t="n">
-        <v>-1.736732300925059</v>
+        <v>0.730535716529967</v>
       </c>
       <c r="W46" t="n">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.7071593210203929</v>
+        <v>-0.7904610798839575</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.044625864142478</v>
+        <v>0.6505397524233025</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D47" t="n">
-        <v>-2.199731350966576</v>
+        <v>0.5290207592795134</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9436267597367477</v>
+        <v>-1.071393656397424</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.087656741360717</v>
+        <v>-0.6177638525398955</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.1404495898464001</v>
+        <v>0.8065976363636446</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.8774061487424424</v>
+        <v>2.199109340906213</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.8858657887322707</v>
+        <v>2.248387515922968</v>
       </c>
       <c r="K47" t="n">
-        <v>3.48786400051552</v>
+        <v>1.360878139931528</v>
       </c>
       <c r="L47" t="n">
-        <v>-1.132443895871091</v>
+        <v>1.144234498207989</v>
       </c>
       <c r="M47" t="n">
-        <v>2.661492530683467</v>
+        <v>-0.1505983923812025</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.2812546090838032</v>
+        <v>-0.1681440553982704</v>
       </c>
       <c r="O47" t="n">
-        <v>-0.1224616409593668</v>
+        <v>-0.1757170143864087</v>
       </c>
       <c r="P47" t="n">
-        <v>0.9209940874652124</v>
+        <v>-0.4243320061742413</v>
       </c>
       <c r="Q47" t="n">
-        <v>-1.199754731262144</v>
+        <v>-0.8648189902065936</v>
       </c>
       <c r="R47" t="n">
-        <v>0.2409169730116922</v>
+        <v>0.1478385710853617</v>
       </c>
       <c r="S47" t="n">
-        <v>-0.4144005229508025</v>
+        <v>0.1208024378146372</v>
       </c>
       <c r="T47" t="n">
-        <v>1.066831320671094</v>
+        <v>0.3565067853730173</v>
       </c>
       <c r="U47" t="n">
-        <v>0.6686904196299299</v>
+        <v>1.210552929736144</v>
       </c>
       <c r="V47" t="n">
-        <v>0.7442923020658442</v>
+        <v>0.04141354937672355</v>
       </c>
       <c r="W47" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.8043195080733647</v>
+        <v>-0.6562848558110443</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5995724391416575</v>
+        <v>0.6505397524233025</v>
       </c>
       <c r="C48" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5453143366450731</v>
+        <v>0.5290207592795134</v>
       </c>
       <c r="E48" t="n">
         <v>0.5471698113207547</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.073540332684153</v>
+        <v>-1.071393656397424</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.6331616072095472</v>
+        <v>-0.6177638525398955</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8150251992163348</v>
+        <v>0.8065976363636446</v>
       </c>
       <c r="I48" t="n">
-        <v>2.155542638400268</v>
+        <v>2.199109340906213</v>
       </c>
       <c r="J48" t="n">
-        <v>2.265588112608981</v>
+        <v>2.248387515922968</v>
       </c>
       <c r="K48" t="n">
-        <v>1.375497882429685</v>
+        <v>1.360878139931528</v>
       </c>
       <c r="L48" t="n">
-        <v>1.151009950664416</v>
+        <v>1.144234498207989</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.1279809680483558</v>
+        <v>-0.1505983923812025</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.1665981495305176</v>
+        <v>-0.1681440553982704</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.1733756825699408</v>
+        <v>-0.1757170143864087</v>
       </c>
       <c r="P48" t="n">
-        <v>-0.4394852872046256</v>
+        <v>-0.4243320061742413</v>
       </c>
       <c r="Q48" t="n">
-        <v>-0.843802431771755</v>
+        <v>-0.8648189902065936</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1464375061518809</v>
+        <v>0.1478385710853617</v>
       </c>
       <c r="S48" t="n">
-        <v>0.1477067278919446</v>
+        <v>0.1208024378146372</v>
       </c>
       <c r="T48" t="n">
-        <v>0.3534783961528393</v>
+        <v>0.3565067853730173</v>
       </c>
       <c r="U48" t="n">
-        <v>1.201243080562927</v>
+        <v>1.210552929736144</v>
       </c>
       <c r="V48" t="n">
-        <v>0.0538263643614313</v>
+        <v>0.04141354937672355</v>
       </c>
       <c r="W48" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.6700617950547126</v>
+        <v>-1.235361191283617</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5995724391416575</v>
+        <v>0.6505397524233025</v>
       </c>
       <c r="C49" t="n">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5453143366450731</v>
+        <v>0.285437038142384</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5471698113207547</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.073540332684153</v>
+        <v>0.1587222847841233</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.6331616072095472</v>
+        <v>0.5895745513050207</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8150251992163348</v>
+        <v>0.1144865369007015</v>
       </c>
       <c r="I49" t="n">
-        <v>2.155542638400268</v>
+        <v>-0.4441177164411762</v>
       </c>
       <c r="J49" t="n">
-        <v>2.265588112608981</v>
+        <v>-0.2857490774883084</v>
       </c>
       <c r="K49" t="n">
-        <v>1.375497882429685</v>
+        <v>-0.7081778447865054</v>
       </c>
       <c r="L49" t="n">
-        <v>1.151009950664416</v>
+        <v>-0.5927758820409914</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.1279809680483558</v>
+        <v>-1.059212699315852</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.1665981495305176</v>
+        <v>4.877583712463408</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.1733756825699408</v>
-      </c>
-      <c r="P49" t="n">
-        <v>-0.4394852872046256</v>
-      </c>
+        <v>5.78981031282964</v>
+      </c>
+      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="n">
-        <v>-0.843802431771755</v>
+        <v>1.483652884272237</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1464375061518809</v>
+        <v>-1.214566894661294</v>
       </c>
       <c r="S49" t="n">
-        <v>0.1477067278919446</v>
+        <v>-2.063719096357755</v>
       </c>
       <c r="T49" t="n">
-        <v>0.3534783961528393</v>
+        <v>-2.985052229755562</v>
       </c>
       <c r="U49" t="n">
-        <v>1.201243080562927</v>
+        <v>-2.144748125861938</v>
       </c>
       <c r="V49" t="n">
-        <v>0.0538263643614313</v>
+        <v>-3.167342421323649</v>
       </c>
       <c r="W49" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-1.249489819661527</v>
+        <v>-1.235361191283617</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5995724391416575</v>
+        <v>0.6505397524233025</v>
       </c>
       <c r="C50" t="n">
         <v>-8</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3078387384286708</v>
+        <v>0.285437038142384</v>
       </c>
       <c r="E50" t="n">
         <v>0.3142857142857143</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1643696944320459</v>
+        <v>0.1587222847841233</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5582244318621354</v>
+        <v>0.5895745513050207</v>
       </c>
       <c r="H50" t="n">
-        <v>0.118204802905971</v>
+        <v>0.1144865369007015</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.461308587211545</v>
+        <v>-0.4441177164411762</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.286419017649466</v>
+        <v>-0.2857490774883084</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.6980410182259076</v>
+        <v>-0.7081778447865054</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.598257427129706</v>
+        <v>-0.5927758820409914</v>
       </c>
       <c r="M50" t="n">
-        <v>-1.028117339041887</v>
+        <v>-1.059212699315852</v>
       </c>
       <c r="N50" t="n">
-        <v>4.913710618281838</v>
+        <v>4.877583712463408</v>
       </c>
       <c r="O50" t="n">
-        <v>5.831941089450636</v>
+        <v>5.78981031282964</v>
       </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="n">
-        <v>1.495724142611675</v>
+        <v>1.483652884272237</v>
       </c>
       <c r="R50" t="n">
-        <v>-1.225660077934331</v>
+        <v>-1.214566894661294</v>
       </c>
       <c r="S50" t="n">
-        <v>-1.982925923028379</v>
+        <v>-2.063719096357755</v>
       </c>
       <c r="T50" t="n">
-        <v>-3.009264656632023</v>
+        <v>-2.985052229755562</v>
       </c>
       <c r="U50" t="n">
-        <v>-2.161537554190351</v>
+        <v>-2.144748125861938</v>
       </c>
       <c r="V50" t="n">
-        <v>-3.161186598182824</v>
+        <v>-3.167342421323649</v>
       </c>
       <c r="W50" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-1.249489819661527</v>
+        <v>-0.7657444070284209</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5995724391416575</v>
+        <v>-0.8020118332171691</v>
       </c>
       <c r="C51" t="n">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3078387384286708</v>
+        <v>1.828133938677544</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3142857142857143</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1643696944320459</v>
+        <v>2.867362692784229</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5582244318621354</v>
+        <v>-0.183822921856494</v>
       </c>
       <c r="H51" t="n">
-        <v>0.118204802905971</v>
+        <v>-0.9575923106683021</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.461308587211545</v>
+        <v>-0.2502559464482947</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.286419017649466</v>
+        <v>-1.154026135773191</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.6980410182259076</v>
+        <v>-0.2961376628911091</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.598257427129706</v>
+        <v>-1.549020821476744</v>
       </c>
       <c r="M51" t="n">
-        <v>-1.028117339041887</v>
+        <v>-0.02020316456923727</v>
       </c>
       <c r="N51" t="n">
-        <v>4.913710618281838</v>
+        <v>-0.4243571090198909</v>
       </c>
       <c r="O51" t="n">
-        <v>5.831941089450636</v>
-      </c>
-      <c r="P51" t="inlineStr"/>
+        <v>-0.1949388007844996</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.1570386039169594</v>
+      </c>
       <c r="Q51" t="n">
-        <v>1.495724142611675</v>
+        <v>-1.117573424636645</v>
       </c>
       <c r="R51" t="n">
-        <v>-1.225660077934331</v>
+        <v>0.9659038515300438</v>
       </c>
       <c r="S51" t="n">
-        <v>-1.982925923028379</v>
+        <v>1.958770870319906</v>
       </c>
       <c r="T51" t="n">
-        <v>-3.009264656632023</v>
+        <v>0.9797781949292489</v>
       </c>
       <c r="U51" t="n">
-        <v>-2.161537554190351</v>
+        <v>1.421474968787476</v>
       </c>
       <c r="V51" t="n">
-        <v>-3.161186598182824</v>
+        <v>0.09058330164969899</v>
       </c>
       <c r="W51" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.7795878240962447</v>
+        <v>-0.6280372296904312</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.809740392244744</v>
+        <v>-0.8020118332171691</v>
       </c>
       <c r="C52" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D52" t="n">
-        <v>1.811850860465892</v>
+        <v>1.828133938677544</v>
       </c>
       <c r="E52" t="n">
         <v>0.9142857142857143</v>
       </c>
       <c r="F52" t="n">
-        <v>2.890172205124476</v>
+        <v>2.867362692784229</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.2049542670375159</v>
+        <v>-0.183822921856494</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.9611687370050001</v>
+        <v>-0.9575923106683021</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.2693812955341301</v>
+        <v>-0.2502559464482947</v>
       </c>
       <c r="J52" t="n">
-        <v>-1.160819099138376</v>
+        <v>-1.154026135773191</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.2851080903091489</v>
+        <v>-0.2961376628911091</v>
       </c>
       <c r="L52" t="n">
-        <v>-1.561249989958208</v>
+        <v>-1.549020821476744</v>
       </c>
       <c r="M52" t="n">
-        <v>0.001197591282846884</v>
+        <v>-0.02020316456923727</v>
       </c>
       <c r="N52" t="n">
-        <v>-0.4245671646312899</v>
+        <v>-0.4243571090198909</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.1927256762776257</v>
+        <v>-0.1949388007844996</v>
       </c>
       <c r="P52" t="n">
-        <v>-0.172248267180193</v>
+        <v>-0.1570386039169594</v>
       </c>
       <c r="Q52" t="n">
-        <v>-1.095594127711731</v>
+        <v>-1.117573424636645</v>
       </c>
       <c r="R52" t="n">
-        <v>0.9703224824997987</v>
+        <v>0.9659038515300438</v>
       </c>
       <c r="S52" t="n">
-        <v>1.94033522452069</v>
+        <v>1.958770870319906</v>
       </c>
       <c r="T52" t="n">
-        <v>0.9807010766428916</v>
+        <v>0.9797781949292489</v>
       </c>
       <c r="U52" t="n">
-        <v>1.412635303380341</v>
+        <v>1.421474968787476</v>
       </c>
       <c r="V52" t="n">
-        <v>0.1030919963902208</v>
+        <v>0.09058330164969899</v>
       </c>
       <c r="W52" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.6417970133665755</v>
+        <v>-0.9546504067100222</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.809740392244744</v>
+        <v>1.860999407123695</v>
       </c>
       <c r="C53" t="n">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>1.811850860465892</v>
+        <v>-0.2696756541003947</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9142857142857143</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="F53" t="n">
-        <v>2.890172205124476</v>
+        <v>-1.065135497987048</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.2049542670375159</v>
+        <v>-0.8579538984165173</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.9611687370050001</v>
+        <v>-0.957164056140821</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.2693812955341301</v>
+        <v>-0.6693146640107757</v>
       </c>
       <c r="J53" t="n">
-        <v>-1.160819099138376</v>
+        <v>-0.9383719418491793</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.2851080903091489</v>
+        <v>-0.7059141656904512</v>
       </c>
       <c r="L53" t="n">
-        <v>-1.561249989958208</v>
+        <v>0.05399087048449112</v>
       </c>
       <c r="M53" t="n">
-        <v>0.001197591282846884</v>
+        <v>0.01289857934426372</v>
       </c>
       <c r="N53" t="n">
-        <v>-0.4245671646312899</v>
+        <v>-0.1551448678624662</v>
       </c>
       <c r="O53" t="n">
-        <v>-0.1927256762776257</v>
-      </c>
-      <c r="P53" t="n">
-        <v>-0.172248267180193</v>
-      </c>
+        <v>-0.08669148547880885</v>
+      </c>
+      <c r="P53" t="inlineStr"/>
       <c r="Q53" t="n">
-        <v>-1.095594127711731</v>
+        <v>-0.3692220623691364</v>
       </c>
       <c r="R53" t="n">
-        <v>0.9703224824997987</v>
+        <v>-1.064603878539709</v>
       </c>
       <c r="S53" t="n">
-        <v>1.94033522452069</v>
+        <v>-0.372288788976979</v>
       </c>
       <c r="T53" t="n">
-        <v>0.9807010766428916</v>
+        <v>-0.3795381613916284</v>
       </c>
       <c r="U53" t="n">
-        <v>1.412635303380341</v>
+        <v>-0.7468342056039149</v>
       </c>
       <c r="V53" t="n">
-        <v>0.1030919963902208</v>
+        <v>-0.813123289394035</v>
       </c>
       <c r="W53" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.9686085516356627</v>
+        <v>-0.6562848558110443</v>
       </c>
       <c r="B54" t="n">
-        <v>1.773999798630325</v>
+        <v>0.1663558905431454</v>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>-13</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.2333539079947659</v>
+        <v>0.9135908741013163</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3783783783783784</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.067242522219194</v>
+        <v>-1.29512644095616</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.8701780613122956</v>
+        <v>-1.85345547093091</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.9607375685267129</v>
+        <v>-1.214232398296711</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.6842583737663727</v>
+        <v>-0.7478010315212881</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.9436441283830027</v>
+        <v>0.8330064565684983</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.6957724345341479</v>
+        <v>1.744560290884392</v>
       </c>
       <c r="L54" t="n">
-        <v>0.05307315448288166</v>
+        <v>2.809808269947057</v>
       </c>
       <c r="M54" t="n">
-        <v>0.03399047536187672</v>
+        <v>1.613378553132064</v>
       </c>
       <c r="N54" t="n">
-        <v>-0.153509871793217</v>
+        <v>-0.04286256680864677</v>
       </c>
       <c r="O54" t="n">
-        <v>-0.08375636267382232</v>
-      </c>
-      <c r="P54" t="inlineStr"/>
+        <v>-0.09805521708587399</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.729561133300069</v>
+      </c>
       <c r="Q54" t="n">
-        <v>-0.3500932264546487</v>
+        <v>-0.9206401297928624</v>
       </c>
       <c r="R54" t="n">
-        <v>-1.074630228674337</v>
+        <v>0.3699925849944982</v>
       </c>
       <c r="S54" t="n">
-        <v>-0.3332206748597044</v>
+        <v>-0.09394312915529715</v>
       </c>
       <c r="T54" t="n">
-        <v>-0.3872327569539318</v>
+        <v>0.2307971301608411</v>
       </c>
       <c r="U54" t="n">
-        <v>-0.7605074283682177</v>
+        <v>1.002535882211565</v>
       </c>
       <c r="V54" t="n">
-        <v>-0.8023767993275537</v>
+        <v>0.436902389884094</v>
       </c>
       <c r="W54" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.6700617950547126</v>
+        <v>-0.6704086688713511</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1298014953461903</v>
+        <v>0.6505397524233025</v>
       </c>
       <c r="C55" t="n">
-        <v>-13</v>
+        <v>-1</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9202409435920321</v>
+        <v>-0.2503112578593675</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3260869565217391</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.298690701139554</v>
+        <v>-0.4075178181390379</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.852526234442966</v>
+        <v>-0.2330973352555631</v>
       </c>
       <c r="H55" t="n">
-        <v>-1.219555067912166</v>
+        <v>-0.2278844275783154</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.7619615534621117</v>
+        <v>-0.27424909804313</v>
       </c>
       <c r="J55" t="n">
-        <v>0.8402258946067316</v>
+        <v>-0.5409461513433582</v>
       </c>
       <c r="K55" t="n">
-        <v>1.760011337533895</v>
+        <v>-0.6428913056187709</v>
       </c>
       <c r="L55" t="n">
-        <v>2.828336636412282</v>
+        <v>-0.06305771998032808</v>
       </c>
       <c r="M55" t="n">
-        <v>1.619536976729909</v>
+        <v>-0.02020316456923727</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.04045804165938353</v>
+        <v>-0.07706180613008637</v>
       </c>
       <c r="O55" t="n">
-        <v>-0.09519588918496742</v>
+        <v>-0.1676671072352758</v>
       </c>
       <c r="P55" t="n">
-        <v>0.7141644528025681</v>
+        <v>-1.594591120057032</v>
       </c>
       <c r="Q55" t="n">
-        <v>-0.8994109493331689</v>
+        <v>-0.300201121616077</v>
       </c>
       <c r="R55" t="n">
-        <v>0.3701719181484801</v>
+        <v>0.5282845107005087</v>
       </c>
       <c r="S55" t="n">
-        <v>-0.06174138670395027</v>
+        <v>0.2396359345844501</v>
       </c>
       <c r="T55" t="n">
-        <v>0.2269717961440229</v>
+        <v>-0.2561663584283485</v>
       </c>
       <c r="U55" t="n">
-        <v>0.992762325029198</v>
+        <v>0.7051803216849919</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4500863979641935</v>
+        <v>0.09747150577614772</v>
       </c>
       <c r="W55" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.6841941858987813</v>
+        <v>-0.8451908554926458</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5995724391416575</v>
+        <v>-0.07573604039693323</v>
       </c>
       <c r="C56" t="n">
         <v>-1</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.2144750947474367</v>
+        <v>0.01705330076674429</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.4054581386180739</v>
+        <v>-0.1138102988075185</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2535776256751148</v>
+        <v>1.460265491865073</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.2264957391580903</v>
+        <v>0.2729472162464551</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.2931350279207243</v>
+        <v>1.281323680123008</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.5434157216915682</v>
+        <v>-0.9033088733650327</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.6326130261109815</v>
+        <v>-0.7811417681782956</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.06480137479168945</v>
+        <v>-0.668640746286107</v>
       </c>
       <c r="M56" t="n">
-        <v>0.001197591282846884</v>
+        <v>-0.559153286420695</v>
       </c>
       <c r="N56" t="n">
-        <v>-0.07489166617711149</v>
+        <v>-0.1128456838724954</v>
       </c>
       <c r="O56" t="n">
-        <v>-0.1652720833780708</v>
+        <v>-0.1989439073746095</v>
       </c>
       <c r="P56" t="n">
-        <v>-1.609497549420686</v>
+        <v>-1.262021855353761</v>
       </c>
       <c r="Q56" t="n">
-        <v>-0.2813351856045486</v>
+        <v>-0.4135115002768329</v>
       </c>
       <c r="R56" t="n">
-        <v>0.5295899286469485</v>
+        <v>-0.5963315842826206</v>
       </c>
       <c r="S56" t="n">
-        <v>0.263608779796743</v>
+        <v>1.00917361105176</v>
       </c>
       <c r="T56" t="n">
-        <v>-0.2630788301652561</v>
+        <v>0.8131672602176374</v>
       </c>
       <c r="U56" t="n">
-        <v>0.6947439046234835</v>
+        <v>-1.331063602556436</v>
       </c>
       <c r="V56" t="n">
-        <v>0.1099936323380457</v>
+        <v>0.4024473987478465</v>
       </c>
       <c r="W56" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.8590825225941308</v>
+        <v>-0.7569170238657293</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.1050839765515433</v>
+        <v>0.4084478214832239</v>
       </c>
       <c r="C57" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>0.04618501096568731</v>
+        <v>0.412494655583508</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.32</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.1098896714127107</v>
+        <v>-0.742500538167802</v>
       </c>
       <c r="G57" t="n">
-        <v>1.417411075495717</v>
+        <v>-0.9278462971148473</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2777436883060159</v>
+        <v>0.1516719312741099</v>
       </c>
       <c r="I57" t="n">
-        <v>1.246915237438464</v>
+        <v>1.750959386669916</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.9083337978298146</v>
+        <v>0.5341896195347678</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.7711630287537908</v>
+        <v>0.5115909229606188</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.6746576223465811</v>
+        <v>-0.865858315516987</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.5327237911203743</v>
+        <v>-0.5336756537142492</v>
       </c>
       <c r="N57" t="n">
-        <v>-0.1109207894681066</v>
+        <v>-0.1886553442512666</v>
       </c>
       <c r="O57" t="n">
-        <v>-0.196757496510782</v>
+        <v>-0.1868933235372523</v>
       </c>
       <c r="P57" t="n">
-        <v>-1.276998436085024</v>
+        <v>-0.1763213537572208</v>
       </c>
       <c r="Q57" t="n">
-        <v>-0.3942139664454375</v>
+        <v>0.05691877368767457</v>
       </c>
       <c r="R57" t="n">
-        <v>-0.6030266570514556</v>
+        <v>-0.187128532609458</v>
       </c>
       <c r="S57" t="n">
-        <v>1.01416311123563</v>
+        <v>1.549889683519831</v>
       </c>
       <c r="T57" t="n">
-        <v>0.8130339007280274</v>
+        <v>-0.7000020437932992</v>
       </c>
       <c r="U57" t="n">
-        <v>-1.346039179400713</v>
+        <v>0.5392307837921321</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4155642204789406</v>
+        <v>-0.02804240521914657</v>
       </c>
       <c r="W57" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.7707550798187018</v>
+        <v>-0.7569170238657293</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3646869672439239</v>
+        <v>0.4084478214832239</v>
       </c>
       <c r="C58" t="n">
         <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>0.431710249911145</v>
+        <v>0.412494655583508</v>
       </c>
       <c r="E58" t="n">
         <v>0.32</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7425633285857446</v>
+        <v>-0.742500538167802</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.9391469831831171</v>
+        <v>-0.9278462971148473</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1556432159936128</v>
+        <v>0.1516719312741099</v>
       </c>
       <c r="I58" t="n">
-        <v>1.711864614697667</v>
+        <v>1.750959386669916</v>
       </c>
       <c r="J58" t="n">
-        <v>0.5393018241623594</v>
+        <v>0.5341896195347678</v>
       </c>
       <c r="K58" t="n">
-        <v>0.5243705590389179</v>
+        <v>0.5115909229606188</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.8732668328073628</v>
+        <v>-0.865858315516987</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.5074838805545201</v>
+        <v>-0.5336756537142492</v>
       </c>
       <c r="N58" t="n">
-        <v>-0.1872500129272558</v>
+        <v>-0.1886553442512666</v>
       </c>
       <c r="O58" t="n">
-        <v>-0.1846265365366379</v>
+        <v>-0.1868933235372523</v>
       </c>
       <c r="P58" t="n">
-        <v>-0.1915269495631873</v>
+        <v>-0.1763213537572208</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.07442444446961022</v>
+        <v>0.05691877368767457</v>
       </c>
       <c r="R58" t="n">
-        <v>-0.1909125451238847</v>
+        <v>-0.187128532609458</v>
       </c>
       <c r="S58" t="n">
-        <v>1.541540525857607</v>
+        <v>1.549889683519831</v>
       </c>
       <c r="T58" t="n">
-        <v>-0.70972824164709</v>
+        <v>-0.7000020437932992</v>
       </c>
       <c r="U58" t="n">
-        <v>0.5284244348872897</v>
+        <v>0.5392307837921321</v>
       </c>
       <c r="V58" t="n">
-        <v>-0.01576502756447691</v>
+        <v>-0.02804240521914657</v>
       </c>
       <c r="W58" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.7707550798187018</v>
+        <v>-0.8557837152878758</v>
       </c>
       <c r="B59" t="n">
-        <v>0.3646869672439239</v>
+        <v>-0.5599199022770904</v>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="D59" t="n">
-        <v>0.431710249911145</v>
+        <v>-0.3124811615805597</v>
       </c>
       <c r="E59" t="n">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7425633285857446</v>
+        <v>-0.5459244703425767</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.9391469831831171</v>
+        <v>0.1594182564106507</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1556432159936128</v>
+        <v>-0.6196373299114682</v>
       </c>
       <c r="I59" t="n">
-        <v>1.711864614697667</v>
+        <v>-0.904155852844478</v>
       </c>
       <c r="J59" t="n">
-        <v>0.5393018241623594</v>
+        <v>0.4903818224313362</v>
       </c>
       <c r="K59" t="n">
-        <v>0.5243705590389179</v>
+        <v>-0.09279331612835252</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.8732668328073628</v>
+        <v>0.7127448361210929</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.5074838805545201</v>
+        <v>0.5323220214128783</v>
       </c>
       <c r="N59" t="n">
-        <v>-0.1872500129272558</v>
+        <v>-0.3247107988702484</v>
       </c>
       <c r="O59" t="n">
-        <v>-0.1846265365366379</v>
+        <v>-0.2109111505752259</v>
       </c>
       <c r="P59" t="n">
-        <v>-0.1915269495631873</v>
+        <v>0.4717083763927831</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.07442444446961022</v>
+        <v>0.6156136521575991</v>
       </c>
       <c r="R59" t="n">
-        <v>-0.1909125451238847</v>
+        <v>-1.7158992148727</v>
       </c>
       <c r="S59" t="n">
-        <v>1.541540525857607</v>
+        <v>-1.39660785123242</v>
       </c>
       <c r="T59" t="n">
-        <v>-0.70972824164709</v>
+        <v>-0.2237481428034877</v>
       </c>
       <c r="U59" t="n">
-        <v>0.5284244348872897</v>
+        <v>-2.320036722432409</v>
       </c>
       <c r="V59" t="n">
-        <v>-0.01576502756447691</v>
+        <v>-1.325359744424831</v>
       </c>
       <c r="W59" t="n">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.8696818157271823</v>
+        <v>-0.7922265565164959</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5748549203470105</v>
+        <v>-1.286195695097326</v>
       </c>
       <c r="C60" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.2750860214888616</v>
+        <v>-0.2149797278757386</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.5447417433958276</v>
+        <v>-0.659404503338989</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1337517217057351</v>
+        <v>-1.844552923240559</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.6209142261197182</v>
+        <v>-0.3196719227230919</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.9167561650988869</v>
+        <v>-1.366600786217899</v>
       </c>
       <c r="J60" t="n">
-        <v>0.4951850978345261</v>
+        <v>-0.07323238710884819</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.0813231679314026</v>
+        <v>-0.3839630571330355</v>
       </c>
       <c r="L60" t="n">
-        <v>0.7164755354838767</v>
+        <v>0.2276572044540522</v>
       </c>
       <c r="M60" t="n">
-        <v>0.5485673740351654</v>
+        <v>2.436023000755123</v>
       </c>
       <c r="N60" t="n">
-        <v>-0.324237926427479</v>
+        <v>-0.001728674479792903</v>
       </c>
       <c r="O60" t="n">
-        <v>-0.2088045599748345</v>
+        <v>0.02861984326946689</v>
       </c>
       <c r="P60" t="n">
-        <v>0.456366086740915</v>
+        <v>-0.8543855418814977</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.6309912611117618</v>
+        <v>-0.390037133439847</v>
       </c>
       <c r="R60" t="n">
-        <v>-1.730558863707639</v>
+        <v>0.2725592268988868</v>
       </c>
       <c r="S60" t="n">
-        <v>-1.332271315863503</v>
+        <v>0.468805340234313</v>
       </c>
       <c r="T60" t="n">
-        <v>-0.230455097086585</v>
+        <v>1.016805319273366</v>
       </c>
       <c r="U60" t="n">
-        <v>-2.337216901072441</v>
+        <v>-0.01517955737284082</v>
       </c>
       <c r="V60" t="n">
-        <v>-1.315612102307689</v>
+        <v>0.1001357458202393</v>
       </c>
       <c r="W60" t="n">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.8060860569288734</v>
+        <v>-1.076468294355167</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.279511336040211</v>
+        <v>0.6505397524233025</v>
       </c>
       <c r="C61" t="n">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1800295407523093</v>
+        <v>-1.388733921081857</v>
       </c>
       <c r="E61" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.6589407924617264</v>
+        <v>1.106063552267944</v>
       </c>
       <c r="G61" t="n">
-        <v>-1.843741314658524</v>
+        <v>1.160420826872994</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.3189077793532979</v>
+        <v>-0.7894423972903956</v>
       </c>
       <c r="I61" t="n">
-        <v>-1.374586523377171</v>
+        <v>-1.26107761077106</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.07240367587294264</v>
+        <v>-0.9909397867105834</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.3731237712627338</v>
+        <v>-1.114195409766067</v>
       </c>
       <c r="L61" t="n">
-        <v>0.22796494332211</v>
+        <v>-0.287313849358705</v>
       </c>
       <c r="M61" t="n">
-        <v>2.434505640606184</v>
+        <v>-0.7202907749749331</v>
       </c>
       <c r="N61" t="n">
-        <v>0.000957762654031899</v>
+        <v>0.02079596807921793</v>
       </c>
       <c r="O61" t="n">
-        <v>0.03232408060513943</v>
+        <v>-0.2105444293092046</v>
       </c>
       <c r="P61" t="n">
-        <v>-0.8694481084446216</v>
+        <v>-0.8074001626430674</v>
       </c>
       <c r="Q61" t="n">
-        <v>-0.3708290131791178</v>
+        <v>-0.7132872092661703</v>
       </c>
       <c r="R61" t="n">
-        <v>0.2720454215851913</v>
+        <v>-0.1262912644333893</v>
       </c>
       <c r="S61" t="n">
-        <v>0.4871249185170629</v>
+        <v>0.3832177867109612</v>
       </c>
       <c r="T61" t="n">
-        <v>1.017962936926987</v>
+        <v>-0.1544809204575644</v>
       </c>
       <c r="U61" t="n">
-        <v>-0.0272217882335763</v>
+        <v>-0.05912806065349804</v>
       </c>
       <c r="V61" t="n">
-        <v>0.1126630675818902</v>
+        <v>0.276370759202485</v>
       </c>
       <c r="W61" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.090500422665755</v>
+        <v>-0.8169432293720326</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5995724391416575</v>
+        <v>0.6505397524233025</v>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D62" t="n">
-        <v>-1.324350589340419</v>
+        <v>-1.388733921081857</v>
       </c>
       <c r="E62" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="F62" t="n">
-        <v>1.117713371120578</v>
+        <v>1.106063552267944</v>
       </c>
       <c r="G62" t="n">
-        <v>1.121528208998599</v>
+        <v>1.160420826872994</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.7918746896035544</v>
+        <v>-0.7894423972903956</v>
       </c>
       <c r="I62" t="n">
-        <v>-1.270116326527858</v>
+        <v>-1.26107761077106</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.9965826776535592</v>
+        <v>-0.9909397867105834</v>
       </c>
       <c r="K62" t="n">
-        <v>-1.104938280336151</v>
+        <v>-1.114195409766067</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.2906399396341997</v>
+        <v>-0.287313849358705</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.6923577668031452</v>
+        <v>-0.7202907749749331</v>
       </c>
       <c r="N62" t="n">
-        <v>0.02363677831818397</v>
+        <v>0.02079596807921793</v>
       </c>
       <c r="O62" t="n">
-        <v>-0.2084353927162341</v>
+        <v>-0.2105444293092046</v>
       </c>
       <c r="P62" t="n">
-        <v>-0.8224726401900403</v>
+        <v>-0.8074001626430674</v>
       </c>
       <c r="Q62" t="n">
-        <v>-0.6928478334960393</v>
+        <v>-0.7132872092661703</v>
       </c>
       <c r="R62" t="n">
-        <v>-0.1296424821466775</v>
+        <v>-0.1262912644333893</v>
       </c>
       <c r="S62" t="n">
-        <v>0.4036486820979379</v>
+        <v>0.3832177867109612</v>
       </c>
       <c r="T62" t="n">
-        <v>-0.1607487505354991</v>
+        <v>-0.1544809204575644</v>
       </c>
       <c r="U62" t="n">
-        <v>-0.07126826075860032</v>
+        <v>-0.05912806065349804</v>
       </c>
       <c r="V62" t="n">
-        <v>0.2892417347201112</v>
+        <v>0.276370759202485</v>
       </c>
       <c r="W62" t="n">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.8308177409059936</v>
+        <v>-0.9864289860957123</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5995724391416575</v>
+        <v>-0.07573604039693323</v>
       </c>
       <c r="C63" t="n">
-        <v>8</v>
+        <v>-3</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.324350589340419</v>
+        <v>1.190807493972863</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="F63" t="n">
-        <v>1.117713371120578</v>
+        <v>-1.105238893971834</v>
       </c>
       <c r="G63" t="n">
-        <v>1.121528208998599</v>
+        <v>-0.183822921856494</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.7918746896035544</v>
+        <v>1.414654931752794</v>
       </c>
       <c r="I63" t="n">
-        <v>-1.270116326527858</v>
+        <v>-0.2502559464482947</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.9965826776535592</v>
+        <v>2.066179693594997</v>
       </c>
       <c r="K63" t="n">
-        <v>-1.104938280336151</v>
+        <v>-0.2961376628911091</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.2906399396341997</v>
+        <v>1.391570264033313</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.6923577668031452</v>
+        <v>-0.02020316456923727</v>
       </c>
       <c r="N63" t="n">
-        <v>0.02363677831818397</v>
+        <v>-0.343739977470128</v>
       </c>
       <c r="O63" t="n">
-        <v>-0.2084353927162341</v>
+        <v>-0.1949388007844996</v>
       </c>
       <c r="P63" t="n">
-        <v>-0.8224726401900403</v>
+        <v>-0.07861052450436454</v>
       </c>
       <c r="Q63" t="n">
-        <v>-0.6928478334960393</v>
+        <v>1.504570703465546</v>
       </c>
       <c r="R63" t="n">
-        <v>-0.1296424821466775</v>
+        <v>-0.8670212192668093</v>
       </c>
       <c r="S63" t="n">
-        <v>0.4036486820979379</v>
+        <v>-0.4773129646460435</v>
       </c>
       <c r="T63" t="n">
-        <v>-0.1607487505354991</v>
+        <v>1.254442436285504</v>
       </c>
       <c r="U63" t="n">
-        <v>-0.07126826075860032</v>
+        <v>0.5973307000267398</v>
       </c>
       <c r="V63" t="n">
-        <v>0.2892417347201112</v>
+        <v>0.2586189319777592</v>
       </c>
       <c r="W63" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-1.000406431034817</v>
+        <v>-1.374833845254145</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.1050839765515433</v>
+        <v>0.1663558905431454</v>
       </c>
       <c r="C64" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="D64" t="n">
-        <v>1.190506059553797</v>
+        <v>0.7382921291825435</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.107600015646435</v>
+        <v>-0.6040034078243087</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2049542670375159</v>
+        <v>0.1790115363270583</v>
       </c>
       <c r="H64" t="n">
-        <v>1.427219868368814</v>
+        <v>2.127607256694528</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.2693812955341301</v>
+        <v>0.3280555873994233</v>
       </c>
       <c r="J64" t="n">
-        <v>2.082095374696262</v>
+        <v>0.1101216975498486</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.2851080903091489</v>
+        <v>-0.2583218555006501</v>
       </c>
       <c r="L64" t="n">
-        <v>1.400091010535773</v>
+        <v>0.9003873473692248</v>
       </c>
       <c r="M64" t="n">
-        <v>0.001197591282846884</v>
+        <v>0.5854279287921191</v>
       </c>
       <c r="N64" t="n">
-        <v>-0.3433975218977286</v>
+        <v>-0.2052618707564777</v>
       </c>
       <c r="O64" t="n">
-        <v>-0.1927256762776257</v>
+        <v>-0.1986998243841732</v>
       </c>
       <c r="P64" t="n">
-        <v>-0.09383673119963966</v>
+        <v>0.7189348559396173</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.516562286092425</v>
+        <v>1.638431431909877</v>
       </c>
       <c r="R64" t="n">
-        <v>-0.875641971315065</v>
+        <v>-2.123589853337099</v>
       </c>
       <c r="S64" t="n">
-        <v>-0.4356540609884776</v>
+        <v>-3.097653396503314</v>
       </c>
       <c r="T64" t="n">
-        <v>1.257106570392231</v>
+        <v>-0.3628948843584769</v>
       </c>
       <c r="U64" t="n">
-        <v>0.5866538664515761</v>
+        <v>1.298154378232824</v>
       </c>
       <c r="V64" t="n">
-        <v>0.2714552918876005</v>
+        <v>0.4758920348689721</v>
       </c>
       <c r="W64" t="n">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-1.389047179246705</v>
+        <v>-1.34835169576607</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1298014953461903</v>
+        <v>-0.8020118332171691</v>
       </c>
       <c r="C65" t="n">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7493380026162093</v>
+        <v>-1.710114953432939</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5405405405405406</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.6031886723932951</v>
+        <v>-0.5385846458608275</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1530861188206554</v>
+        <v>-0.2195023148918177</v>
       </c>
       <c r="H65" t="n">
-        <v>2.145023299063388</v>
+        <v>-0.4824216231271001</v>
       </c>
       <c r="I65" t="n">
-        <v>0.3031594712260196</v>
+        <v>-0.1828383578017627</v>
       </c>
       <c r="J65" t="n">
-        <v>0.1122434077245215</v>
+        <v>-0.5209373415499997</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.2472103493765844</v>
+        <v>-0.4509010430033047</v>
       </c>
       <c r="L65" t="n">
-        <v>0.9054421227570483</v>
+        <v>1.723605386539297</v>
       </c>
       <c r="M65" t="n">
-        <v>0.6011777703076363</v>
+        <v>0.6626415419793601</v>
       </c>
       <c r="N65" t="n">
-        <v>-0.2039703526064387</v>
+        <v>-0.211006082784001</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.1965117855122682</v>
+        <v>-0.2115922442125356</v>
       </c>
       <c r="P65" t="n">
-        <v>0.703540416923722</v>
+        <v>1.263018344075364</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.649913140690729</v>
+        <v>-0.2764849953438741</v>
       </c>
       <c r="R65" t="n">
-        <v>-2.141149803156782</v>
+        <v>-0.7765428198461852</v>
       </c>
       <c r="S65" t="n">
-        <v>-2.991354608365723</v>
+        <v>0.4169697991202112</v>
       </c>
       <c r="T65" t="n">
-        <v>-0.3704839687489595</v>
+        <v>-0.3494355349826784</v>
       </c>
       <c r="U65" t="n">
-        <v>1.289039808695408</v>
+        <v>0.3804009030747569</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4891520717567759</v>
+        <v>-0.08767223200485297</v>
       </c>
       <c r="W65" t="n">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-1.362548946414076</v>
+        <v>-1.509010069327058</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.809740392244744</v>
+        <v>-0.07573604039693323</v>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="D66" t="n">
-        <v>-1.637672647796093</v>
+        <v>-0.6250293114357341</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.537355413360544</v>
+        <v>-0.4431651469521066</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2401622340908825</v>
+        <v>-0.183822921856494</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.4827648693825064</v>
+        <v>-0.3378102868422965</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.2026364432570358</v>
+        <v>0.4980827436264897</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.5232658113065486</v>
+        <v>-0.2946749230221219</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.4402067881838311</v>
+        <v>-0.426760870569251</v>
       </c>
       <c r="L66" t="n">
-        <v>1.734469097555805</v>
+        <v>2.951351897791516</v>
       </c>
       <c r="M66" t="n">
-        <v>0.6776709325165166</v>
+        <v>1.328309789780782</v>
       </c>
       <c r="N66" t="n">
-        <v>-0.2097539327102791</v>
+        <v>-0.2829373541648658</v>
       </c>
       <c r="O66" t="n">
-        <v>-0.2094901964356369</v>
+        <v>-0.2174627499784565</v>
       </c>
       <c r="P66" t="n">
-        <v>1.247509137385974</v>
+        <v>-0.1344150244155595</v>
       </c>
       <c r="Q66" t="n">
-        <v>-0.257709393761687</v>
+        <v>-0.1616515627023342</v>
       </c>
       <c r="R66" t="n">
-        <v>-0.7845199108284765</v>
+        <v>-0.6237680036027288</v>
       </c>
       <c r="S66" t="n">
-        <v>0.4365680827760641</v>
+        <v>0.02332137384002236</v>
       </c>
       <c r="T66" t="n">
-        <v>-0.3569392929244241</v>
+        <v>-0.5807493160665089</v>
       </c>
       <c r="U66" t="n">
-        <v>0.3692404933433744</v>
+        <v>-0.1990381116545425</v>
       </c>
       <c r="V66" t="n">
-        <v>-0.07551113098301458</v>
+        <v>-0.4090943614751425</v>
       </c>
       <c r="W66" t="n">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-1.523304892265357</v>
+        <v>-1.42250171433268</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.1050839765515433</v>
+        <v>-0.5599199022770904</v>
       </c>
       <c r="C67" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.5797966914457531</v>
+        <v>-0.26118249785433</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4807692307692308</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4413313309736011</v>
+        <v>-0.2903806045510327</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2049542670375159</v>
+        <v>2.929301194794313</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.337169561433911</v>
+        <v>0.6263635404519634</v>
       </c>
       <c r="I67" t="n">
-        <v>0.4714899863527092</v>
+        <v>-1.038112738116467</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.2954078075612263</v>
+        <v>0.08840091922792893</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.4160143124943125</v>
+        <v>-0.4037528553546124</v>
       </c>
       <c r="L67" t="n">
-        <v>2.970879049248902</v>
+        <v>1.14233945741328</v>
       </c>
       <c r="M67" t="n">
-        <v>1.337128082033634</v>
+        <v>-0.5293624482522743</v>
       </c>
       <c r="N67" t="n">
-        <v>-0.2821781865520522</v>
+        <v>-0.2895743183174899</v>
       </c>
       <c r="O67" t="n">
-        <v>-0.2153998578624634</v>
+        <v>-0.225496732641197</v>
       </c>
       <c r="P67" t="n">
-        <v>-0.1496294598427021</v>
+        <v>-0.7595363061575515</v>
       </c>
       <c r="Q67" t="n">
-        <v>-0.1433133602336416</v>
+        <v>-1.625693243178091</v>
       </c>
       <c r="R67" t="n">
-        <v>-0.6306582583710124</v>
+        <v>1.391189586521363</v>
       </c>
       <c r="S67" t="n">
-        <v>0.05263037615918255</v>
+        <v>0.4833366425550029</v>
       </c>
       <c r="T67" t="n">
-        <v>-0.5897195032488313</v>
+        <v>-0.01850697838322358</v>
       </c>
       <c r="U67" t="n">
-        <v>-0.2114901968285938</v>
+        <v>-0.5613275825315923</v>
       </c>
       <c r="V67" t="n">
-        <v>-0.3975600253618553</v>
+        <v>0.06740664603330909</v>
       </c>
       <c r="W67" t="n">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-1.436743998345436</v>
+        <v>-1.152383789554315</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.5748549203470105</v>
+        <v>-1.044103764157248</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.2250737267459371</v>
+        <v>-0.1157796629217057</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5142857142857142</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.2875787368522831</v>
+        <v>-0.6205448964646325</v>
       </c>
       <c r="G68" t="n">
-        <v>2.867036650060447</v>
+        <v>0.2587856438289992</v>
       </c>
       <c r="H68" t="n">
-        <v>0.6335647454838742</v>
+        <v>0.1256565270242413</v>
       </c>
       <c r="I68" t="n">
-        <v>-1.049376341798703</v>
+        <v>-0.2502559464482947</v>
       </c>
       <c r="J68" t="n">
-        <v>0.09036945614021333</v>
+        <v>1.958185906211379</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.3929564470103438</v>
+        <v>0.3499431180619983</v>
       </c>
       <c r="L68" t="n">
-        <v>1.149101537750212</v>
+        <v>-0.4174584536599252</v>
       </c>
       <c r="M68" t="n">
-        <v>-0.503210919978993</v>
+        <v>-0.3667907339171373</v>
       </c>
       <c r="N68" t="n">
-        <v>-0.2888606372762064</v>
+        <v>-0.07179172071888026</v>
       </c>
       <c r="O68" t="n">
-        <v>-0.2234874263512652</v>
+        <v>-0.1627235324779617</v>
       </c>
       <c r="P68" t="n">
-        <v>-0.7746188799922692</v>
+        <v>-0.6860867382636053</v>
       </c>
       <c r="Q68" t="n">
-        <v>-1.601778524198237</v>
+        <v>-0.0629673325140115</v>
       </c>
       <c r="R68" t="n">
-        <v>1.398633689551598</v>
+        <v>-0.905523797077819</v>
       </c>
       <c r="S68" t="n">
-        <v>0.501297755314749</v>
+        <v>-0.7462964152972418</v>
       </c>
       <c r="T68" t="n">
-        <v>-0.02391279252903345</v>
+        <v>1.781795107858373</v>
       </c>
       <c r="U68" t="n">
-        <v>-0.5745872771360993</v>
+        <v>0.3022384917008036</v>
       </c>
       <c r="V68" t="n">
-        <v>0.07987014688981968</v>
+        <v>1.104481633523457</v>
       </c>
       <c r="W68" t="n">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-1.166462023452624</v>
+        <v>-1.385426705049375</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.044625864142478</v>
+        <v>0.4084478214832239</v>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.08331702376599232</v>
+        <v>0.8996620978577704</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4821428571428572</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6198349688648432</v>
+        <v>-0.3321007855938224</v>
       </c>
       <c r="G69" t="n">
-        <v>0.2318061840936094</v>
+        <v>1.055794674209996</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1294507964331773</v>
+        <v>-0.2101972774423168</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.2693812955341301</v>
+        <v>0.6457752012997185</v>
       </c>
       <c r="J69" t="n">
-        <v>1.973340023408897</v>
+        <v>-0.09617191269059069</v>
       </c>
       <c r="K69" t="n">
-        <v>0.362372520252861</v>
+        <v>-0.7219564674699824</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.4217028931367671</v>
+        <v>0.09285091095333106</v>
       </c>
       <c r="M69" t="n">
-        <v>-0.3421561007328414</v>
+        <v>-1.110847939047773</v>
       </c>
       <c r="N69" t="n">
-        <v>-0.06958546212619086</v>
+        <v>-0.1929540793111404</v>
       </c>
       <c r="O69" t="n">
-        <v>-0.1602955354929587</v>
+        <v>-0.231926286971388</v>
       </c>
       <c r="P69" t="n">
-        <v>-0.7011848053750172</v>
+        <v>-0.1783462465498436</v>
       </c>
       <c r="Q69" t="n">
-        <v>-0.04500501704797414</v>
+        <v>-0.1793117362414198</v>
       </c>
       <c r="R69" t="n">
-        <v>-0.9144184554996945</v>
+        <v>0.9421739108212156</v>
       </c>
       <c r="S69" t="n">
-        <v>-0.6980020916897542</v>
+        <v>-0.6417900323103859</v>
       </c>
       <c r="T69" t="n">
-        <v>1.78780242962157</v>
+        <v>1.928957342838156</v>
       </c>
       <c r="U69" t="n">
-        <v>0.2909038436721282</v>
+        <v>1.601895651571942</v>
       </c>
       <c r="V69" t="n">
-        <v>1.118967404006412</v>
+        <v>0.4056883336569541</v>
       </c>
       <c r="W69" t="n">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-1.399646472379756</v>
+        <v>-1.325400499543072</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3646869672439239</v>
+        <v>-0.3178279713370118</v>
       </c>
       <c r="C70" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9066614463439531</v>
+        <v>-0.1293687129154087</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5818181818181818</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.3295632593814081</v>
+        <v>0.5148501227623029</v>
       </c>
       <c r="G70" t="n">
-        <v>1.018284464570761</v>
+        <v>0.4278972497531811</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.2086882412333626</v>
+        <v>0.7486132235864381</v>
       </c>
       <c r="I70" t="n">
-        <v>0.6177086730150919</v>
+        <v>1.222734131257292</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.09550496922925221</v>
+        <v>1.055348563360826</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.7118494943341743</v>
+        <v>1.293264582862591</v>
       </c>
       <c r="L70" t="n">
-        <v>0.09220740599043882</v>
+        <v>0.1913692465267316</v>
       </c>
       <c r="M70" t="n">
-        <v>-1.079270789909809</v>
+        <v>0.3289930110163918</v>
       </c>
       <c r="N70" t="n">
-        <v>-0.1915782094570568</v>
+        <v>-0.06682988907324589</v>
       </c>
       <c r="O70" t="n">
-        <v>-0.229959865137952</v>
+        <v>-0.2047814551289427</v>
       </c>
       <c r="P70" t="n">
-        <v>-0.1935514152297532</v>
+        <v>-0.2535037097454452</v>
       </c>
       <c r="Q70" t="n">
-        <v>-0.1609062663918568</v>
+        <v>1.199958696118266</v>
       </c>
       <c r="R70" t="n">
-        <v>0.9464237275874732</v>
+        <v>0.08798117274555835</v>
       </c>
       <c r="S70" t="n">
-        <v>-0.5960737250711409</v>
+        <v>-0.7933272654152598</v>
       </c>
       <c r="T70" t="n">
-        <v>1.935897609467291</v>
+        <v>-0.1396745206546846</v>
       </c>
       <c r="U70" t="n">
-        <v>1.593458176834365</v>
+        <v>-1.078161955270401</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4188114751279967</v>
+        <v>-0.04251001201216165</v>
       </c>
       <c r="W70" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-1.339583811292465</v>
+        <v>-1.373068368621607</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.3399694484492768</v>
+        <v>-0.8020118332171691</v>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.09656531376411788</v>
+        <v>-0.4211935615301861</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4901960784313725</v>
+        <v>0.525</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5227539790426117</v>
+        <v>-0.086091202426649</v>
       </c>
       <c r="G71" t="n">
-        <v>0.3986833460404453</v>
+        <v>0.2281431201711834</v>
       </c>
       <c r="H71" t="n">
-        <v>0.7566462460069591</v>
+        <v>0.5945815344612282</v>
       </c>
       <c r="I71" t="n">
-        <v>1.188910333042865</v>
+        <v>0.4299043734719135</v>
       </c>
       <c r="J71" t="n">
-        <v>1.064135940878897</v>
+        <v>-0.1817643410528086</v>
       </c>
       <c r="K71" t="n">
-        <v>1.307737830584957</v>
+        <v>-0.6681271784906585</v>
       </c>
       <c r="L71" t="n">
-        <v>0.1914209239363831</v>
+        <v>0.890075193622162</v>
       </c>
       <c r="M71" t="n">
-        <v>0.3471355496195248</v>
+        <v>-0.7738392794196495</v>
       </c>
       <c r="N71" t="n">
-        <v>-0.06458962446442024</v>
+        <v>-0.3216504308892678</v>
       </c>
       <c r="O71" t="n">
-        <v>-0.2026339800995225</v>
+        <v>-0.2118430015184387</v>
       </c>
       <c r="P71" t="n">
-        <v>-0.2686930248892987</v>
+        <v>0.3182015885579632</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.21311054208404</v>
+        <v>0.7235570859482318</v>
       </c>
       <c r="R71" t="n">
-        <v>0.08615428378039741</v>
+        <v>-0.9469340384413627</v>
       </c>
       <c r="S71" t="n">
-        <v>-0.7438727609848281</v>
+        <v>0.1507912004901707</v>
       </c>
       <c r="T71" t="n">
-        <v>-0.145848484567288</v>
+        <v>-1.485529303300337</v>
       </c>
       <c r="U71" t="n">
-        <v>-1.092573768131056</v>
+        <v>-0.3129086757637718</v>
       </c>
       <c r="V71" t="n">
-        <v>-0.03026084581966954</v>
+        <v>-0.2972688885426102</v>
       </c>
       <c r="W71" t="n">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-1.387280630391196</v>
+        <v>-1.436625527392986</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.809740392244744</v>
+        <v>-0.8020118332171691</v>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.3810723414738679</v>
+        <v>-1.690410830942069</v>
       </c>
       <c r="E72" t="n">
-        <v>0.525</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.08199494522981141</v>
+        <v>-0.09374922244910472</v>
       </c>
       <c r="G72" t="n">
-        <v>0.2015685350868485</v>
+        <v>0.3692743843096558</v>
       </c>
       <c r="H72" t="n">
-        <v>0.6015664867835191</v>
+        <v>-0.7766402067459964</v>
       </c>
       <c r="I72" t="n">
-        <v>0.4039919441382562</v>
+        <v>-0.798794870337045</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.1817009888299467</v>
+        <v>-0.6767264635287338</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.6579035762354573</v>
+        <v>-0.7054270424755482</v>
       </c>
       <c r="L72" t="n">
-        <v>0.8950572025806077</v>
+        <v>0.3281855086174435</v>
       </c>
       <c r="M72" t="n">
-        <v>-0.7454066304355168</v>
+        <v>0.4570495927457737</v>
       </c>
       <c r="N72" t="n">
-        <v>-0.3211565841510412</v>
+        <v>-0.191928465232986</v>
       </c>
       <c r="O72" t="n">
-        <v>-0.2097426262666054</v>
+        <v>-0.1641175640511323</v>
       </c>
       <c r="P72" t="n">
-        <v>0.3028916792618486</v>
+        <v>-0.9383993171821855</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.738523539708637</v>
+        <v>-1.017559546565184</v>
       </c>
       <c r="R72" t="n">
-        <v>-0.9561232882825005</v>
+        <v>0.6936059526873669</v>
       </c>
       <c r="S72" t="n">
-        <v>0.1769557125861601</v>
+        <v>0.5548735580538722</v>
       </c>
       <c r="T72" t="n">
-        <v>-1.500235403939054</v>
+        <v>0.0160932349004682</v>
       </c>
       <c r="U72" t="n">
-        <v>-0.3256145992323871</v>
+        <v>0.459134640567942</v>
       </c>
       <c r="V72" t="n">
-        <v>-0.2855164956252325</v>
+        <v>0.04632871199919873</v>
       </c>
       <c r="W72" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>-1.450876389189505</v>
-      </c>
-      <c r="B73" t="n">
-        <v>-0.809740392244744</v>
-      </c>
-      <c r="C73" t="n">
-        <v>2</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-1.61846262729881</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="F73" t="n">
-        <v>-0.08970148691119871</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.3408350549255664</v>
-      </c>
-      <c r="H73" t="n">
-        <v>-0.7789853897560137</v>
-      </c>
-      <c r="I73" t="n">
-        <v>-0.8124465427227701</v>
-      </c>
-      <c r="J73" t="n">
-        <v>-0.6801535462219127</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-0.695284255894723</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0.3292026129512225</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.473997283888929</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-0.1905455663115374</v>
-      </c>
-      <c r="O73" t="n">
-        <v>-0.1616988651112632</v>
-      </c>
-      <c r="P73" t="n">
-        <v>-0.9534441620798977</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>-0.9959612012551378</v>
-      </c>
-      <c r="R73" t="n">
-        <v>0.6960874632289172</v>
-      </c>
-      <c r="S73" t="n">
-        <v>0.5710699619621709</v>
-      </c>
-      <c r="T73" t="n">
-        <v>0.01090677112907898</v>
-      </c>
-      <c r="U73" t="n">
-        <v>0.4481497427241686</v>
-      </c>
-      <c r="V73" t="n">
-        <v>0.05875111142495498</v>
-      </c>
-      <c r="W73" t="n">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/bdi_df.xlsx
+++ b/data/bdi_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,70 +552,70 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.00188971362848</v>
+        <v>2.881352847779453</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.9651712868512109</v>
+        <v>-0.8215748851764074</v>
       </c>
       <c r="C2" t="n">
         <v>-2</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.435614944757718</v>
+        <v>-1.637125550894016</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3000962239465373</v>
+        <v>-0.3460408780418054</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5360240825949537</v>
+        <v>0.9130908103356795</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.7567325263684405</v>
+        <v>-0.7121444073978351</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4153559919225643</v>
+        <v>-0.3104605479615977</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1466332563688693</v>
+        <v>-0.1887843877035121</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9235749446626996</v>
+        <v>0.9302438279929099</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.2519816204638987</v>
+        <v>-0.2380055681847404</v>
       </c>
       <c r="L2" t="n">
-        <v>1.189028069510637</v>
+        <v>1.393374620640152</v>
       </c>
       <c r="M2" t="n">
-        <v>1.769448895861979</v>
+        <v>1.875547608129817</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2776266407671881</v>
+        <v>0.2627908116511019</v>
       </c>
       <c r="O2" t="n">
-        <v>1.301978023695387</v>
+        <v>1.386157555883748</v>
       </c>
       <c r="P2" t="n">
-        <v>1.457537485716421</v>
+        <v>1.092782758553527</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4154134474612163</v>
+        <v>0.3683137368357274</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2388351415799878</v>
+        <v>0.2473423722200958</v>
       </c>
       <c r="S2" t="n">
-        <v>0.08153964312584111</v>
+        <v>-0.02833274526643758</v>
       </c>
       <c r="T2" t="n">
-        <v>0.09516934051108498</v>
+        <v>-0.02478223944058727</v>
       </c>
       <c r="U2" t="n">
         <v>0.2285714285714286</v>
       </c>
       <c r="V2" t="n">
-        <v>0.524138445679125</v>
+        <v>0.540453139517747</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -623,70 +623,70 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.721143001758804</v>
+        <v>0.2251009993537661</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.05471565378605836</v>
+        <v>-0.1375768409494079</v>
       </c>
       <c r="C3" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4702437529857004</v>
+        <v>-0.6552894109440662</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1286231997965802</v>
+        <v>0.188499111708341</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01721584376201906</v>
+        <v>0.1946456116361048</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.5735847213677064</v>
+        <v>-0.5315687497435766</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.2966951855766424</v>
+        <v>-0.1820270231592429</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.619908980321374</v>
+        <v>-0.6362767477734488</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8242931763071185</v>
+        <v>0.7448714430237003</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.1964333255318252</v>
+        <v>-0.1713194472420711</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9785996901381629</v>
+        <v>1.39092029176687</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9317832698105326</v>
+        <v>0.8057500902516864</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.064054787466205</v>
+        <v>-0.9384285130372401</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2525767872564915</v>
+        <v>0.3135462094663964</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3855935893919611</v>
+        <v>0.203019381412521</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2628118771714501</v>
+        <v>0.2300960488570712</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.2822561006304733</v>
+        <v>-0.2834614636903312</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1835365027465626</v>
+        <v>0.06423062859769574</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3845692011822703</v>
+        <v>0.2646100495851233</v>
       </c>
       <c r="U3" t="n">
         <v>0.4666666666666667</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.2600116668170659</v>
+        <v>-0.3477711557931266</v>
       </c>
       <c r="W3" t="n">
         <v>1</v>
@@ -694,70 +694,70 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.66534241306421</v>
+        <v>1.208109365437821</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.05471565378605836</v>
+        <v>-0.1375768409494079</v>
       </c>
       <c r="C4" t="n">
-        <v>-18</v>
+        <v>-8.428571428571427</v>
       </c>
       <c r="D4" t="n">
-        <v>1.119859536778513</v>
+        <v>0.9619339840052517</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3955379943489176</v>
+        <v>-0.4650404851209404</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1084940052136532</v>
+        <v>0.02056272191757119</v>
       </c>
       <c r="G4" t="n">
-        <v>2.57996709666534</v>
+        <v>2.518279455314048</v>
       </c>
       <c r="H4" t="n">
-        <v>2.904681654790477</v>
+        <v>3.234659405588769</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3487735277665506</v>
+        <v>-0.310885933133704</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.8270061433989225</v>
+        <v>-0.7648723647229402</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.2546075510318384</v>
+        <v>-0.2411580164039848</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1774343201714863</v>
+        <v>0.4214095502791347</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.3757576157262179</v>
+        <v>-0.4205879165595344</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1966374839411189</v>
+        <v>0.06124864077827379</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8789277912394859</v>
+        <v>0.9537505187274511</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.28566054851609</v>
+        <v>-1.184199418848134</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1.249393223351584</v>
+        <v>-1.139571985010087</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.9084822937881802</v>
+        <v>-0.9213598556603156</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.7347373948231131</v>
+        <v>-0.7691139508970694</v>
       </c>
       <c r="T4" t="n">
-        <v>-1.390504304274793</v>
+        <v>-1.510417014152017</v>
       </c>
       <c r="U4" t="n">
         <v>0.5945945945945946</v>
       </c>
       <c r="V4" t="n">
-        <v>-1.351010473046732</v>
+        <v>-1.583569799962877</v>
       </c>
       <c r="W4" t="n">
         <v>3</v>
@@ -765,70 +765,70 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.82053780037105</v>
+        <v>1.47959001527692</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.3582008648077759</v>
+        <v>-0.3655761890250744</v>
       </c>
       <c r="C5" t="n">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1524274784891262</v>
+        <v>-0.3320526012851736</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1394203111867112</v>
+        <v>0.201961267822989</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6357529650652055</v>
+        <v>1.05119528019453</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2247381342346565</v>
+        <v>-0.1876214013615327</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.914605015330037</v>
+        <v>-0.8508269402430603</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1250383815556992</v>
+        <v>-0.04238042858567381</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.5027562211958203</v>
+        <v>-0.4508958815073365</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.879345963617687</v>
+        <v>-0.9911608993039229</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.9936227411969487</v>
+        <v>-1.020801328766521</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.3920898751157809</v>
+        <v>-0.4359058853114627</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.433473619985036</v>
+        <v>-1.231362463243837</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.3232135564003413</v>
+        <v>-0.2749791651173666</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3107663171263267</v>
+        <v>-0.374991785266827</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.8029607835919428</v>
+        <v>-0.7352192673736927</v>
       </c>
       <c r="R5" t="n">
-        <v>-1.020288532055277</v>
+        <v>-1.035250044831679</v>
       </c>
       <c r="S5" t="n">
-        <v>-1.181171942435751</v>
+        <v>-1.174258659177271</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.2387157205292083</v>
+        <v>-0.3586585649572847</v>
       </c>
       <c r="U5" t="n">
         <v>0.5471698113207547</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4441239071565597</v>
+        <v>0.4498188898233995</v>
       </c>
       <c r="W5" t="n">
         <v>4</v>
@@ -836,70 +836,70 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.445627595079246</v>
+        <v>0.5604594491550053</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2487695572356592</v>
+        <v>0.09042250712625868</v>
       </c>
       <c r="C6" t="n">
-        <v>-9</v>
+        <v>-4.5</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.294930999026652</v>
+        <v>-1.494042161409426</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.9644776431476888</v>
+        <v>-1.174411176521132</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6131868173884508</v>
+        <v>-0.6783354462010182</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9960799330296439</v>
+        <v>1.016051366497019</v>
       </c>
       <c r="H6" t="n">
-        <v>0.10576059837032</v>
+        <v>0.2535743898188495</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.162192671221839</v>
+        <v>-1.287073721335108</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.9345427651783625</v>
+        <v>-0.8690018278660221</v>
       </c>
       <c r="K6" t="n">
-        <v>1.093784984191644</v>
+        <v>0.8437972537336406</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.8651935529425701</v>
+        <v>-0.8626348494396922</v>
       </c>
       <c r="M6" t="n">
-        <v>1.136422530556637</v>
+        <v>1.281834402160867</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1192978919683475</v>
+        <v>-0.1892751266326596</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1238413857462552</v>
+        <v>0.1819635053959757</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.6024213219781227</v>
+        <v>-0.6170790278611568</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.5671031705441248</v>
+        <v>0.5057055262834422</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1302612189351604</v>
+        <v>0.1367447456408338</v>
       </c>
       <c r="S6" t="n">
-        <v>-1.165536284230855</v>
+        <v>-1.1600691117597</v>
       </c>
       <c r="T6" t="n">
-        <v>0.4074799305123702</v>
+        <v>0.2875201794957223</v>
       </c>
       <c r="U6" t="n">
         <v>0.9166666666666666</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1846878791274918</v>
+        <v>0.1559499232797134</v>
       </c>
       <c r="W6" t="n">
         <v>5</v>
@@ -907,70 +907,70 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.637442118716913</v>
+        <v>1.131810882149709</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.05471565378605836</v>
+        <v>-0.1375768409494079</v>
       </c>
       <c r="C7" t="n">
-        <v>-7</v>
+        <v>-5.5</v>
       </c>
       <c r="D7" t="n">
-        <v>1.002339049424473</v>
+        <v>0.8424091186973002</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.175458305019926</v>
+        <v>-1.437468072450904</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.156190747203248</v>
+        <v>-1.430286816765253</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2097321985511819</v>
+        <v>0.2407471836387237</v>
       </c>
       <c r="H7" t="n">
-        <v>1.487721960564752</v>
+        <v>1.749351928780388</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.107388035893072</v>
+        <v>-1.221302444404601</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.145943862156647</v>
+        <v>-1.073704954781768</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.8089617170374125</v>
+        <v>-0.9066641134772756</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05064169897799319</v>
+        <v>0.2652585789043598</v>
       </c>
       <c r="M7" t="n">
-        <v>2.033125883719776</v>
+        <v>1.838695461901222</v>
       </c>
       <c r="N7" t="n">
-        <v>1.06932854471359</v>
+        <v>0.7532567823205284</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6351174051838355</v>
+        <v>0.7045476615389814</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.1903669093730333</v>
+        <v>-0.2750546672742993</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4642032676235401</v>
+        <v>0.4125047377993857</v>
       </c>
       <c r="R7" t="n">
-        <v>1.48703783646606</v>
+        <v>1.518810254943914</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1108722361131807</v>
+        <v>-0.001713065197974312</v>
       </c>
       <c r="T7" t="n">
-        <v>-1.162277940883548</v>
+        <v>-1.282196621907778</v>
       </c>
       <c r="U7" t="n">
         <v>0.7647058823529411</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8629588740949351</v>
+        <v>0.924242584256267</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
@@ -978,2416 +978,4191 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.100361452531445</v>
+        <v>2.334842781436693</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.6616860758294935</v>
+        <v>-1.505572929403407</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3271923655528646</v>
+        <v>0.2052896192731796</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04592254781837765</v>
+        <v>-1.217146820552918</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5789552848037449</v>
+        <v>-0.9964379945314628</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3456194591252263</v>
+        <v>-1.183760747039207</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.1235507773060737</v>
+        <v>0.04229178844277625</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.07050503942552834</v>
+        <v>-1.037529664588181</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.9269928648063686</v>
+        <v>-0.6535997783627469</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.1436898512428292</v>
+        <v>-1.391007461634448</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.411052730796096</v>
+        <v>-1.126697463665979</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.4038257302162088</v>
+        <v>2.638091362111393</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4603211763339245</v>
+        <v>1.687856691164673</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.4204737900533947</v>
+        <v>-1.949736247107069</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.7077964089680351</v>
+        <v>1.411545460335417</v>
       </c>
       <c r="Q8" t="n">
-        <v>-1.088873153788466</v>
+        <v>1.666407448391726</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4238718120903537</v>
+        <v>-0.05724640610434314</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.09604215609981624</v>
+        <v>-1.113935945518029</v>
       </c>
       <c r="T8" t="n">
-        <v>1.342430961111578</v>
+        <v>1.097279902689631</v>
       </c>
       <c r="U8" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V8" t="n">
-        <v>3.230630211204901</v>
+        <v>-0.1894762642706583</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.222425240300869</v>
+        <v>-0.7579073667302891</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8557399792790942</v>
+        <v>0.7744205513532583</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>-3.666666666666666</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.16208175245252</v>
+        <v>0.4017261370401587</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.785017303644866</v>
+        <v>-0.6559997415131086</v>
       </c>
       <c r="F9" t="n">
-        <v>1.238830831966637</v>
+        <v>-0.662176130769526</v>
       </c>
       <c r="G9" t="n">
-        <v>2.57996709666534</v>
+        <v>1.34972819788703</v>
       </c>
       <c r="H9" t="n">
-        <v>1.503145224475399</v>
+        <v>0.0582445110583442</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.416911779995404</v>
+        <v>-1.419881259403315</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.1909394836661915</v>
+        <v>-1.360648582276545</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6745803048647041</v>
+        <v>-1.072637179698391</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.2514844940973292</v>
+        <v>-1.351170721587043</v>
       </c>
       <c r="M9" t="n">
-        <v>-1.177477651574937</v>
+        <v>1.79720087508033</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.7799480633327776</v>
+        <v>3.246549519311706</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4479525532159343</v>
+        <v>-0.04613316384682838</v>
       </c>
       <c r="P9" t="n">
-        <v>2.281930650158372</v>
+        <v>-0.9969660852077162</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.4142967100464849</v>
+        <v>0.6010393939983633</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.7710560037055249</v>
+        <v>-1.111405335871543</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.3508580640912045</v>
+        <v>-1.713667106659734</v>
       </c>
       <c r="T9" t="n">
-        <v>-1.528801420929552</v>
+        <v>0.572891551892195</v>
       </c>
       <c r="U9" t="n">
         <v>0.5471698113207547</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.2565219176655713</v>
+        <v>1.648815789554687</v>
       </c>
       <c r="W9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.835308656232123</v>
+        <v>1.596699315207511</v>
       </c>
       <c r="B10" t="n">
-        <v>2.6766512454094</v>
+        <v>-0.8215748851764074</v>
       </c>
       <c r="C10" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7049440885999984</v>
+        <v>0.5867298416037712</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6579753628248302</v>
+        <v>1.260345004727625</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4898849779332125</v>
+        <v>0.3670486837629502</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.5036963867449181</v>
+        <v>0.07146572476767286</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.298041548830267</v>
+        <v>0.09952982323245714</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5551510004922363</v>
+        <v>0.2259071157749196</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02233815034962127</v>
+        <v>0.530965579532199</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1649841262815107</v>
+        <v>-0.5270976374050855</v>
       </c>
       <c r="L10" t="n">
-        <v>1.852876491154905</v>
+        <v>0.2772094134427635</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.04046737891205537</v>
+        <v>0.1649157223685536</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.764950771497333</v>
+        <v>0.04056190514701026</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.214858816404823</v>
+        <v>-1.507980041520281</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.3523934490894758</v>
+        <v>-0.3308986467456999</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2954449892792804</v>
+        <v>0.5016432989740213</v>
       </c>
       <c r="R10" t="n">
-        <v>1.548133853175763</v>
+        <v>-2.009723627542282</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.180489817322396</v>
+        <v>0.05728437900673415</v>
       </c>
       <c r="T10" t="n">
-        <v>1.509637941358048</v>
+        <v>0.6884491735550343</v>
       </c>
       <c r="U10" t="n">
-        <v>0.3953488372093023</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="V10" t="n">
-        <v>0.04741860006843301</v>
+        <v>-0.4567314838395575</v>
       </c>
       <c r="W10" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.831821119438711</v>
+        <v>1.381998932001427</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.9651712868512109</v>
+        <v>-0.593575537100741</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.06931153960684915</v>
+        <v>0.1557474287252464</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.13166201706859</v>
+        <v>-0.1702223894236966</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.9252870344536153</v>
+        <v>-0.338072051454292</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1258388550136161</v>
+        <v>-0.278451647295738</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1849691437668532</v>
+        <v>1.117289205978738</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.010865019438304</v>
+        <v>-0.03543968264941252</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.562416976461032</v>
+        <v>-0.8880103353175527</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.365961358062084</v>
+        <v>-0.1645973296978942</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.8981109919216211</v>
+        <v>-0.288749575640312</v>
       </c>
       <c r="M11" t="n">
-        <v>1.299317397758072</v>
+        <v>-0.4282469009354987</v>
       </c>
       <c r="N11" t="n">
-        <v>1.746328355834755</v>
+        <v>0.03871628861710913</v>
       </c>
       <c r="O11" t="n">
-        <v>-1.413578947437786</v>
+        <v>-0.3743905499614346</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.2336446734808801</v>
+        <v>-0.7045452596183946</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2988154716993098</v>
+        <v>-0.9941821777685357</v>
       </c>
       <c r="R11" t="n">
-        <v>0.04039231789351852</v>
+        <v>0.4358279320125728</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6750148436855949</v>
+        <v>-0.1894903586901606</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.60888125971513</v>
+        <v>1.222446748722615</v>
       </c>
       <c r="U11" t="n">
-        <v>0.5849056603773585</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.703266702593785</v>
+        <v>3.606156635429051</v>
       </c>
       <c r="W11" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.7219637104462284</v>
+        <v>2.166276364869933</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.9651712868512109</v>
+        <v>1.914417291731591</v>
       </c>
       <c r="C12" t="n">
-        <v>-21</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.345686223999845</v>
+        <v>1.486111146935482</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.389362291681076</v>
+        <v>-1.248402441819502</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5136169540452942</v>
+        <v>-0.1461925088402087</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3506486169170803</v>
+        <v>1.002446518958817</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.4449989295467305</v>
+        <v>-0.1258656184423544</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6351591898378187</v>
+        <v>0.3697833380498239</v>
       </c>
       <c r="J12" t="n">
-        <v>-1.292609703942014</v>
+        <v>-0.09017106671247402</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5014960065734438</v>
+        <v>0.5491378744737059</v>
       </c>
       <c r="L12" t="n">
-        <v>2.04668136981617</v>
+        <v>-0.1686952274348839</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.2224369574136321</v>
+        <v>-0.2225747587447719</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9114336354287854</v>
+        <v>-0.168325184226864</v>
       </c>
       <c r="O12" t="n">
-        <v>-2.023923551698631</v>
+        <v>0.780504953914915</v>
       </c>
       <c r="P12" t="n">
-        <v>1.204497516758707</v>
+        <v>2.61334105788171</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.719425402428013</v>
+        <v>1.418271022264584</v>
       </c>
       <c r="R12" t="n">
-        <v>2.425892283230851</v>
+        <v>-0.7059886605631207</v>
       </c>
       <c r="S12" t="n">
-        <v>1.408380087701716</v>
+        <v>1.491527727459763</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8995544428744715</v>
+        <v>0.6531260377911204</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="V12" t="n">
-        <v>3.103051474782812</v>
+        <v>0.873579782018057</v>
       </c>
       <c r="W12" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.8440274982156533</v>
+        <v>-0.7721024333885427</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.05471565378605836</v>
+        <v>0.5464212032775918</v>
       </c>
       <c r="C13" t="n">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.7103943141004755</v>
+        <v>-1.358927096278699</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6700835659845658</v>
+        <v>-0.9506547457980964</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1911502217792997</v>
+        <v>1.573027695767691</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.7641261415132824</v>
+        <v>2.518279455314048</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.2966951855766424</v>
+        <v>1.756979653198351</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.3349652975106306</v>
+        <v>-0.392658940654334</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.1097837950626567</v>
+        <v>-0.1489586536057314</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.6396885534762777</v>
+        <v>0.8743385764716055</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.3017233237831436</v>
+        <v>-0.1068237874226129</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.225887779034479</v>
+        <v>-1.172518323982121</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.1249455470142785</v>
+        <v>-0.7131435582524334</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.5236233970721328</v>
+        <v>0.5132431948580101</v>
       </c>
       <c r="P13" t="n">
-        <v>0.002021534430101085</v>
+        <v>1.777067494537329</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.087010776165647</v>
+        <v>0.3673022605891178</v>
       </c>
       <c r="R13" t="n">
-        <v>1.249224383645178</v>
+        <v>-0.7813720838041335</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.7698106159436512</v>
+        <v>-0.4207388524736266</v>
       </c>
       <c r="T13" t="n">
-        <v>2.120588341703075</v>
+        <v>-1.648710512502555</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.71549926238999</v>
+        <v>-0.3438182392131228</v>
       </c>
       <c r="W13" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.3871601782786641</v>
+        <v>-0.3675430336283178</v>
       </c>
       <c r="B14" t="n">
-        <v>1.462710401322529</v>
+        <v>0.5464212032775918</v>
       </c>
       <c r="C14" t="n">
-        <v>-12</v>
+        <v>-5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1616417659758707</v>
+        <v>0.5205581045782084</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.601092121485547</v>
+        <v>-0.381412676774599</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8555673941560763</v>
+        <v>-1.673494488979732</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2511749202182245</v>
+        <v>-0.5199720638000603</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.3601525646344749</v>
+        <v>-0.9048846684325782</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5016416559853079</v>
+        <v>-0.6387895639992888</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2922179589813812</v>
+        <v>-1.348386138172249</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.02112812438487266</v>
+        <v>-0.3260233062364664</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.4014485156791894</v>
+        <v>-1.152485223926034</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.8532409168728272</v>
+        <v>0.5462873773217767</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.5992649184697199</v>
+        <v>0.5039596861431289</v>
       </c>
       <c r="O14" t="n">
-        <v>-1.008849309494338</v>
+        <v>0.4900139019981973</v>
       </c>
       <c r="P14" t="n">
-        <v>1.763807164184246</v>
+        <v>0.7409977007638157</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.260526453296171</v>
+        <v>0.1202833568654855</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.207780430412169</v>
+        <v>-0.6163068830661338</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8747786339612995</v>
+        <v>1.459376180354594</v>
       </c>
       <c r="T14" t="n">
-        <v>0.9764162368713301</v>
+        <v>1.619645535399312</v>
       </c>
       <c r="U14" t="n">
-        <v>0.6875</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.3210633577419126</v>
+        <v>-0.07888090006029408</v>
       </c>
       <c r="W14" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2807903060795943</v>
+        <v>0.4149600159079067</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.572141708894646</v>
+        <v>0.3184218552019252</v>
       </c>
       <c r="C15" t="n">
-        <v>-17</v>
+        <v>-6.726027397260275</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4617448075958939</v>
+        <v>-1.312502945695321</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2027600254966023</v>
+        <v>-0.7859225325807511</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9065372754813277</v>
+        <v>1.501798775609022</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.3256447429220922</v>
+        <v>-1.236977892952909</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.2448071946530805</v>
+        <v>-1.12523715248617</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.6320909259971041</v>
+        <v>0.6608762440392867</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.9351674857434337</v>
+        <v>1.99216203592378</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.8815184059425603</v>
+        <v>1.774614812981869</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.9628576508060468</v>
+        <v>2.578449240373676</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3962118974098369</v>
+        <v>-0.8664480943788595</v>
       </c>
       <c r="N15" t="n">
-        <v>0.695920211362224</v>
+        <v>-1.913020045412148</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.6011138978673028</v>
+        <v>-0.4711792652151055</v>
       </c>
       <c r="P15" t="n">
-        <v>1.402741477864727</v>
+        <v>2.552430719560355</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6817175870067118</v>
+        <v>0.8334856690306691</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4716676504490346</v>
+        <v>1.323793549057747</v>
       </c>
       <c r="S15" t="n">
-        <v>1.171025259466626</v>
+        <v>2.443230502616667</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9993847596588602</v>
+        <v>0.301801793333759</v>
       </c>
       <c r="U15" t="n">
-        <v>0.875</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.1422326329541151</v>
+        <v>0.419683001800029</v>
       </c>
       <c r="W15" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.02620012016050886</v>
+        <v>-0.1865559337355855</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.05471565378605836</v>
+        <v>-1.049574233252074</v>
       </c>
       <c r="C16" t="n">
-        <v>-4</v>
+        <v>-8.666666666666666</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.08974988523363869</v>
+        <v>0.6147922012847674</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.9480293667699717</v>
+        <v>-0.5394064857744827</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1911502217792997</v>
+        <v>-0.8146026692758266</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1228382037200913</v>
+        <v>-0.4255332179619221</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.2966951855766424</v>
+        <v>-1.638297371382176</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4834401860508091</v>
+        <v>1.209564736582346</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1097837950626567</v>
+        <v>2.058719045835134</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.2876450585269816</v>
+        <v>0.9525580376854655</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.3017233237831436</v>
+        <v>0.1570248919869403</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6964151150720354</v>
+        <v>-0.7264613059675498</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1249455470142785</v>
+        <v>-1.668186747193499</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6687919250030384</v>
+        <v>-1.288825398644019</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.5842523754343328</v>
+        <v>1.301917652126261</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.3508185574875068</v>
+        <v>1.002606469846383</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.6830099205244849</v>
+        <v>0.2619429834742742</v>
       </c>
       <c r="S16" t="n">
-        <v>-1.124118158331517</v>
+        <v>-0.2616491222387045</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.5064412850985515</v>
+        <v>0.3189887711334762</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1724137931034483</v>
+        <v>0.9</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.4222823715368401</v>
+        <v>1.004953669201278</v>
       </c>
       <c r="W16" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.1691019402705706</v>
+        <v>0.5640082158195687</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.9651712868512109</v>
+        <v>-1.27757358132774</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.878105127577708</v>
+        <v>-1.683896150362345</v>
       </c>
       <c r="E17" t="n">
-        <v>1.851771709870258</v>
+        <v>0.42204579033694</v>
       </c>
       <c r="F17" t="n">
-        <v>2.081789002943865</v>
+        <v>0.7836312417429572</v>
       </c>
       <c r="G17" t="n">
-        <v>1.440105289207577</v>
+        <v>-1.227406707171985</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6288263157712148</v>
+        <v>-1.531166630825625</v>
       </c>
       <c r="I17" t="n">
-        <v>0.59401518587865</v>
+        <v>2.218084929760625</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6265049483455986</v>
+        <v>1.413154378917037</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1113351073413604</v>
+        <v>0.9105600287731075</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.3194698864790203</v>
+        <v>-0.3192729750234694</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.4155615853166369</v>
+        <v>-1.413202345984608</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1292338869120905</v>
+        <v>-0.8400352169280793</v>
       </c>
       <c r="O17" t="n">
-        <v>1.994527080454506</v>
+        <v>-0.4028152090491087</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.5639026706714674</v>
+        <v>-0.3467597744499653</v>
       </c>
       <c r="Q17" t="n">
-        <v>-1.346533816125562</v>
+        <v>-0.1941069321789876</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.5168902292157812</v>
+        <v>1.124188855275301</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.8093403773254887</v>
+        <v>-0.9896574456723426</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.7653664822865019</v>
+        <v>-0.4340998236843743</v>
       </c>
       <c r="U17" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.5010478291412446</v>
+        <v>-0.202210820157615</v>
       </c>
       <c r="W17" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.07502563526827864</v>
+        <v>-0.8022669500373313</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.179112130938081</v>
+        <v>-0.1375768409494079</v>
       </c>
       <c r="C18" t="n">
-        <v>-5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D18" t="n">
-        <v>1.640696711167861</v>
+        <v>-0.5870389806088017</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.066709766452848</v>
+        <v>1.791521677420788</v>
       </c>
       <c r="F18" t="n">
-        <v>1.855490340338729</v>
+        <v>-1.57251392766577</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.124857807204177</v>
+        <v>-0.6920072648208805</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.3119075271671711</v>
+        <v>-0.2986788337646513</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.281378886543847</v>
+        <v>1.792749693542046</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7804504219346057</v>
+        <v>-0.8726672034165734</v>
       </c>
       <c r="K18" t="n">
-        <v>-1.225675734757102</v>
+        <v>-0.1905807883535179</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4254758761467742</v>
+        <v>-0.5344720704875859</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6372060747058729</v>
+        <v>-0.8481132048858554</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.7917927240205184</v>
+        <v>0.03255094355711765</v>
       </c>
       <c r="O18" t="n">
-        <v>1.112181280546269</v>
+        <v>0.06341917860815817</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2302418468150599</v>
+        <v>1.401064711847116</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.8494559330545652</v>
+        <v>-0.5313900806422569</v>
       </c>
       <c r="R18" t="n">
-        <v>0.7002875626542581</v>
+        <v>-0.563841830340393</v>
       </c>
       <c r="S18" t="n">
-        <v>1.074391347522146</v>
+        <v>1.57246298657052</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3965219389689387</v>
+        <v>-0.5028179457623144</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1896551724137931</v>
+        <v>0.6</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.2121049836563615</v>
+        <v>-0.3931018466109178</v>
       </c>
       <c r="W18" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1238511503760484</v>
+        <v>1.245371415415737</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2487695572356592</v>
+        <v>1.914417291731591</v>
       </c>
       <c r="C19" t="n">
-        <v>-15.18716577540107</v>
+        <v>-3.5</v>
       </c>
       <c r="D19" t="n">
-        <v>1.33650600042248</v>
+        <v>-0.8939926926750175</v>
       </c>
       <c r="E19" t="n">
-        <v>1.63399876570621</v>
+        <v>-0.7922551166166791</v>
       </c>
       <c r="F19" t="n">
-        <v>2.101913726773281</v>
+        <v>-0.5075871659757152</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.02156058730549609</v>
+        <v>-0.462661934361212</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.348825820513017</v>
+        <v>-1.265842707048721</v>
       </c>
       <c r="I19" t="n">
-        <v>1.073929355971688</v>
+        <v>0.5677868509539323</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5162339405078902</v>
+        <v>0.05756155470101055</v>
       </c>
       <c r="K19" t="n">
-        <v>1.100633150842068</v>
+        <v>0.2625647598589336</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.4119920331708868</v>
+        <v>1.79115543530976</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.226617650334243</v>
+        <v>-0.1061203803882646</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.3121639121159459</v>
+        <v>-1.49421021990437</v>
       </c>
       <c r="O19" t="n">
-        <v>1.704354355039474</v>
+        <v>-0.1642278914180027</v>
       </c>
       <c r="P19" t="n">
-        <v>-1.426915692767029</v>
+        <v>-0.4095442442557954</v>
       </c>
       <c r="Q19" t="n">
-        <v>-2.537444356758202</v>
+        <v>0.2596532368894612</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.0997628895085657</v>
+        <v>1.581045037264934</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.6497609915356333</v>
+        <v>-0.2661276244526968</v>
       </c>
       <c r="T19" t="n">
-        <v>-1.527930137273238</v>
+        <v>1.389649354288418</v>
       </c>
       <c r="U19" t="n">
-        <v>0.3829787234042553</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6471607986575697</v>
+        <v>0.000461953926579666</v>
       </c>
       <c r="W19" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.451592420536953</v>
+        <v>0.6598249157627799</v>
       </c>
       <c r="B20" t="n">
-        <v>1.223454864591123</v>
+        <v>-0.8215748851764074</v>
       </c>
       <c r="C20" t="n">
-        <v>9.211640211640212</v>
+        <v>-4.666666666666666</v>
       </c>
       <c r="D20" t="n">
-        <v>1.439379006743986</v>
+        <v>-0.2475190733572312</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7766577628046571</v>
+        <v>-1.382861572217714</v>
       </c>
       <c r="F20" t="n">
-        <v>1.773048909152429</v>
+        <v>-1.110531555823262</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.266599327657747</v>
+        <v>0.1580320471834992</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.1324322683379019</v>
+        <v>0.3393064271529588</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.7354329996958697</v>
+        <v>-1.105464760104162</v>
       </c>
       <c r="J20" t="n">
-        <v>1.195934693142974</v>
+        <v>-1.476982657655771</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.192818580834927</v>
+        <v>-0.3748390493164461</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.02728092066812967</v>
+        <v>-0.9031741964723925</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4993939114672648</v>
+        <v>1.150459058734353</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1854464346017314</v>
+        <v>1.290089806258835</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.7030416402411939</v>
+        <v>-1.389460689968948</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.1803908551731208</v>
+        <v>-0.3109772278483596</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.03497711393797815</v>
+        <v>0.2627060251837401</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.07846141713022492</v>
+        <v>0.04520078263043333</v>
       </c>
       <c r="S20" t="n">
-        <v>1.743451487686834</v>
+        <v>0.5102531197570351</v>
       </c>
       <c r="T20" t="n">
-        <v>0.3247249534232223</v>
+        <v>-1.728788256138026</v>
       </c>
       <c r="U20" t="n">
-        <v>0.8857142857142857</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.7598653477024526</v>
+        <v>-0.8498560060298658</v>
       </c>
       <c r="W20" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.1080700463858582</v>
+        <v>-0.1191293671088814</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.3582008648077759</v>
+        <v>0.09042250712625868</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="D21" t="n">
-        <v>0.329576839209323</v>
+        <v>-0.2475190733572312</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.5420848408775065</v>
+        <v>0.5031245747919081</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.7295231953810974</v>
+        <v>-0.367878483054811</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.3738201858958785</v>
+        <v>-0.4413752066136652</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.9642634140154533</v>
+        <v>-0.06714480421955316</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1771555623790074</v>
+        <v>0.9695976033137902</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8571414545842403</v>
+        <v>-0.7455049647804307</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.7140794425303836</v>
+        <v>0.1721453849532877</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.5402795557287541</v>
+        <v>-0.2257359513757101</v>
       </c>
       <c r="M21" t="n">
-        <v>0.09545376014794472</v>
+        <v>-0.2535117336057575</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1100804489046806</v>
+        <v>0.07205995218611001</v>
       </c>
       <c r="O21" t="n">
-        <v>1.024573760725806</v>
+        <v>-1.079137322047034</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.7198206844466604</v>
+        <v>-0.6246195669338866</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.4339724921898624</v>
+        <v>-0.909466794823887</v>
       </c>
       <c r="R21" t="n">
-        <v>-2.038483015118799</v>
+        <v>0.03910145306792762</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.3360910535643576</v>
+        <v>-0.2515496330334282</v>
       </c>
       <c r="T21" t="n">
-        <v>0.510777854742562</v>
+        <v>-2.20377325175548</v>
       </c>
       <c r="U21" t="n">
-        <v>0.78</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="V21" t="n">
-        <v>0.9342129556072731</v>
+        <v>-0.7921562380480758</v>
       </c>
       <c r="W21" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.1935146978244555</v>
+        <v>0.4114112492433434</v>
       </c>
       <c r="B22" t="n">
-        <v>1.766195612344247</v>
+        <v>-0.8215748851764074</v>
       </c>
       <c r="C22" t="n">
         <v>-8</v>
       </c>
       <c r="D22" t="n">
-        <v>1.123947205903869</v>
+        <v>0.260028543095372</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.617306276492725</v>
+        <v>0.1409862572846876</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.869766019782906</v>
+        <v>0.1600481856697601</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.775653339644181</v>
+        <v>-0.5104824270082541</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1140722611855835</v>
+        <v>-0.7059884885839743</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.199178672402886</v>
+        <v>0.7287368446338801</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.065428569609886</v>
+        <v>-0.9752083678387832</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.7318210143537374</v>
+        <v>1.302382310971505</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.6886091830611923</v>
+        <v>-0.6410533148263553</v>
       </c>
       <c r="M22" t="n">
-        <v>0.8799718762948795</v>
+        <v>-0.8892640808878778</v>
       </c>
       <c r="N22" t="n">
-        <v>1.842758523787623</v>
+        <v>1.610915978722401</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1608149335084882</v>
+        <v>-1.023237152777937</v>
       </c>
       <c r="P22" t="n">
-        <v>1.245943930331316</v>
+        <v>0.8287839533144424</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.4646809781198952</v>
+        <v>0.6389657491381144</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.7992142213346888</v>
+        <v>1.451474703607891</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1232347316722304</v>
+        <v>0.6023595079360777</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2761259096752301</v>
+        <v>1.037694657499076</v>
       </c>
       <c r="U22" t="n">
-        <v>0.5471698113207547</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4341866176948863</v>
+        <v>1.20039924726484</v>
       </c>
       <c r="W22" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.08714482562538539</v>
+        <v>1.578955481884694</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.3582008648077759</v>
+        <v>-0.8215748851764074</v>
       </c>
       <c r="C23" t="n">
-        <v>-4</v>
+        <v>-21</v>
       </c>
       <c r="D23" t="n">
-        <v>1.108959085777557</v>
+        <v>-1.545663045267063</v>
       </c>
       <c r="E23" t="n">
-        <v>1.804358843781652</v>
+        <v>-0.2610408880049073</v>
       </c>
       <c r="F23" t="n">
-        <v>0.556750104616282</v>
+        <v>-0.540451185891306</v>
       </c>
       <c r="G23" t="n">
-        <v>2.57996709666534</v>
+        <v>0.07479849941535921</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8802260199441316</v>
+        <v>-0.342544831574751</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.3085102976651616</v>
+        <v>-0.9753949662086683</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.238426938737621</v>
+        <v>-1.21572387925442</v>
       </c>
       <c r="K23" t="n">
-        <v>1.232457938180811</v>
+        <v>1.789378186350791</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.5491092963198967</v>
+        <v>2.20324473834351</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.9349440684739453</v>
+        <v>-0.4848012337991737</v>
       </c>
       <c r="N23" t="n">
-        <v>0.5837056486216716</v>
+        <v>0.6280526091089407</v>
       </c>
       <c r="O23" t="n">
-        <v>0.8828377478393532</v>
+        <v>-2.013304578295557</v>
       </c>
       <c r="P23" t="n">
-        <v>-2.30008550191109</v>
+        <v>0.8827477948735591</v>
       </c>
       <c r="Q23" t="n">
-        <v>-2.001413822205599</v>
+        <v>1.549412444862098</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.9370326254236275</v>
+        <v>2.475163962963128</v>
       </c>
       <c r="S23" t="n">
-        <v>-2.199906832336402</v>
+        <v>1.175790877617912</v>
       </c>
       <c r="T23" t="n">
-        <v>-1.933484344731413</v>
+        <v>0.7795818175815674</v>
       </c>
       <c r="U23" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.2745809491198633</v>
+        <v>3.461645359527508</v>
       </c>
       <c r="W23" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.5928376606701442</v>
+        <v>1.703162315144412</v>
       </c>
       <c r="B24" t="n">
-        <v>1.462710401322529</v>
+        <v>-0.1375768409494079</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="D24" t="n">
-        <v>1.068423033617759</v>
+        <v>-0.8995358748342267</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8636470675788812</v>
+        <v>0.6427373362174486</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.584917922851792</v>
+        <v>-0.1461925088402087</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.9483874199612657</v>
+        <v>-0.7194341858214256</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8039729618260422</v>
+        <v>-0.1258656184423544</v>
       </c>
       <c r="I24" t="n">
-        <v>2.183601715888935</v>
+        <v>-0.2943146170281553</v>
       </c>
       <c r="J24" t="n">
-        <v>-1.221685112468799</v>
+        <v>-0.09017106671247402</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.386100648403348</v>
+        <v>-0.7034504834029474</v>
       </c>
       <c r="L24" t="n">
-        <v>-1.153900722688728</v>
+        <v>-0.1686952274348839</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.9897257745999442</v>
+        <v>-0.2800255227998752</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.1249455470142785</v>
+        <v>-0.168325184226864</v>
       </c>
       <c r="O24" t="n">
-        <v>1.774748280170526</v>
+        <v>-0.479821566263874</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.3918398300625748</v>
+        <v>-0.1153632953021918</v>
       </c>
       <c r="Q24" t="n">
-        <v>-1.884338528044541</v>
+        <v>0.9766078051726711</v>
       </c>
       <c r="R24" t="n">
-        <v>-1.345445969937946</v>
+        <v>1.276564209025061</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.9016939938458188</v>
+        <v>-0.8009433198724671</v>
       </c>
       <c r="T24" t="n">
-        <v>-2.140118720412098</v>
+        <v>2.000583770175736</v>
       </c>
       <c r="U24" t="n">
-        <v>0.3518518518518519</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.4642462705579494</v>
+        <v>-1.996434368753844</v>
       </c>
       <c r="W24" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.5474996823557866</v>
+        <v>0.2783324993222169</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.9651712868512109</v>
+        <v>1.458418595580258</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.024920576996811</v>
+        <v>-0.3535324321521096</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.4430034608356184</v>
+        <v>0.9413335188591282</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7022236540058646</v>
+        <v>0.6575510885137954</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06200224779352175</v>
+        <v>-0.3001236531282079</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.5679967740169859</v>
+        <v>0.2499965458908014</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.057275469923555</v>
+        <v>0.2018630482797134</v>
       </c>
       <c r="J25" t="n">
-        <v>2.35356095729198</v>
+        <v>0.9683056170073318</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.8413072980908884</v>
+        <v>0.216799201150628</v>
       </c>
       <c r="L25" t="n">
-        <v>2.773762026493474</v>
+        <v>0.8959700352410406</v>
       </c>
       <c r="M25" t="n">
-        <v>1.290753133848313</v>
+        <v>-0.9978030881282903</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.897307007814441</v>
+        <v>-0.654870086533589</v>
       </c>
       <c r="O25" t="n">
-        <v>-1.342442132532174</v>
+        <v>0.7891472474703627</v>
       </c>
       <c r="P25" t="n">
-        <v>0.4665104782772696</v>
+        <v>0.2732043823190543</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.4452213391377222</v>
+        <v>-1.595261308274906</v>
       </c>
       <c r="R25" t="n">
-        <v>1.14107436824899</v>
+        <v>-0.4883828347533712</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9578918484070268</v>
+        <v>-1.398755121943196</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9655475677433318</v>
+        <v>-0.4844961495619811</v>
       </c>
       <c r="U25" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="V25" t="n">
-        <v>0.9342129556072731</v>
+        <v>1.226647103822963</v>
       </c>
       <c r="W25" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.6434069441746201</v>
+        <v>0.2286497660183294</v>
       </c>
       <c r="B26" t="n">
-        <v>1.159225190300812</v>
+        <v>1.002419899428925</v>
       </c>
       <c r="C26" t="n">
-        <v>-1</v>
+        <v>-17.5</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7982962322503586</v>
+        <v>-0.01262672936073648</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2385766759309596</v>
+        <v>-0.7727730444782163</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.1271911352956703</v>
+        <v>-1.013983858470757</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5703945698476078</v>
+        <v>0.09618658644770822</v>
       </c>
       <c r="H26" t="n">
-        <v>2.363343553785707</v>
+        <v>-0.2507106527256676</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5603248952516247</v>
+        <v>0.5167174530618892</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.1429183273256128</v>
+        <v>0.3188905710022809</v>
       </c>
       <c r="K26" t="n">
-        <v>2.122694899381888</v>
+        <v>0.2238532669092585</v>
       </c>
       <c r="L26" t="n">
-        <v>1.812547879070871</v>
+        <v>-0.2915114089959487</v>
       </c>
       <c r="M26" t="n">
-        <v>-1.009711815698804</v>
+        <v>-0.6341356500615157</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.9304619045175625</v>
+        <v>-0.5698692508772447</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.9812596634367227</v>
+        <v>-0.9757794526924507</v>
       </c>
       <c r="P26" t="n">
-        <v>0.3603883944695023</v>
+        <v>1.347000861164877</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.2188740251828925</v>
+        <v>1.133768283112002</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2975731568322043</v>
+        <v>-0.2075976451656102</v>
       </c>
       <c r="S26" t="n">
-        <v>1.56673582083769</v>
+        <v>0.6915411561982061</v>
       </c>
       <c r="T26" t="n">
-        <v>0.1012446570574903</v>
+        <v>0.8564416006228804</v>
       </c>
       <c r="U26" t="n">
-        <v>0.5471698113207547</v>
+        <v>0.6875</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.3415744086136314</v>
+        <v>-0.4169257657142246</v>
       </c>
       <c r="W26" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.510880546024959</v>
+        <v>1.751070665116018</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5522547682573767</v>
+        <v>1.230419247504591</v>
       </c>
       <c r="C27" t="n">
-        <v>-13</v>
+        <v>-4</v>
       </c>
       <c r="D27" t="n">
-        <v>1.183899686409119</v>
+        <v>-0.2045594116233591</v>
       </c>
       <c r="E27" t="n">
-        <v>0.943650437100956</v>
+        <v>-0.7012858568299509</v>
       </c>
       <c r="F27" t="n">
-        <v>1.270096523318191</v>
+        <v>-0.5573135120486565</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.9573676126772173</v>
+        <v>2.518279455314048</v>
       </c>
       <c r="H27" t="n">
-        <v>-1.008273412114364</v>
+        <v>1.573094657028582</v>
       </c>
       <c r="I27" t="n">
-        <v>1.750092884294713</v>
+        <v>-0.8493434377597594</v>
       </c>
       <c r="J27" t="n">
-        <v>1.423117043611348</v>
+        <v>-1.523761811338332</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1510434322847851</v>
+        <v>-0.9152355338026742</v>
       </c>
       <c r="L27" t="n">
-        <v>1.857745460381631</v>
+        <v>-1.309203729908207</v>
       </c>
       <c r="M27" t="n">
-        <v>-1.207368124180112</v>
+        <v>0.483531401772589</v>
       </c>
       <c r="N27" t="n">
-        <v>-1.865095559586896</v>
+        <v>1.675648508477967</v>
       </c>
       <c r="O27" t="n">
-        <v>-1.037685262328272</v>
+        <v>0.2465809014232925</v>
       </c>
       <c r="P27" t="n">
-        <v>0.6116933902503819</v>
+        <v>-1.590648370057956</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.02857612202707275</v>
+        <v>0.2961194782595886</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1479859515484825</v>
+        <v>0.08784213476684118</v>
       </c>
       <c r="S27" t="n">
-        <v>1.328388966740436</v>
+        <v>1.162423912659331</v>
       </c>
       <c r="T27" t="n">
-        <v>0.5972701403275361</v>
+        <v>2.997952960224959</v>
       </c>
       <c r="U27" t="n">
-        <v>0.3260869565217391</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="V27" t="n">
-        <v>0.7402587955061222</v>
+        <v>0.192077742255099</v>
       </c>
       <c r="W27" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.5248306931986078</v>
+        <v>-0.54853013352105</v>
       </c>
       <c r="B28" t="n">
-        <v>1.159225190300812</v>
+        <v>-1.049574233252074</v>
       </c>
       <c r="C28" t="n">
-        <v>-1</v>
+        <v>-7.937939859245041</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01687015111944573</v>
+        <v>1.707491984418903</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.2401451730266823</v>
+        <v>1.757868937238673</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1533008398540414</v>
+        <v>-0.3348496198111471</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.3484227751287701</v>
+        <v>-0.4918073578558906</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.4413022424251057</v>
+        <v>-1.147375099929282</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.2839587188403885</v>
+        <v>-0.4961356655536412</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.6633134090367563</v>
+        <v>-1.407464440821957</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.4825852459958803</v>
+        <v>-0.3950416934216058</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.7886801087762336</v>
+        <v>-1.370538041191933</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.4950992904736101</v>
+        <v>0.1973688534222153</v>
       </c>
       <c r="N28" t="n">
-        <v>0.1444677506807375</v>
+        <v>1.488054215842794</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.4105278292925358</v>
+        <v>-0.2433073955806231</v>
       </c>
       <c r="P28" t="n">
-        <v>0.7907563341140321</v>
+        <v>0.3167874845129917</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.3558052162853477</v>
+        <v>-0.170216875487287</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.4314723821039414</v>
+        <v>0.3502888452768544</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9876776488785665</v>
+        <v>0.09925893164300498</v>
       </c>
       <c r="T28" t="n">
-        <v>0.1715530249964772</v>
+        <v>-0.2127330307790372</v>
       </c>
       <c r="U28" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="V28" t="n">
-        <v>-1.438751541843609</v>
+        <v>-0.7164306466847481</v>
       </c>
       <c r="W28" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.6974637644725081</v>
+        <v>-0.5094937002108527</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2487695572356592</v>
+        <v>-0.593575537100741</v>
       </c>
       <c r="C29" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2849531179241666</v>
+        <v>0.8708179272632482</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3643605459878109</v>
+        <v>-0.2133811697791825</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.5318248236613495</v>
+        <v>-0.8750750777989188</v>
       </c>
       <c r="G29" t="n">
-        <v>1.000347027571819</v>
+        <v>1.368742703664033</v>
       </c>
       <c r="H29" t="n">
-        <v>1.589077879806196</v>
+        <v>1.330349877765102</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.8371680849473651</v>
+        <v>-0.5936063289781938</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.7090618365160638</v>
+        <v>-1.184349935148767</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.9053987635114173</v>
+        <v>0.2565780854642477</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.8557877956684306</v>
+        <v>-0.6078825804882684</v>
       </c>
       <c r="M29" t="n">
-        <v>0.4653957059601219</v>
+        <v>-0.5649021478150416</v>
       </c>
       <c r="N29" t="n">
-        <v>1.817924528322243</v>
+        <v>-1.050216998840878</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.5250651895820074</v>
+        <v>1.521951505950046</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.4814315414579127</v>
+        <v>-1.265705228075989</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.242539289599703</v>
+        <v>-1.732767292805388</v>
       </c>
       <c r="R29" t="n">
-        <v>0.8409726600783756</v>
+        <v>-0.1906220672792952</v>
       </c>
       <c r="S29" t="n">
-        <v>-1.345459655458211</v>
+        <v>-1.521731199562149</v>
       </c>
       <c r="T29" t="n">
-        <v>0.5540563960218891</v>
+        <v>-1.07296526014217</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.45</v>
       </c>
       <c r="V29" t="n">
-        <v>-1.12695102850526</v>
+        <v>-0.4040312708387656</v>
       </c>
       <c r="W29" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.610275344637205</v>
+        <v>-0.5219143835368246</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8557399792790942</v>
+        <v>-1.27757358132774</v>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>-9.75</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6814570230838795</v>
+        <v>0.2925947382807257</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.330031754565648</v>
+        <v>0.2809350869758003</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.3966318258090664</v>
+        <v>-1.084566905877231</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2928736556818309</v>
+        <v>-0.2871108668526512</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8687359018451065</v>
+        <v>-0.1258656184423544</v>
       </c>
       <c r="I30" t="n">
-        <v>-1.132903112664924</v>
+        <v>-0.6508963528083951</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.1302283428781177</v>
+        <v>-0.8696067549687975</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5335242067545596</v>
+        <v>-0.9937689316799774</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1047003222244764</v>
+        <v>-0.9829126984680676</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.4554425112908221</v>
+        <v>0.303439580041213</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.2710655070835279</v>
+        <v>0.457159321931576</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.04954086059298824</v>
+        <v>-0.5590259615955561</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.01853299029192841</v>
+        <v>1.047299519022854</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.865603474900213</v>
+        <v>0.6095166444940914</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.9596111290193613</v>
+        <v>0.4845146346209731</v>
       </c>
       <c r="S30" t="n">
-        <v>0.7975319335809653</v>
+        <v>0.9603885232113228</v>
       </c>
       <c r="T30" t="n">
-        <v>0.01413240529281176</v>
+        <v>0.8794095224788442</v>
       </c>
       <c r="U30" t="n">
-        <v>0.32</v>
+        <v>0.875</v>
       </c>
       <c r="V30" t="n">
-        <v>-0.1090518728765955</v>
+        <v>-0.2143602212179904</v>
       </c>
       <c r="W30" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.7079263748527446</v>
+        <v>1.234725115422047</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.3582008648077759</v>
+        <v>-0.1375768409494079</v>
       </c>
       <c r="C31" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.04546680304226162</v>
+        <v>1.213802323364323</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.7487989270306052</v>
+        <v>1.110994826805335</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.3627082772424621</v>
+        <v>0.8411562090601314</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.5269768055908415</v>
+        <v>0.00833123663608475</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.224705366067976</v>
+        <v>-0.5571749204011558</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.1359768098779211</v>
+        <v>-0.02849893671315124</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5531276158068881</v>
+        <v>-0.5293220829100157</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2517713594354041</v>
+        <v>-0.2947592457403392</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.427541434619173</v>
+        <v>0.159419031305678</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.1526714327348263</v>
+        <v>0.7433453778891116</v>
       </c>
       <c r="N31" t="n">
-        <v>0.4711371421884152</v>
+        <v>1.079904070135524</v>
       </c>
       <c r="O31" t="n">
-        <v>0.5152038463219769</v>
+        <v>0.008867806988986463</v>
       </c>
       <c r="P31" t="n">
-        <v>-1.74790849468067</v>
+        <v>0.450877037002858</v>
       </c>
       <c r="Q31" t="n">
-        <v>-1.529629586326723</v>
+        <v>-0.5913874650149855</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.3928965840284226</v>
+        <v>0.7095422169873509</v>
       </c>
       <c r="S31" t="n">
-        <v>-2.478629435119334</v>
+        <v>0.4220539982581939</v>
       </c>
       <c r="T31" t="n">
-        <v>-1.612974087291312</v>
+        <v>-0.3809767634943946</v>
       </c>
       <c r="U31" t="n">
-        <v>0.5</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4985087888086159</v>
+        <v>-1.265704274545816</v>
       </c>
       <c r="W31" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.6451507125713262</v>
+        <v>0.8709765323043008</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.268656497872928</v>
+        <v>-0.1375768409494079</v>
       </c>
       <c r="C32" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D32" t="n">
-        <v>0.05229661687254775</v>
+        <v>-0.2683060064542663</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.808278914368746</v>
+        <v>-1.153902981651891</v>
       </c>
       <c r="F32" t="n">
-        <v>2.40565122739546</v>
+        <v>-0.1461925088402087</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7964416599448888</v>
+        <v>0.1550735373574209</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.273529009642997</v>
+        <v>-0.1258656184423544</v>
       </c>
       <c r="I32" t="n">
-        <v>0.04273404370728952</v>
+        <v>-0.4724999649065013</v>
       </c>
       <c r="J32" t="n">
-        <v>1.81830994607498</v>
+        <v>-0.09017106671247402</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.215534585267549</v>
+        <v>-0.2808197778164558</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.3017233237831436</v>
+        <v>-0.1686952274348839</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.8357598882622528</v>
+        <v>0.5849991241124092</v>
       </c>
       <c r="N32" t="n">
-        <v>-1.674821225803104</v>
+        <v>-0.168325184226864</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.5013366305236634</v>
+        <v>0.738966976848542</v>
       </c>
       <c r="P32" t="n">
-        <v>0.5014748566561639</v>
+        <v>-0.6019979557161238</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.6198758742469077</v>
+        <v>-0.3256949550680485</v>
       </c>
       <c r="R32" t="n">
-        <v>1.083290150267446</v>
+        <v>-0.6916849140656162</v>
       </c>
       <c r="S32" t="n">
-        <v>0.162286109894121</v>
+        <v>-1.122481665571373</v>
       </c>
       <c r="T32" t="n">
-        <v>0.1748945376260689</v>
+        <v>-0.626377124951523</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.7447713586268419</v>
+        <v>-0.5315787967695479</v>
       </c>
       <c r="W32" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.9258974244410026</v>
+        <v>-0.02331266716567013</v>
       </c>
       <c r="B33" t="n">
-        <v>1.159225190300812</v>
+        <v>-0.593575537100741</v>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.12461145213674</v>
+        <v>0.3906397727217403</v>
       </c>
       <c r="E33" t="n">
-        <v>2.078181299045248</v>
+        <v>-0.5460828926523349</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.6938312556468739</v>
+        <v>-0.1461925088402087</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.019129701669833</v>
+        <v>-0.2697924277388248</v>
       </c>
       <c r="H33" t="n">
-        <v>-1.046200468988642</v>
+        <v>-0.2052218455560923</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.2512379740101678</v>
+        <v>-0.9158487014997553</v>
       </c>
       <c r="J33" t="n">
-        <v>0.03562439830764127</v>
+        <v>0.7696768565832848</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.9712008693032947</v>
+        <v>-0.9584059470658283</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.8291228719554378</v>
+        <v>-0.2715292063972228</v>
       </c>
       <c r="M33" t="n">
-        <v>1.755881421494409</v>
+        <v>2.235660430595602</v>
       </c>
       <c r="N33" t="n">
-        <v>0.8963347533722225</v>
+        <v>-0.09065657799948032</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.8280870203477655</v>
+        <v>-0.7824268143001082</v>
       </c>
       <c r="P33" t="n">
-        <v>0.05028732563790416</v>
+        <v>-0.05487898732472684</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.5212538024736667</v>
+        <v>0.1566394776157795</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.3104726032211854</v>
+        <v>0.09143156211561555</v>
       </c>
       <c r="S33" t="n">
-        <v>0.1119297202429806</v>
+        <v>-0.1433571924484914</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3959299973621376</v>
+        <v>0.4872123659827804</v>
       </c>
       <c r="U33" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.26</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.7007201881766474</v>
+        <v>0.3090341211500036</v>
       </c>
       <c r="W33" t="n">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.8369652362089933</v>
+        <v>-0.667413816783923</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2487695572356592</v>
+        <v>-0.8215748851764074</v>
       </c>
       <c r="C34" t="n">
-        <v>-3</v>
+        <v>-0.75</v>
       </c>
       <c r="D34" t="n">
-        <v>1.461861186933455</v>
+        <v>-2.087162652444823</v>
       </c>
       <c r="E34" t="n">
-        <v>0.05550171581592975</v>
+        <v>1.665666578052303</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1911502217792997</v>
+        <v>1.982857244296945</v>
       </c>
       <c r="G34" t="n">
-        <v>1.683347557122298</v>
+        <v>1.453840783119704</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.2966951855766424</v>
+        <v>0.8197189817680022</v>
       </c>
       <c r="I34" t="n">
-        <v>1.332717698569942</v>
+        <v>0.8205588287944297</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.1097837950626567</v>
+        <v>0.4791202040000547</v>
       </c>
       <c r="K34" t="n">
-        <v>2.748173326772348</v>
+        <v>-0.06915843442980692</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.3017233237831436</v>
+        <v>-0.1905509393638577</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.730389312070393</v>
+        <v>-0.4579199199183824</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.1249455470142785</v>
+        <v>-0.1971539622303415</v>
       </c>
       <c r="O34" t="n">
-        <v>1.413786970577202</v>
+        <v>2.094024051973701</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.7876409876912481</v>
+        <v>-0.5851067526450359</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.4703310954432505</v>
+        <v>-1.227556323025748</v>
       </c>
       <c r="R34" t="n">
-        <v>1.366064549302496</v>
+        <v>-0.5224689261075944</v>
       </c>
       <c r="S34" t="n">
-        <v>0.8641030748533962</v>
+        <v>-0.8368170526045643</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3736655039651189</v>
+        <v>-0.8852955478107193</v>
       </c>
       <c r="U34" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.01744302637979302</v>
+        <v>-0.6207981846910799</v>
       </c>
       <c r="W34" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-1.194437757533737</v>
+        <v>0.1417049827365269</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.6616860758294935</v>
+        <v>-0.1375768409494079</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>-12.5</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.446856034852453</v>
+        <v>0.9983111169250627</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4640575492225583</v>
+        <v>1.850702013282785</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.5344451620152948</v>
+        <v>1.508280659613897</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.8469104722493799</v>
+        <v>-0.7740511527034994</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.6380370208014006</v>
+        <v>-0.8147960975150789</v>
       </c>
       <c r="I35" t="n">
-        <v>2.284327274078397</v>
+        <v>-0.8760355844333423</v>
       </c>
       <c r="J35" t="n">
-        <v>1.618435632831354</v>
+        <v>1.106897589554584</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.3506174679192499</v>
+        <v>-0.5650255325656707</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.4615543475083522</v>
+        <v>0.07495416109360312</v>
       </c>
       <c r="M35" t="n">
-        <v>-1.111209999911592</v>
+        <v>0.3660567341978884</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.5139532634831619</v>
+        <v>-0.3736397725415008</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.3865548929065178</v>
+        <v>0.8097538782330994</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.6852900403256937</v>
+        <v>-1.023427969947857</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.560146062542862</v>
+        <v>-0.8889170636004755</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.5424572975929536</v>
+        <v>0.8888247992973256</v>
       </c>
       <c r="S35" t="n">
-        <v>0.6155439529989633</v>
+        <v>-0.05602635471908914</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.06065583300676653</v>
+        <v>0.6470123487287186</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="V35" t="n">
-        <v>1.24040192302029</v>
+        <v>-0.8471686959925474</v>
       </c>
       <c r="W35" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-1.353120681633989</v>
+        <v>-0.7437123000720357</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2487695572356592</v>
+        <v>-1.733572277479074</v>
       </c>
       <c r="C36" t="n">
-        <v>-4</v>
+        <v>-4.285714285714286</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.3588547693196982</v>
+        <v>1.491654329094691</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0635036228160665</v>
+        <v>-1.301877195360576</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.8640573976793102</v>
+        <v>1.788045939271439</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.5704973943629028</v>
+        <v>-1.075099697447887</v>
       </c>
       <c r="H36" t="n">
-        <v>0.440624703706913</v>
+        <v>-0.1984922294150759</v>
       </c>
       <c r="I36" t="n">
-        <v>2.817781311428581</v>
+        <v>-1.430109607391413</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2553633382783945</v>
+        <v>0.7916540204680502</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.1760445951442982</v>
+        <v>-1.406932239045168</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.4183084757901078</v>
+        <v>0.726884187070061</v>
       </c>
       <c r="M36" t="n">
-        <v>-1.062696239154754</v>
+        <v>0.5294671729887256</v>
       </c>
       <c r="N36" t="n">
-        <v>0.4243539062592079</v>
+        <v>-0.7225358873344647</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.270477986243632</v>
+        <v>1.192162987223206</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.5124681593436571</v>
+        <v>0.07407019704389711</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.1065471260945418</v>
+        <v>0.7614443496420433</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.8177072932877102</v>
+        <v>0.7173957819787043</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.0483798356781276</v>
+        <v>0.8726920887080247</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.4637862143840291</v>
+        <v>0.2765624746491361</v>
       </c>
       <c r="U36" t="n">
-        <v>0.4807692307692308</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="V36" t="n">
-        <v>-0.0697625686995718</v>
+        <v>-0.293506188903506</v>
       </c>
       <c r="W36" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-1.267676030195391</v>
+        <v>0.9703419989120753</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.3582008648077759</v>
+        <v>0.09042250712625868</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>-15.17808219178082</v>
       </c>
       <c r="D37" t="n">
-        <v>0.005969700118491539</v>
+        <v>1.182275474833822</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.834356017806249</v>
+        <v>1.765303034699791</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5982382695502277</v>
+        <v>2.016270385002215</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.3223704361657211</v>
+        <v>0.09861146761585714</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.329787853283907</v>
+        <v>-1.320809491934051</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.5360695163993024</v>
+        <v>1.067860740939611</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.2520781245716516</v>
+        <v>0.5358088961814874</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.8134766370862487</v>
+        <v>1.211526939296954</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.01041407339674831</v>
+        <v>-0.3044962379437076</v>
       </c>
       <c r="M37" t="n">
-        <v>2.025923567363512</v>
+        <v>-1.100061135853116</v>
       </c>
       <c r="N37" t="n">
-        <v>1.944432045571218</v>
+        <v>-0.3422099533637285</v>
       </c>
       <c r="O37" t="n">
-        <v>-1.750373044555112</v>
+        <v>1.797433437351214</v>
       </c>
       <c r="P37" t="n">
-        <v>1.76689155050114</v>
+        <v>-1.30144776982826</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.6366202147664523</v>
+        <v>-2.306214302777178</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.148671491349699</v>
+        <v>-0.09756677069912495</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.4634927155294795</v>
+        <v>-0.6919968453667892</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1338454209987109</v>
+        <v>-1.647839251641868</v>
       </c>
       <c r="U37" t="n">
-        <v>0.5142857142857142</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="V37" t="n">
-        <v>-0.6558454008572221</v>
+        <v>0.6798032984228065</v>
       </c>
       <c r="W37" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-1.000879465499363</v>
+        <v>-0.5982128668249372</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.9651712868512109</v>
+        <v>0.8249406381137623</v>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>7.096199547305878</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1517632322562552</v>
+        <v>1.286903038088897</v>
       </c>
       <c r="E38" t="n">
-        <v>1.020545264392416</v>
+        <v>0.9964876689882559</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.6428750114851434</v>
+        <v>2.054335576808585</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2830170439608194</v>
+        <v>-1.21485058484026</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.4600755836225855</v>
+        <v>-0.004235668920615735</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.02361299737537158</v>
+        <v>-0.7749176168317807</v>
       </c>
       <c r="J38" t="n">
-        <v>-1.400974797886298</v>
+        <v>1.193974210459305</v>
       </c>
       <c r="K38" t="n">
-        <v>1.682957253528221</v>
+        <v>-1.367486993372633</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.2610037771251448</v>
+        <v>0.1692932724435005</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.6245741531761757</v>
+        <v>0.4002136288358784</v>
       </c>
       <c r="N38" t="n">
-        <v>1.005973376362972</v>
+        <v>0.0523745986305265</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.1707251537002898</v>
+        <v>-0.6632080886873286</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.8311958620060843</v>
+        <v>-0.2667740774916703</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.7802792606130686</v>
+        <v>-0.03962401875747566</v>
       </c>
       <c r="R38" t="n">
-        <v>1.993583670298773</v>
+        <v>-0.07586826123847928</v>
       </c>
       <c r="S38" t="n">
-        <v>0.5259851159645326</v>
+        <v>1.479872193291086</v>
       </c>
       <c r="T38" t="n">
-        <v>1.434553732255069</v>
+        <v>0.2047673675470355</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4821428571428572</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="V38" t="n">
-        <v>-0.586982714480458</v>
+        <v>-0.9139665517864231</v>
       </c>
       <c r="W38" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-1.171768768376558</v>
+        <v>-0.1599401837513602</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.05471565378605836</v>
+        <v>-0.3655761890250744</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1381376685050625</v>
+        <v>0.1581725709199001</v>
       </c>
       <c r="E39" t="n">
-        <v>2.429754356365058</v>
+        <v>-0.6477594045423415</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.6320872366675863</v>
+        <v>-0.2706699796761636</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3597227478673486</v>
+        <v>-0.3346097287567936</v>
       </c>
       <c r="H39" t="n">
-        <v>1.235741078704847</v>
+        <v>-1.032747576972995</v>
       </c>
       <c r="I39" t="n">
-        <v>1.040638327907707</v>
+        <v>0.3202838142109375</v>
       </c>
       <c r="J39" t="n">
-        <v>1.070147599660459</v>
+        <v>0.7442827625609112</v>
       </c>
       <c r="K39" t="n">
-        <v>2.762927974799109</v>
+        <v>-0.7927572718572301</v>
       </c>
       <c r="L39" t="n">
-        <v>1.920472626049059</v>
+        <v>-0.5725595544764076</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.8580226052226487</v>
+        <v>0.02135957882534447</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.5679912630718649</v>
+        <v>-0.2121719604015399</v>
       </c>
       <c r="O39" t="n">
-        <v>1.105876471588479</v>
+        <v>1.102617809908767</v>
       </c>
       <c r="P39" t="n">
-        <v>0.2926765265966524</v>
+        <v>-0.7145259684915174</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.8344726530510264</v>
+        <v>0.3851234475655387</v>
       </c>
       <c r="R39" t="n">
-        <v>-0.2928538454329474</v>
+        <v>-2.072422604133045</v>
       </c>
       <c r="S39" t="n">
-        <v>-1.055683828217334</v>
+        <v>-0.4073376132459198</v>
       </c>
       <c r="T39" t="n">
-        <v>-0.004012990774647089</v>
+        <v>0.3908154011148668</v>
       </c>
       <c r="U39" t="n">
-        <v>0.4901960784313725</v>
+        <v>0.78</v>
       </c>
       <c r="V39" t="n">
-        <v>-0.1814142369671667</v>
+        <v>1.004953669201278</v>
       </c>
       <c r="W39" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-1.218850515087622</v>
+        <v>-0.1333244337671349</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.6616860758294935</v>
+        <v>1.230419247504591</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>-1.75</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1544713130518053</v>
+        <v>0.9660913706246572</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.6254750530186786</v>
+        <v>-0.7415477033595249</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5789639805236627</v>
+        <v>-1.033646102911354</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.1398884598822256</v>
+        <v>-0.7307994947498598</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3402169866502848</v>
+        <v>0.2625705881863288</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.02744402828835879</v>
+        <v>-1.331460779320946</v>
       </c>
       <c r="J40" t="n">
-        <v>-1.005869664697262</v>
+        <v>-0.9957406850384045</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.4429591499577434</v>
+        <v>-0.8140561543120738</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.8331097941173825</v>
+        <v>-0.6451630389586992</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4340808969895261</v>
+        <v>0.7571563661418547</v>
       </c>
       <c r="N40" t="n">
-        <v>0.6989219315393769</v>
+        <v>1.366554965939289</v>
       </c>
       <c r="O40" t="n">
-        <v>0.6243161457696392</v>
+        <v>0.2197548148303478</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.8780399425969799</v>
+        <v>0.9171502491784868</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.2534299130804268</v>
+        <v>-0.4288249588915894</v>
       </c>
       <c r="R40" t="n">
-        <v>-1.894343049375922</v>
+        <v>-0.8100551410486921</v>
       </c>
       <c r="S40" t="n">
-        <v>-0.1788532322227429</v>
+        <v>0.009506047847085827</v>
       </c>
       <c r="T40" t="n">
-        <v>-0.3235337506682367</v>
+        <v>0.1561695953087421</v>
       </c>
       <c r="U40" t="n">
-        <v>0.525</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="V40" t="n">
-        <v>0.3545884079203719</v>
+        <v>0.4385627007484565</v>
       </c>
       <c r="W40" t="n">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-1.28162617736904</v>
+        <v>-0.6798345001098949</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.6616860758294935</v>
+        <v>-0.3655761890250744</v>
       </c>
       <c r="C41" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9508476196868314</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.850702013282785</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9417921876362046</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.518279455314048</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.073692021672849</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-0.2625658587234075</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1.163257824816585</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.544074620971637</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.4733624829304254</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.9450469277337673</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.3681777859601514</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.9577469537109363</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-2.026219393479008</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-1.820708806135558</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-0.9504423355045835</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-2.098772794543388</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-2.053382848477519</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="V41" t="n">
+        <v>-0.3642741063128846</v>
+      </c>
+      <c r="W41" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.2410704493443014</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.002419899428925</v>
+      </c>
+      <c r="C42" t="n">
         <v>2</v>
       </c>
-      <c r="D41" t="n">
-        <v>-1.427098967413223</v>
-      </c>
-      <c r="E41" t="n">
-        <v>-0.1704764522882473</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.8467462975300696</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-0.7513509846112191</v>
-      </c>
-      <c r="H41" t="n">
-        <v>-0.7154867196665228</v>
-      </c>
-      <c r="I41" t="n">
-        <v>-0.01009105181595413</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.311335794785661</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-0.7291122940748043</v>
-      </c>
-      <c r="L41" t="n">
-        <v>-0.6231375804896556</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.4541930173062002</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-0.2684740434080291</v>
-      </c>
-      <c r="O41" t="n">
-        <v>-1.135654171170525</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0.9777712052384818</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.7190518128707354</v>
-      </c>
-      <c r="R41" t="n">
-        <v>-0.1074992424990249</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0.7057574180304883</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0.1074092960193289</v>
-      </c>
-      <c r="U41" t="n">
+      <c r="D42" t="n">
+        <v>0.9096202023777129</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.104948493264433</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-2.023987837376671</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.9011076791828433</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.009290431708727</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.324666082010394</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-1.147046441637905</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.3990164098103973</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-1.218191068519089</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.9964264976144426</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.1937534849522086</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.869384298654413</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-0.4422865783191368</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-1.714668767047916</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-1.366468075997934</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-0.9206290676554612</v>
+      </c>
+      <c r="T42" t="n">
+        <v>-2.260011817928112</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.3518518518518519</v>
+      </c>
+      <c r="V42" t="n">
+        <v>-0.5791122397194811</v>
+      </c>
+      <c r="W42" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-0.7437123000720357</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.8215748851764074</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-6.6</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-2.236482121858523</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-0.5242218250932801</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.143243832528811</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.09509196809743573</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-0.4756725861793752</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-1.161162139952117</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.789185834656873</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.9454952123027333</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2.578449240373676</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.142426665675693</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-1.599163275151958</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-1.316750508042083</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.2701841692052427</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-0.4111995419059842</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.166398390880524</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.766967395500056</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.8455732158547614</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.004953669201278</v>
+      </c>
+      <c r="W43" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>-0.5786946501698386</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-1.96157162555474</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.6348862366119007</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.3255923404048812</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.005329047586906937</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.5963443740485977</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2.668077865928269</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.7801269671205643</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-0.102458985432126</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.290852013778792</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.199341974019022</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-1.015171335406005</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.8324948478399233</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-0.9475795932130969</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.1820978952856798</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.1902996804116143</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.3071752024119515</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.319500605390905</v>
+      </c>
+      <c r="T44" t="n">
+        <v>-0.01870708184430355</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.5471698113207547</v>
+      </c>
+      <c r="V44" t="n">
+        <v>-0.4401590898141512</v>
+      </c>
+      <c r="W44" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>-0.9779308999332186</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.593575537100741</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.959706772662927</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-1.448746739840041</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.1461925088402087</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.8582700404017094</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-0.1258656184423544</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-1.363732064692457</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-0.09017106671247402</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-1.238529898325175</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.1686952274348839</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2.308558601392936</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.168325184226864</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-1.208721804879052</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.9502326034596698</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.108553972648465</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.062655768745112</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.538823936185344</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.04296042815298603</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.9142857142857143</v>
+      </c>
+      <c r="V45" t="n">
+        <v>-0.1562976550075489</v>
+      </c>
+      <c r="W45" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>-1.008095416582007</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.3184218552019252</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.027066374375961</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.00310853425019</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.651720789833803</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.9099617531125768</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-0.9522097197138665</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.563988498405532</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.405289320442509</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.2458288581174455</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.869768708974755</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-1.200552493316894</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.573620920673619</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-1.005253184112276</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.3906927503943292</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-0.03382637001103443</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.1547998486621932</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.103197975612075</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.4773054237791842</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.3260869565217391</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.7852574727293378</v>
+      </c>
+      <c r="W46" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>-0.7437123000720357</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.7744205513532583</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-2.666666666666666</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.1598675054647342</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.2712921440926492</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.04148574379054335</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.3095690019407252</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.3385436910824332</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.2331014041151727</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.6063660227205327</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.5148468516273484</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.7684050076922753</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.5325180543916309</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.01988018660124154</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-0.3642246096207114</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.5393233365651442</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.3143240440561483</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-0.435458979999418</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.7939983667980144</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.05159944659816564</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-1.68295606256742</v>
+      </c>
+      <c r="W47" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>-0.8306570833538384</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.09042250712625868</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.1127877669913743</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.437320564961816</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.5656654279273028</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.014360609938847</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.840923812255727</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.8970103271560951</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.6506649705043962</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-1.02243746984012</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.8510512247693662</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.3683268312313258</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.346862628270728</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.4812952475895403</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.516651872965891</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.117476549188827</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.8607031019240147</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-1.323351729869145</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.4340928100862153</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-1.329772677365943</v>
+      </c>
+      <c r="W48" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>-0.8803398166577256</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5464212032775918</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.516054269073851</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.38336537827227</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.3784502818778355</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.3128185275563833</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.079387146195597</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-1.251923197014258</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.09017106671247402</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.7049997330421768</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.3318342711778037</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.495324100399432</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.3096206074139028</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.004746480836438055</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.132424508482201</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.681812099544018</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.9734416787038545</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.6214388487971364</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-0.1058170544679854</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-0.1767756353484358</v>
+      </c>
+      <c r="W49" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>-1.040034316563078</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.3184218552019252</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-6.800000000000001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-1.212379217944603</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.6380318269664287</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.6168105358687441</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0501873798382188</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.08544686762662758</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.3567553163819666</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.07445401400442164</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.3740168506263781</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.4645021897061008</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.224360300790216</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.4899445535206903</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.2259728505034408</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.240113250125478</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.215751047346727</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.799190621593976</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.087706005967771</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.6691624252429504</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.3243243243243243</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.6366889922855165</v>
+      </c>
+      <c r="W50" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>-1.057778149885894</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4.422410120563923</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6.100000000000001</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.6940916860585319</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.2436050018904365</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.03005370107080273</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1.111806122307658</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.629999420816676</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.01850136472873896</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.7302795643798083</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.3719200499599508</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.1263820791523943</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.1103618924640667</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.4303425617688947</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.8604822363537027</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.2214308459330242</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.3941186687500912</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.501031410479077</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-0.1650185305352183</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-0.3922549509470933</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.3580246913580247</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-0.09773019691701708</v>
+      </c>
+      <c r="W51" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>-0.8182364000278666</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.3184218552019252</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-1.333333333333334</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.08953838181976589</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.4738752964861075</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.2827393099864866</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.09440503407882375</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.5471178144609655</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.851269670096954</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.9327564385929064</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1.757538110833041</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.7782515754454034</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-1.060581308017746</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.9968763529190952</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.9643410755550128</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-1.307588211179432</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-0.57703099698258</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-1.383861965522232</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-0.8591181816181866</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-0.7615104546532682</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.6486486486486487</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-0.05596941801569367</v>
+      </c>
+      <c r="W52" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>-0.7951694167082046</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.3655761890250744</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-4.4</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-0.2232676514106905</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-0.9054966083497819</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.3314729812756819</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-0.4856154005168798</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-0.1041082346889409</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-0.05550768313357011</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.571533643143869</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.3667534470806989</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.3236460442777911</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-0.2113561686096559</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.2789155871883287</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.5819819170378754</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.567886750868166</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-1.393393895914557</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-0.3961641695456253</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-2.351716900682705</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-1.732880976632473</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.5114218564125265</v>
+      </c>
+      <c r="W53" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>-0.7809743500499511</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1.458418595580258</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.1238368214298732</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-2.226487424738718</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.054335576808585</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.7512958616586123</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-1.239311353465136</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.1589639755341498</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.402982269646192</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.1942506446523869</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.1686952274348839</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.8520224332698095</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-1.422741194704658</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.457041872620703</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.2992062322933509</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.5535039931034818</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.107537135739146</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.04494564212189014</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.05494087180287419</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="V54" t="n">
+        <v>-0.8968692542199708</v>
+      </c>
+      <c r="W54" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>-0.9211506333002045</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5464212032775918</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.7360493110174708</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-0.1702223894236966</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.5359022510575803</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.278451647295738</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-0.7587072256923454</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-0.03543968264941252</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-1.342354022055491</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.1645973296978942</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-1.075219604019373</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.4282469009354987</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.05849184149475</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.296120322199977</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-0.5920972505412417</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-0.2154968470248569</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-1.777414632635319</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.1419875250548702</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-0.07473199119492335</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.8301886792452831</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.9744803448546546</v>
+      </c>
+      <c r="W55" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>-0.9317969332938947</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.7744205513532583</v>
+      </c>
+      <c r="C56" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-1.320817718934135</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.571476719874483</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.7900117942846991</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.9708564487268527</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.9932603896843926</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.1938330984930153</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.08541552103149266</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-1.101433363242165</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.8182121391804347</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.819615610703567</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.6160798162375674</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-0.7910191573825857</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.07530043983681704</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.4641778169817108</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.3122038922669321</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-0.0007533856624861876</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.2759705485294606</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-0.8469715124391416</v>
+      </c>
+      <c r="W56" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>-0.9317969332938947</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.09042250712625868</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-0.3333333333333339</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.309768664495636</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.09732909436629408</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.1461925088402087</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.673861999221075</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.1258656184423544</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.707078869298702</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.09017106671247402</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2.680973073707289</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.1686952274348839</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-1.691092229528742</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.168325184226864</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.500439434818235</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.7708199800163206</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-0.4339425088077498</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.395582152708455</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.6818529582224249</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.2537066376443003</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-0.07300825480845069</v>
+      </c>
+      <c r="W57" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>-0.7224197000846554</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.3184218552019252</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.3333333333333339</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.8482987497414594</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-0.3760716728023684</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.5152600184156684</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.518279455314048</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.8283754187565042</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1.234148797055831</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.4605183585855981</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-0.6756959196037433</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-0.1173126215863015</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.7797263194690863</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.2343440669439265</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.63874239579296</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.950694012205417</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-3.168744256017607</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-0.5648269021876124</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1.410591330443271</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.526205290277337</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.5405405405405406</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.7739725314897955</v>
+      </c>
+      <c r="W58" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>-0.8058157167018948</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.593575537100741</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-1.648558364097386</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.606728526504917</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.5692940702048331</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.8010558845694862</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.5514812381644739</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.233411846356708</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.409210555238369</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.3564186006771619</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.3655345180465116</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-1.110366126099967</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.5022206149821029</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.3397214523137478</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.6858639250457046</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.4994041797040694</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-0.5485125377983587</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.4562825729271663</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-0.180603336063007</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.351780731364981</v>
+      </c>
+      <c r="W59" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>-0.7437123000720357</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.09042250712625868</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.5420006255652258</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.1073061074171365</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-1.025740807978597</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.5285247814891717</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.6160173792317879</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.324666082010394</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.2832036412415987</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.1468426322083654</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.3122752288766201</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-1.064865240179268</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.2418184039972381</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-0.2210772170866732</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.5424137118454663</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.08856046330969936</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-0.8288929044484207</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-0.1462362310549546</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-0.5837231702329531</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.4807692307692308</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-0.1322717655411596</v>
+      </c>
+      <c r="W60" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>-0.7348403834106272</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.3655761890250744</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-0.1709538697831527</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-1.23565530339998</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.6576347101331766</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.2448975433875709</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-1.300203587494312</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-0.5276258506317669</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-0.2081601958286283</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-0.1887622681353416</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.1900655741804989</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.9447461053994711</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.630272687498879</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-1.733703823510813</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.349561045513272</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.568670049579468</v>
+      </c>
+      <c r="R61" t="n">
+        <v>-0.147386977533083</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-0.5229561500444166</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.01389282915446511</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="V61" t="n">
+        <v>-0.7961408414887303</v>
+      </c>
+      <c r="W61" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>-0.7561329833980074</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-0.8215748851764074</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-0.02267374702430402</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.186431145342071</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.785673746066475</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.3130028088474612</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-0.3466188101722858</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.07934060816038851</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1.343419734227299</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1.810721357401883</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-0.1548110615471004</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-0.6539520736373396</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.8108738191029722</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-0.1191181033483038</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-0.8069725549730893</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-0.7146756539624946</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2.034797571334572</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.3750068537914877</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.314567109633559</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.4821428571428572</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-0.7181385430697371</v>
+      </c>
+      <c r="W62" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>-0.7206453167523738</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.1375768409494079</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.03653170242232714</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.850702013282785</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.7045087304091673</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.3886312496507721</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1.476618295522168</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.356553169086068</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.9869738245391202</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2.67005463623698</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.8744031986697</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.8729025573603131</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.5450705275673643</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.185718731784677</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.1258938901715571</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-0.7637608985787279</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-0.2942567393301414</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-1.060376689917654</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-0.1239619757926241</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.4901960784313725</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-0.2587420966510715</v>
+      </c>
+      <c r="W63" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>-0.804041333369613</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-0.593575537100741</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.3341312945948773</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.7517327742441854</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.6309436914233856</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.1039633649036103</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.4969793534490627</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.07474297159924979</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.9380688269186517</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.4672754430698693</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.8231222180361532</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.3389567818191346</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.4595395626543155</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.6935075054947792</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.8458553243871751</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.2215984076932373</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-1.925596020750522</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-0.2646424038390134</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-0.4434743759796467</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.3484000358985951</v>
+      </c>
+      <c r="W64" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>-0.4598109669069656</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-0.593575537100741</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-1.628464328770252</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.1844271335356679</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.083174420752203</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.7068384445881787</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.6353095731172175</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.09556835277893289</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.081340229390619</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.8108043164592346</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.5645317353167697</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.3578198688665218</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.30756568323447</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-1.105388918254274</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.6945543928525473</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.643331829826718</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-0.1054473211875062</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.5381523748244348</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-0.01254260416955261</v>
+      </c>
+      <c r="U65" t="n">
         <v>0.7857142857142857</v>
       </c>
-      <c r="V41" t="n">
-        <v>-0.8235385239859732</v>
-      </c>
-      <c r="W41" t="n">
-        <v>67</v>
+      <c r="V65" t="n">
+        <v>-0.9860905765533133</v>
+      </c>
+      <c r="W65" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>-0.8821141999900073</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5464212032775918</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.6657201873725025</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.6230089560831574</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.083572702143132</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.9552853081485919</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.6027073314677714</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.3390858146435384</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.867541985637001</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.2876982745400469</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.968703333745341</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.0969253156795276</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-1.167534795284466</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.2651893184409477</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.9060694579523147</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-0.06134836992577954</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-0.3839115313301006</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-0.9213831015762024</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-0.3420600194914548</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-0.2010586151406892</v>
+      </c>
+      <c r="W66" t="n">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
